--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE69FD43-0592-4841-A4BB-6CF7C368D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC4EDC-5828-46B1-A579-FBAA6ADF84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
+    <sheet name="人自己" sheetId="5" r:id="rId2"/>
+    <sheet name="物自己" sheetId="7" r:id="rId3"/>
+    <sheet name="人→人" sheetId="9" r:id="rId4"/>
+    <sheet name="人→物（ぐたい）" sheetId="4" r:id="rId5"/>
+    <sheet name="人→物（ちゅうしょう）" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="919">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,12 +1039,2902 @@
     <t>怖れる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自動／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>動</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一类／二类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看起来/好像要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看起来不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ば形「如果、一..就...」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形「忽略」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形「能力、可能性」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动形「能力、可能性」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役形「強制、放任、誘発...」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役被动形「被迫...」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动（ている）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他动（てある）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形-ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形-ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連用形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否定の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过去否定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ば形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ば形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役被动形</t>
+  </si>
+  <si>
+    <t>使役被动形の仮名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在…「物品」「存在句」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在…「人」「存在句」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>変成…「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>句」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把…怎么样，做「变化句」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑りそもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入ってある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らないかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贈らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おくらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰りそうにない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けそうだない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開ければ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あければ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開けさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あけさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸うている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住んでいる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すみます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すわります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちかう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡している</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡してある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他动好了（てある）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动正在（ている）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つたえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝えている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝えてある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他人（てある、主语是物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在（ている，主语是人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちかいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちかって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝えます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つたえます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つたえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伝えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つたえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つきます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れてある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違わ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちかわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例えば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学を卒業「そつぎょう」
+大学を出します「でる」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲れった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかれった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪が溶けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶けている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とけます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶けない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解けない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撮った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治療</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なおす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病気を治す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章を直す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なおっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なおします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なおらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>煙草「たばこ」／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香煙「こうえん」を吸わない</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なおって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なおった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泣いている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳴く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳴いている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泣きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なきます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泣かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳴かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳴いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泣いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ないて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泣いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳴いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ないた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習いている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ならいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動／他動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴を脱ぎます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱ぎます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬぎます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱がない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬがない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨に濡れった歩道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡れている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡れてある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡れない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬれない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡れます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬれます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡れて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡れた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜けない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜けます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬけます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歯が抜けた
+根が抜けます
+昨日の疲れがまだ抜けません</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜けてある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抜けている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拭う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬぐう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱いでいる</t>
+  </si>
+  <si>
+    <t>拭っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拭ってある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱いで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱いだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬいだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拭わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬぐわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拭って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬぐって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拭った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬぐった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬぐいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拭います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のぼる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上っている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上升，高达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のぼります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のぼらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のぼって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のぼった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残らう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残らされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこらされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご飯を残しました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残している</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残してある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残さない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこさない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のこして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増えている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増えてある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増えります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふえります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増えらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふえらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>増えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨が降るよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降りそうだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降りそうだない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降りそうもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降りそうにもない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降りましょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふうた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,6 +4011,47 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1136,7 +4073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1145,6 +4082,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1424,11 +4393,3896 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16285C8-DDF5-4710-87EA-38CE5E974168}">
+  <dimension ref="A1:AM18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.21875" customWidth="1"/>
+    <col min="32" max="32" width="10" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="9.33203125" customWidth="1"/>
+    <col min="35" max="35" width="13.5546875" customWidth="1"/>
+    <col min="36" max="36" width="14.109375" customWidth="1"/>
+    <col min="37" max="37" width="12.21875" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" customWidth="1"/>
+    <col min="39" max="39" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="18"/>
+      <c r="U1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM1" s="14"/>
+    </row>
+    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="D2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+    </row>
+    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P9" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH9" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH12" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
+  <dimension ref="A1:AK19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" s="18"/>
+      <c r="W1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK1" s="14"/>
+    </row>
+    <row r="2" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="D2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="S9" t="s">
+        <v>685</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="S13" t="s">
+        <v>767</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
+  <dimension ref="A1:AM11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="6" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="T1" s="18"/>
+      <c r="U1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM1" s="14"/>
+    </row>
+    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="D2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E3" t="s">
+        <v>653</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="P5" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>706</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>787</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="43.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="W9" t="s">
+        <v>800</v>
+      </c>
+      <c r="X9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
+  <dimension ref="A1:AL7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="U1" s="16"/>
+      <c r="V1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="W1" s="18"/>
+      <c r="X1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL1" s="14"/>
+    </row>
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="C2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="U3" t="s">
+        <v>643</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="O4" t="s">
+        <v>646</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="T4" t="s">
+        <v>648</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
+  <dimension ref="A1:AN11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="C1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="U1" s="18"/>
+      <c r="V1" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="W1" s="16"/>
+      <c r="X1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN1" s="14"/>
+    </row>
+    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="T4" t="s">
+        <v>743</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E6" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>877</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A664A11-0F88-4BA2-87BB-251D2A1B4C59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2015,7 +8869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74606988-003B-41F3-83B8-08E82A58F942}">
   <dimension ref="A2:E39"/>
   <sheetViews>
@@ -2414,7 +9268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2CFF60-93D5-4662-8BCA-819D0EAA7B36}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC4EDC-5828-46B1-A579-FBAA6ADF84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B310A26-5683-409E-8491-D51D2E83AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4096,7 +4096,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4105,13 +4111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4396,16 +4396,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16285C8-DDF5-4710-87EA-38CE5E974168}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.88671875" customWidth="1"/>
     <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -4424,7 +4429,7 @@
     <col min="34" max="34" width="9.33203125" customWidth="1"/>
     <col min="35" max="35" width="13.5546875" customWidth="1"/>
     <col min="36" max="36" width="14.109375" customWidth="1"/>
-    <col min="37" max="37" width="12.21875" customWidth="1"/>
+    <col min="37" max="37" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.109375" customWidth="1"/>
     <col min="39" max="39" width="17.21875" customWidth="1"/>
   </cols>
@@ -4436,76 +4441,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="16"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="15" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="14"/>
+      <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -5972,12 +5977,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -5987,6 +5986,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6015,76 +6020,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="16"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="15" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="18"/>
+      <c r="V1" s="15"/>
       <c r="W1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="14"/>
+      <c r="AK1" s="19"/>
     </row>
     <row r="2" spans="2:37" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6754,12 +6759,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -6769,6 +6768,12 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6799,76 +6804,76 @@
       <c r="C1" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="16"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="15" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="14"/>
+      <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -7274,12 +7279,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -7289,6 +7288,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7312,76 +7317,76 @@
       <c r="B1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="16"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="9"/>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="15" t="s">
+      <c r="S1" s="15"/>
+      <c r="T1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="W1" s="18"/>
+      <c r="W1" s="15"/>
       <c r="X1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14" t="s">
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AL1" s="14"/>
+      <c r="AL1" s="19"/>
     </row>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
@@ -7655,12 +7660,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
@@ -7670,6 +7669,12 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7697,76 +7702,76 @@
       <c r="D1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="16"/>
+      <c r="R1" s="18"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="15" t="s">
+      <c r="U1" s="15"/>
+      <c r="V1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="17" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="18"/>
+      <c r="Y1" s="15"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14" t="s">
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14" t="s">
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14" t="s">
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="14"/>
+      <c r="AN1" s="19"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
@@ -8241,12 +8246,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -8256,6 +8255,12 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B310A26-5683-409E-8491-D51D2E83AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F81E5-1B53-421A-A7BB-7D498D11023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="987">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3507,9 +3507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脱いでいる</t>
-  </si>
-  <si>
     <t>拭っている</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3518,22 +3515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脱いで</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ぬいで</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脱いだ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ぬいだ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拭わない</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3927,6 +3908,351 @@
   </si>
   <si>
     <t>降らなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慣れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらわれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行けっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おきます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自他</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼が書くいたものは多くの人たちに読まれました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よまれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よまれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よまれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扔掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごみを捨てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落ちる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おちる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木の葉は落ちる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あつまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花を折る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぞんじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うつる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（映る）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰かの言葉が記憶にのこる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（起こる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发生）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦拭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拭く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らしている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らしてある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮らす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くらす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活，度过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳舞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3934,7 +4260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4052,6 +4378,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4073,7 +4414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4096,6 +4437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4396,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16285C8-DDF5-4710-87EA-38CE5E974168}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4441,76 +4783,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="15"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19" t="s">
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="19"/>
+      <c r="AM1" s="20"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -5831,88 +6173,88 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AH17" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AI17" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AK17" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AL17" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="AH17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B18" t="s">
         <v>278</v>
@@ -5921,58 +6263,58 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="M18" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="O18" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="U18" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -6000,10 +6342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6020,76 +6362,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="18"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="15"/>
+      <c r="V1" s="16"/>
       <c r="W1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="19"/>
+      <c r="AK1" s="20"/>
     </row>
     <row r="2" spans="2:37" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6563,89 +6905,18 @@
       </c>
     </row>
     <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>825</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
@@ -6655,36 +6926,36 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>845</v>
-      </c>
       <c r="V16" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>278</v>
@@ -6693,31 +6964,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="S17" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="18" x14ac:dyDescent="0.45">
@@ -6734,12 +7005,12 @@
         <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>278</v>
@@ -6748,13 +7019,108 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>924</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>958</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>959</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>968</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6782,98 +7148,719 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="6" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="7" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="U1" s="16"/>
+      <c r="V1" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="W1" s="19"/>
+      <c r="X1" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN1" s="20"/>
+    </row>
+    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F5" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>695</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>787</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="X9" t="s">
+        <v>800</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>981</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>872</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
+  <dimension ref="A1:AM9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
     <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="15"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19" t="s">
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="19"/>
+      <c r="AM1" s="20"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6883,10 +7870,10 @@
         <v>249</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>252</v>
@@ -6980,301 +7967,203 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E3" t="s">
-        <v>653</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>661</v>
+        <v>610</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
+      </c>
+      <c r="V3" t="s">
+        <v>643</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4">
+        <v>644</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="P4" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="U4" t="s">
+        <v>648</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5">
+      <c r="D5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="P5" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6">
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>706</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7">
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>985</v>
+      </c>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>787</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>785</v>
+        <v>976</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="43.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>808</v>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>985</v>
+      </c>
+      <c r="B9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>806</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="W9" t="s">
-        <v>800</v>
-      </c>
-      <c r="X9" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>900</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7300,393 +8189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AL7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:38" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="AL1" s="19"/>
-    </row>
-    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.45">
-      <c r="C2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="U3" t="s">
-        <v>643</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="O4" t="s">
-        <v>646</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="T4" t="s">
-        <v>648</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O1:P1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7702,76 +8210,76 @@
       <c r="D1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="16"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="18"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="17" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="15"/>
+      <c r="Y1" s="16"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="19"/>
+      <c r="AN1" s="20"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
@@ -8062,6 +8570,9 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="C6" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>618</v>
       </c>
@@ -8128,6 +8639,9 @@
       <c r="B9" s="1" t="s">
         <v>731</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -8166,6 +8680,9 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>971</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>780</v>
       </c>
@@ -8196,52 +8713,354 @@
     </row>
     <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>877</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C11" t="s">
+        <v>970</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>442</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>848</v>
+        <v>811</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>849</v>
+        <v>812</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>970</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="W13" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>886</v>
+    </row>
+    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>972</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>973</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C20" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C21" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>934</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C23" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>943</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E26" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E27" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E28" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -8272,7 +9091,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8287,7 +9106,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="F18" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7F81E5-1B53-421A-A7BB-7D498D11023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE54316B-CE63-4571-A1D1-596A9966933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="物自己" sheetId="7" r:id="rId3"/>
     <sheet name="人→人" sheetId="9" r:id="rId4"/>
     <sheet name="人→物（ぐたい）" sheetId="4" r:id="rId5"/>
-    <sheet name="人→物（ちゅうしょう）" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="996">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4253,6 +4252,42 @@
   </si>
   <si>
     <t>跳舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料が余ってしまうから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本を返しにいきただけど…ちょっと破れちゃって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やぶる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道歉，谢罪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4438,13 +4473,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4453,7 +4482,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4783,76 +4818,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="19"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="15" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="16"/>
+      <c r="X1" s="19"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="20"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6319,6 +6354,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -6328,12 +6369,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6344,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6362,76 +6397,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="19"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="15" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="16"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="20"/>
+      <c r="AK1" s="15"/>
     </row>
     <row r="2" spans="2:37" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -7125,6 +7160,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -7134,12 +7175,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7170,76 +7205,76 @@
       <c r="D1" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="17"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="19"/>
+      <c r="R1" s="17"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="18" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="15" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="16"/>
+      <c r="Y1" s="19"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="20"/>
+      <c r="AN1" s="15"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
@@ -7747,12 +7782,31 @@
         <v>846</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>988</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -7762,12 +7816,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7776,9 +7824,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -7791,76 +7839,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="19"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="15" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="16"/>
+      <c r="X1" s="19"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="20"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -8166,8 +8214,28 @@
         <v>101</v>
       </c>
     </row>
+    <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>995</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -8177,12 +8245,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8191,10 +8253,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8210,76 +8272,76 @@
       <c r="D1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="17"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="19"/>
+      <c r="R1" s="17"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="18" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="15" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="16"/>
+      <c r="Y1" s="19"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="20"/>
+      <c r="AN1" s="15"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
@@ -9040,6 +9102,9 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>960</v>
       </c>
@@ -9048,6 +9113,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>963</v>
       </c>
@@ -9056,6 +9122,9 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C28" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>961</v>
       </c>
@@ -9063,8 +9132,39 @@
         <v>962</v>
       </c>
     </row>
+    <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>991</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -9074,12 +9174,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9087,21 +9181,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A664A11-0F88-4BA2-87BB-251D2A1B4C59}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
@@ -9693,7 +9772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74606988-003B-41F3-83B8-08E82A58F942}">
   <dimension ref="A2:E39"/>
   <sheetViews>
@@ -10092,7 +10171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2CFF60-93D5-4662-8BCA-819D0EAA7B36}">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE54316B-CE63-4571-A1D1-596A9966933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C13F0B3-7D8F-4D3D-91D4-735D9FCF2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1004">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4288,6 +4288,38 @@
   </si>
   <si>
     <t>道歉，谢罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼めない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのめない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>届ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とどける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送给…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4473,7 +4505,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4482,13 +4520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4818,76 +4850,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="19"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15" t="s">
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="15"/>
+      <c r="AM1" s="20"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6354,12 +6386,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -6369,6 +6395,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6397,76 +6429,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="17"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="16" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="19"/>
+      <c r="V1" s="16"/>
       <c r="W1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="15"/>
+      <c r="AK1" s="20"/>
     </row>
     <row r="2" spans="2:37" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -7160,12 +7192,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -7175,6 +7201,12 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7205,76 +7237,76 @@
       <c r="D1" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="17"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="19"/>
+      <c r="Y1" s="16"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="15"/>
+      <c r="AN1" s="20"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
@@ -7801,12 +7833,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -7816,6 +7842,12 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7824,10 +7856,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7839,76 +7871,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="19"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15" t="s">
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="15"/>
+      <c r="AM1" s="20"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -8216,26 +8248,60 @@
     </row>
     <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>995</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -8245,6 +8311,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8272,76 +8344,76 @@
       <c r="D1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="17"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="19"/>
+      <c r="Y1" s="16"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="15"/>
+      <c r="AN1" s="20"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
@@ -9159,12 +9231,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -9174,6 +9240,12 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C13F0B3-7D8F-4D3D-91D4-735D9FCF2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8332FB-C5D6-464A-A001-B02C79925C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1036">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4320,6 +4320,134 @@
   </si>
   <si>
     <t>送给…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け付ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけつける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，采纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け取る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけとる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收，领会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かく／えがく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隠す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐瞒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘密を隠すように</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽可能地掩饰秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輝く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かがやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性は輝こうが輝くまいが普通に仕事続けられます一方で、女性は輝くことを要求される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性不管有没有发光发热，都能正常工作，但却要求女性发光发热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁的言语唤起了我的记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为材料还留了些下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯萎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くりかえす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繰り返す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复地做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凍る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こおる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4505,13 +4633,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4520,7 +4642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4850,76 +4978,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="19"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="15" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="16"/>
+      <c r="X1" s="19"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="20"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6386,6 +6514,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -6395,12 +6529,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6409,10 +6537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D19"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6429,76 +6557,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="19"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="18" t="s">
+      <c r="R1" s="19"/>
+      <c r="S1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="15" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="16"/>
+      <c r="V1" s="19"/>
       <c r="W1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="20"/>
+      <c r="AK1" s="15"/>
     </row>
     <row r="2" spans="2:37" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -7122,6 +7250,9 @@
       <c r="B21" s="1" t="s">
         <v>953</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>954</v>
       </c>
@@ -7136,6 +7267,9 @@
       <c r="B22" s="1" t="s">
         <v>953</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>955</v>
       </c>
@@ -7150,6 +7284,9 @@
       <c r="B23" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>965</v>
       </c>
@@ -7169,6 +7306,9 @@
       <c r="B25" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>982</v>
       </c>
@@ -7183,6 +7323,9 @@
       <c r="B26" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>141</v>
       </c>
@@ -7190,8 +7333,65 @@
         <v>142</v>
       </c>
     </row>
+    <row r="27" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -7201,12 +7401,6 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7215,19 +7409,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="7" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37" customWidth="1"/>
+    <col min="8" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
         <v>229</v>
       </c>
@@ -7237,220 +7431,221 @@
       <c r="D1" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="15" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="20"/>
-    </row>
-    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="E2" s="1" t="s">
+      <c r="AO1" s="15"/>
+    </row>
+    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="F2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>278</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>653</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>278</v>
       </c>
@@ -7460,52 +7655,53 @@
       <c r="D4" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>694</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>695</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>278</v>
       </c>
@@ -7515,52 +7711,52 @@
       <c r="D6" t="s">
         <v>706</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>278</v>
       </c>
@@ -7570,44 +7766,44 @@
       <c r="D8" t="s">
         <v>787</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>278</v>
       </c>
@@ -7617,44 +7813,45 @@
       <c r="D9" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>800</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>980</v>
       </c>
@@ -7664,44 +7861,44 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>981</v>
       </c>
@@ -7711,28 +7908,28 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>278</v>
       </c>
@@ -7740,14 +7937,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>278</v>
       </c>
@@ -7755,14 +7953,15 @@
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>278</v>
       </c>
@@ -7772,14 +7971,15 @@
       <c r="D14" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>278</v>
       </c>
@@ -7787,14 +7987,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>872</v>
       </c>
@@ -7807,14 +8008,17 @@
       <c r="D16" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>278</v>
       </c>
@@ -7824,30 +8028,90 @@
       <c r="D17" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7856,467 +8120,504 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AB1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="20"/>
-    </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="D2" s="1" t="s">
+      <c r="AO1" s="15"/>
+    </row>
+    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="F2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
         <v>442</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>643</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="4" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
         <v>442</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>646</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>648</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
         <v>442</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.45">
-      <c r="C7">
+    <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>985</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>442</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>985</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>442</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1003</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>442</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>995</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1000</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>442</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D13" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8325,10 +8626,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8344,76 +8645,76 @@
       <c r="D1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="17"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="19"/>
+      <c r="R1" s="17"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="18" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="15" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="16"/>
+      <c r="Y1" s="19"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="20"/>
+      <c r="AN1" s="15"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E2" s="1" t="s">
@@ -9032,6 +9333,9 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>1012</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>442</v>
       </c>
@@ -9042,10 +9346,16 @@
         <v>149</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>150</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>934</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>442</v>
       </c>
@@ -9060,66 +9370,42 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C21" s="14" t="s">
         <v>931</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C21" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>934</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>442</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.45">
@@ -9130,19 +9416,25 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>942</v>
+        <v>936</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>943</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>944</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>442</v>
       </c>
@@ -9150,87 +9442,148 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>941</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>942</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>943</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>442</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>951</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>950</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>952</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C27" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C28" s="1" t="s">
-        <v>442</v>
+      <c r="C28" s="1"/>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>991</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>156</v>
+        <v>962</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>991</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
       <c r="E30" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -9240,12 +9593,6 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8332FB-C5D6-464A-A001-B02C79925C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4907B704-B75D-4DF4-8EF6-1625B5206E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1067">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4448,6 +4448,130 @@
   </si>
   <si>
     <t>结冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はたらく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛勤工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追われる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かぜる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かぞえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算得上，数数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数えた日の夢からさよならが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他的书读的人很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向每日数着的梦说声再见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過ぎる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぎる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积攒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+たまらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠かす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かかす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠かせないもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…得不得了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可欠缺的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受欢迎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6537,10 +6661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6550,7 +6674,7 @@
     <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
         <v>229</v>
       </c>
@@ -6628,7 +6752,7 @@
       </c>
       <c r="AK1" s="15"/>
     </row>
-    <row r="2" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
         <v>231</v>
       </c>
@@ -6732,7 +6856,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>278</v>
       </c>
@@ -6753,7 +6877,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>278</v>
       </c>
@@ -6773,7 +6897,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>278</v>
       </c>
@@ -6796,7 +6920,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="6" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>278</v>
       </c>
@@ -6818,7 +6942,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>278</v>
       </c>
@@ -6838,7 +6962,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1053</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>278</v>
       </c>
@@ -6846,143 +6973,128 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>605</v>
+        <v>1054</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>608</v>
+        <v>1055</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>604</v>
+        <v>1056</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>601</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>602</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>663</v>
+        <v>603</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>669</v>
+        <v>607</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>664</v>
+        <v>604</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="S9" t="s">
-        <v>685</v>
+        <v>609</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>674</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>675</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>678</v>
+        <v>662</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>689</v>
+        <v>665</v>
+      </c>
+      <c r="S10" t="s">
+        <v>685</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>278</v>
       </c>
@@ -6990,40 +7102,40 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>674</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>675</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>750</v>
+        <v>676</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>753</v>
+        <v>677</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>754</v>
+        <v>678</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>755</v>
+        <v>679</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>757</v>
+        <v>680</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>759</v>
+        <v>689</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>278</v>
       </c>
@@ -7031,127 +7143,130 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>751</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>757</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>760</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>442</v>
+        <v>278</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S14" t="s">
         <v>767</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>842</v>
-      </c>
+    <row r="15" spans="1:37" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>833</v>
-      </c>
       <c r="B17" s="1" t="s">
         <v>278</v>
       </c>
@@ -7159,34 +7274,37 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>824</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>839</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>833</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>278</v>
       </c>
@@ -7194,19 +7312,34 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>168</v>
+        <v>832</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>167</v>
+        <v>824</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>825</v>
+        <v>831</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>828</v>
-      </c>
       <c r="B19" s="1" t="s">
         <v>278</v>
       </c>
@@ -7214,55 +7347,58 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>827</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>924</v>
+      <c r="A20" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>922</v>
+        <v>827</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>921</v>
+        <v>167</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>923</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>953</v>
+        <v>278</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>954</v>
+        <v>922</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>956</v>
+        <v>921</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>953</v>
@@ -7271,54 +7407,54 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>955</v>
+      </c>
       <c r="E23" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>968</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>969</v>
@@ -7327,44 +7463,44 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>141</v>
+        <v>982</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>142</v>
+        <v>983</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1004</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1005</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>1004</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>226</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="18" x14ac:dyDescent="0.45">
@@ -7378,10 +7514,61 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -7409,10 +7596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8093,6 +8280,69 @@
       </c>
       <c r="G20" s="1" t="s">
         <v>1034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>972</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -8120,10 +8370,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8594,11 +8844,33 @@
       <c r="D14" t="s">
         <v>442</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14" t="s">
         <v>1014</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -8626,973 +8898,1007 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="18" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="15"/>
-    </row>
-    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="E2" s="1" t="s">
+      <c r="AO1" s="15"/>
+    </row>
+    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="F2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
+    <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
         <v>442</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
         <v>442</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>743</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+    <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
         <v>442</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D6" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="E7" s="1" t="s">
+    <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="F7" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>728</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
         <v>442</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>971</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
         <v>442</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>970</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>970</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="S12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>872</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
         <v>442</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>972</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>973</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1012</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1013</v>
       </c>
       <c r="B19" t="s">
         <v>934</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C21" s="14" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D21" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D22" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D23" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D24" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>943</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D27" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C28" s="1"/>
-      <c r="D28">
+    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D28" s="1"/>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.45">
+      <c r="D29" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>991</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>1032</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>1031</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>1029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9604,7 +9910,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:F18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4907B704-B75D-4DF4-8EF6-1625B5206E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DEBCC7-BC6D-4F0B-9455-E096A5A19141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1089">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2491,10 +2491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>開けている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>開け</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2595,14 +2591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吸うている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すべている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>住む</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2611,14 +2599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>住んでいる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>すべます</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2651,10 +2631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>違っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>違わない</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2687,18 +2663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>誓っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡している</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡してある</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>他动好了（てある）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2783,22 +2747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伝えている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伝えてある</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他人（てある、主语是物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在（ている，主语是人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>誓います</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2884,14 +2832,6 @@
   </si>
   <si>
     <t>つき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲れている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲れてある</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2944,10 +2884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会います</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3096,18 +3032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撮っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>とっている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撮ります</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3177,18 +3101,6 @@
   </si>
   <si>
     <t>治って</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>なおっている</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3252,18 +3164,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泣いている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鳴く</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鳴いている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泣きます</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3313,10 +3217,6 @@
   </si>
   <si>
     <t>ならう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>習いている</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3506,14 +3406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拭っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拭ってある</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拭わない</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3554,14 +3446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乗っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>載っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>載る</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3570,18 +3454,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上って</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上る</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3746,14 +3622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>残している</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>残してある</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>残します</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3943,10 +3811,6 @@
   </si>
   <si>
     <t>行ける</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行けっている</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4467,10 +4331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>かぜる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数える</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4572,6 +4432,280 @@
   </si>
   <si>
     <t>受欢迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延ばす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のばす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話し掛ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなしかける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縮む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちぢむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握，抓住，理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掴む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被抓住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸かる、捕まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返る、返す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壊す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話し合う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなしあう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和人说话，攀谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈话，商量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おこる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語の勉強して繰り返すのことはつまらないね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复学日语真无聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下りる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下来，下车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おりる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们一言不发下楼，立即驱车离开了现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>私たちは口も聞かずに階段</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>駆け下りると、車に乗りその場</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>離れました</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中，猜中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立てる、建てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱く、焼けた火箸を押し当てられたかのような痛みです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹如被烤的滚烫的火钳压着一样疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かせぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかがう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おわれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追赶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向…请教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壊れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教会…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恨む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うらむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恨まない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うらまない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨恨，抱怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おどろく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起こす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おこす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送过去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決めている</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4579,7 +4713,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4711,6 +4845,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6492,88 +6635,88 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>852</v>
+        <v>821</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>855</v>
+        <v>824</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>856</v>
+        <v>825</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>863</v>
+        <v>832</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>864</v>
+        <v>833</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>865</v>
+        <v>834</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>867</v>
+        <v>836</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>868</v>
+        <v>837</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>869</v>
+        <v>838</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="B18" t="s">
         <v>278</v>
@@ -6582,58 +6725,58 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>901</v>
+        <v>868</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>902</v>
+        <v>869</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>903</v>
+        <v>870</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>907</v>
+        <v>874</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>911</v>
+        <v>878</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>912</v>
+        <v>879</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -6661,933 +6804,1012 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="15"/>
-    </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="D2" s="1" t="s">
+      <c r="AL1" s="15"/>
+    </row>
+    <row r="2" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="G2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AL2" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="O3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+    <row r="8" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C4">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E10" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C5">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="T10" t="s">
+        <v>669</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E12" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C6">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E13" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C7">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="T14" t="s">
+        <v>742</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C8">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="S10" t="s">
-        <v>685</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="S14" t="s">
-        <v>767</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="18" x14ac:dyDescent="0.45">
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="O15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-    </row>
-    <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="2:38" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C17">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>833</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>830</v>
+      <c r="G18" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>802</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C20">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>890</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>924</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21">
+      <c r="E24" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>925</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>934</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="H27" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>958</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C22">
+      <c r="G30" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>959</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C23">
+      <c r="G31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>968</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C24">
+      <c r="G32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C26">
+      <c r="G33" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C27">
+      <c r="G34" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C28">
+      <c r="G35" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1065</v>
+      <c r="G36" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
+  <mergeCells count="14">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7596,10 +7818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7616,7 +7838,7 @@
         <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="18" t="s">
@@ -7698,10 +7920,10 @@
         <v>249</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>252</v>
@@ -7802,34 +8024,34 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G3" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -7840,14 +8062,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="1" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -7858,34 +8080,34 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="G5" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="R5" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -7896,25 +8118,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -7925,22 +8147,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -7951,43 +8173,43 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -7998,49 +8220,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="Y9" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="Z9" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>278</v>
@@ -8049,45 +8271,45 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>886</v>
+        <v>853</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>981</v>
+        <v>947</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>278</v>
@@ -8102,10 +8324,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>978</v>
+        <v>944</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -8126,10 +8348,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>920</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8142,10 +8364,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>919</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8156,14 +8378,14 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8176,15 +8398,15 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>278</v>
@@ -8193,16 +8415,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -8213,21 +8435,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>989</v>
+        <v>955</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1025</v>
+        <v>991</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>987</v>
+        <v>953</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>988</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1019</v>
+        <v>985</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>278</v>
@@ -8236,21 +8458,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1022</v>
+        <v>988</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1023</v>
+        <v>989</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1020</v>
+        <v>986</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1021</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1028</v>
+        <v>994</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>278</v>
@@ -8259,15 +8481,15 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1026</v>
+        <v>992</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1027</v>
+        <v>993</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1035</v>
+        <v>1001</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>278</v>
@@ -8276,15 +8498,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1033</v>
+        <v>999</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1034</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>278</v>
@@ -8293,15 +8515,15 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1047</v>
+        <v>1012</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1048</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1051</v>
+        <v>1016</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>278</v>
@@ -8310,21 +8532,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1052</v>
+        <v>1017</v>
       </c>
       <c r="E22" t="s">
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1049</v>
+        <v>1014</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1050</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>442</v>
@@ -8333,16 +8555,50 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="E23" t="s">
-        <v>1063</v>
+        <v>1028</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1059</v>
+        <v>1024</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1060</v>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -8370,526 +8626,558 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="18" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="16" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="18" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="8" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AO1" s="15"/>
-    </row>
-    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="F2" s="1" t="s">
+      <c r="AN1" s="15"/>
+    </row>
+    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="G2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="W3" t="s">
+        <v>630</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>633</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="V4" t="s">
+        <v>635</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
         <v>442</v>
       </c>
-      <c r="E3">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="X3" t="s">
-        <v>643</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
+      <c r="G5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E6" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>951</v>
+      </c>
+      <c r="E8" t="s">
         <v>442</v>
       </c>
-      <c r="E4">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="R4" t="s">
-        <v>646</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="W4" t="s">
-        <v>648</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
+      <c r="G8" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>951</v>
+      </c>
+      <c r="E9" t="s">
         <v>442</v>
       </c>
-      <c r="E5">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E6">
+      <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>969</v>
+      </c>
+      <c r="E10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>961</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="E7">
+      <c r="G11" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>966</v>
+      </c>
+      <c r="E12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>985</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G12" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B13" t="s">
+        <v>975</v>
+      </c>
+      <c r="E13" t="s">
         <v>442</v>
       </c>
-      <c r="E8">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>985</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G13" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>982</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="E14" t="s">
         <v>442</v>
       </c>
-      <c r="E9">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G14" t="s">
+        <v>980</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E15" t="s">
         <v>442</v>
       </c>
-      <c r="E10">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>995</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E11">
+      <c r="G15" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E16" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G16" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E17" t="s">
         <v>442</v>
       </c>
-      <c r="E12">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G17" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E18" t="s">
         <v>442</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D14" t="s">
-        <v>442</v>
-      </c>
-      <c r="E14">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1040</v>
+      <c r="G18" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
+  <mergeCells count="14">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8898,215 +9186,205 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="18" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="16" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="18" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="8" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="AO1" s="15"/>
-    </row>
-    <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="F2" s="1" t="s">
+      <c r="AN1" s="15"/>
+    </row>
+    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="G2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>616</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>615</v>
+      <c r="I2" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="O2" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="R2" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA2" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="AA2" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="AB2" s="10" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO2" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
+    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
         <v>442</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>563</v>
       </c>
@@ -9114,7 +9392,7 @@
         <v>564</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>564</v>
@@ -9125,16 +9403,16 @@
       <c r="N3" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>567</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
         <v>570</v>
       </c>
@@ -9165,16 +9443,16 @@
       <c r="AD3" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
       <c r="AH3" s="1" t="s">
         <v>581</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>581</v>
@@ -9182,723 +9460,838 @@
       <c r="AK3" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="1" t="s">
         <v>584</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="AO3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+    </row>
+    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="U4" t="s">
-        <v>743</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D5" t="s">
-        <v>442</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
+      <c r="Q5" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" t="s">
+        <v>721</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
         <v>442</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="F7" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>728</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
+    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E8">
+      <c r="G7" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="G8" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="X9" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>971</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>937</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
         <v>442</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>970</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>936</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>936</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>841</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>970</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>938</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E12">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>939</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>872</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" t="s">
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>978</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E13">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>972</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>979</v>
+      </c>
+      <c r="C20" t="s">
+        <v>900</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E14">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E22" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>973</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C25" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E15">
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>909</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C27" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.45">
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E28" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E16">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E29" s="1"/>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="E30" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>957</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B32" t="s">
+        <v>998</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D17" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B33" t="s">
+        <v>997</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E17">
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E18">
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F35">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B19" t="s">
-        <v>934</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G35" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="B36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E19">
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D21" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D22" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D23" s="1" t="s">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E23">
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D24" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>943</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D27" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D28" s="1"/>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="D29" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>991</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1042</v>
+      <c r="G38" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
+  <mergeCells count="14">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DEBCC7-BC6D-4F0B-9455-E096A5A19141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C59D9-817C-44E9-B6FC-CAAEC3701FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="1104">
   <si>
     <t>信じる</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2496,14 +2496,6 @@
   </si>
   <si>
     <t>あけ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開けそうだ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開けそうだない</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4706,6 +4698,74 @@
   </si>
   <si>
     <t>決めている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むかえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸かる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸かって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起こって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おこって</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4900,7 +4960,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4909,13 +4975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5245,76 +5305,76 @@
       <c r="C1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="X1" s="19"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15" t="s">
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="15"/>
+      <c r="AM1" s="20"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6635,88 +6695,88 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="V17" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AH17" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AI17" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="AH17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AK17" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="AJ17" s="1" t="s">
+      <c r="AL17" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="AK17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B18" t="s">
         <v>278</v>
@@ -6725,68 +6785,62 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="S18" s="1" t="s">
+      <c r="V18" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -6796,6 +6850,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6825,72 +6885,72 @@
       <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="9"/>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="18" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="W1" s="19"/>
+      <c r="W1" s="16"/>
       <c r="X1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AL1" s="15"/>
+      <c r="AL1" s="20"/>
     </row>
     <row r="2" spans="2:38" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -7005,7 +7065,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7016,13 +7076,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="5" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7039,10 +7099,10 @@
         <v>42</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7075,15 +7135,15 @@
         <v>105</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="2:38" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>278</v>
@@ -7092,22 +7152,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7118,46 +7178,46 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="T9" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="10" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7174,34 +7234,34 @@
         <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T10" t="s">
+        <v>667</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="11" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7212,34 +7272,34 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>664</v>
-      </c>
       <c r="T11" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="12" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7256,28 +7316,28 @@
         <v>103</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="13" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7288,28 +7348,28 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="W13" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7320,34 +7380,34 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="T14" t="s">
         <v>740</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="U14" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="W14" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="18" x14ac:dyDescent="0.45">
@@ -7374,7 +7434,7 @@
     </row>
     <row r="16" spans="2:38" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>278</v>
@@ -7383,15 +7443,15 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>278</v>
@@ -7400,10 +7460,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.45">
@@ -7414,33 +7474,33 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="T18" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>278</v>
@@ -7449,39 +7509,39 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="S19" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>810</v>
-      </c>
       <c r="W19" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D20" t="s">
         <v>1056</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1058</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>278</v>
@@ -7490,10 +7550,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -7518,7 +7578,7 @@
     </row>
     <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7529,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>167</v>
@@ -7537,7 +7597,7 @@
     </row>
     <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>278</v>
@@ -7546,100 +7606,100 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="H27" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -7653,34 +7713,34 @@
     </row>
     <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -7694,12 +7754,12 @@
     </row>
     <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -7716,91 +7776,86 @@
         <v>226</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
@@ -7810,6 +7865,11 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7838,79 +7898,79 @@
         <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="20"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="17"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="9"/>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="16" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="18" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Z1" s="19"/>
+      <c r="Z1" s="16"/>
       <c r="AA1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15" t="s">
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15" t="s">
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15" t="s">
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AO1" s="15"/>
+      <c r="AO1" s="20"/>
     </row>
     <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="F2" s="1" t="s">
@@ -7920,10 +7980,10 @@
         <v>249</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>252</v>
@@ -8024,34 +8084,34 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -8062,14 +8122,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8080,34 +8140,34 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G5" t="s">
+        <v>676</v>
+      </c>
+      <c r="R5" t="s">
         <v>677</v>
       </c>
-      <c r="G5" t="s">
+      <c r="S5" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8118,25 +8178,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8147,22 +8207,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8173,43 +8233,43 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>760</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="X8" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8220,49 +8280,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="W9" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y9" t="s">
         <v>773</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Z9" t="s">
         <v>774</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>278</v>
@@ -8271,45 +8331,45 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>278</v>
@@ -8324,10 +8384,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -8348,10 +8408,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8364,10 +8424,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8378,14 +8438,14 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.45">
@@ -8398,15 +8458,15 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>278</v>
@@ -8415,16 +8475,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -8435,21 +8495,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>278</v>
@@ -8458,21 +8518,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>278</v>
@@ -8481,15 +8541,15 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>278</v>
@@ -8498,15 +8558,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>278</v>
@@ -8515,15 +8575,15 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>278</v>
@@ -8532,21 +8592,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E22" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>442</v>
@@ -8555,21 +8615,21 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E23" t="s">
         <v>1026</v>
       </c>
-      <c r="E23" t="s">
-        <v>1028</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>278</v>
@@ -8578,15 +8638,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>278</v>
@@ -8595,20 +8655,14 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
@@ -8618,6 +8672,12 @@
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8626,10 +8686,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8641,72 +8701,72 @@
       <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="17"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="19"/>
+      <c r="Y1" s="16"/>
       <c r="Z1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="15"/>
+      <c r="AN1" s="20"/>
     </row>
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -8814,28 +8874,28 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="W3" t="s">
         <v>628</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.45">
@@ -8846,28 +8906,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q4" t="s">
+        <v>631</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="V4" t="s">
         <v>633</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
@@ -8884,27 +8944,27 @@
         <v>162</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -8916,22 +8976,22 @@
         <v>162</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="Y6" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
@@ -8945,15 +9005,15 @@
         <v>88</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E8" t="s">
         <v>442</v>
@@ -8962,15 +9022,15 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E9" t="s">
         <v>442</v>
@@ -8987,7 +9047,7 @@
     </row>
     <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E10" t="s">
         <v>442</v>
@@ -8996,15 +9056,15 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>278</v>
@@ -9013,12 +9073,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E12" t="s">
         <v>442</v>
@@ -9027,24 +9087,24 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B13" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E13" t="s">
         <v>442</v>
@@ -9053,21 +9113,21 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
+        <v>980</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>982</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>984</v>
       </c>
       <c r="E14" t="s">
         <v>442</v>
@@ -9076,18 +9136,18 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B15" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E15" t="s">
         <v>442</v>
@@ -9096,18 +9156,18 @@
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B16" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E16" t="s">
         <v>442</v>
@@ -9116,15 +9176,15 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="17" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E17" t="s">
         <v>442</v>
@@ -9133,15 +9193,15 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E18" t="s">
         <v>442</v>
@@ -9150,25 +9210,37 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="T18" t="s">
         <v>1077</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="T18" t="s">
-        <v>1079</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>1080</v>
+    </row>
+    <row r="19" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
@@ -9178,6 +9250,11 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9186,10 +9263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9200,81 +9277,75 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="16" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="18" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="16" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="8" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="W1" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15" t="s">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="AN1" s="15"/>
-    </row>
-    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+      <c r="AJ1" s="20"/>
+    </row>
+    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>231</v>
       </c>
@@ -9294,85 +9365,79 @@
         <v>255</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z2" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="W2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="AA2" s="10" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN2" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
         <v>442</v>
       </c>
@@ -9403,79 +9468,73 @@
       <c r="N3" s="1" t="s">
         <v>566</v>
       </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="Q3" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="S3" s="1"/>
+        <v>569</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="T3" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="AB3" s="1" t="s">
         <v>577</v>
       </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
       <c r="AC3" s="1" t="s">
         <v>578</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AE3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="AG3" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH3" s="12" t="s">
         <v>581</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="AL3" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E4" t="s">
         <v>442</v>
@@ -9484,10 +9543,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -9495,9 +9554,15 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1103</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -9512,115 +9577,207 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="12"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-    </row>
-    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D5" s="1"/>
+    </row>
+    <row r="5" spans="1:36" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>1096</v>
+      </c>
       <c r="E5" t="s">
         <v>442</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>586</v>
+      <c r="G5" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>619</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="T5" t="s">
-        <v>721</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+        <v>1097</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1094</v>
+      </c>
       <c r="E6" t="s">
         <v>442</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+    </row>
+    <row r="7" spans="1:36" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" ht="18" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="E7" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="G8" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>709</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="P8" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>442</v>
       </c>
@@ -9628,156 +9785,102 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>707</v>
+        <v>606</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>711</v>
+        <v>57</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>716</v>
+        <v>612</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>717</v>
+        <v>613</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>718</v>
+        <v>615</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="18" x14ac:dyDescent="0.45">
+      <c r="G11" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>707</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>442</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>936</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
         <v>442</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>786</v>
+        <v>705</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>787</v>
+        <v>709</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>795</v>
+        <v>718</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>794</v>
+        <v>712</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>788</v>
+        <v>722</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>936</v>
-      </c>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="18" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>442</v>
       </c>
@@ -9785,26 +9888,39 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>940</v>
+        <v>706</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+        <v>709</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>841</v>
+        <v>935</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>840</v>
+        <v>753</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -9814,164 +9930,224 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>812</v>
+        <v>751</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>813</v>
+        <v>752</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>881</v>
+        <v>784</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.45">
+        <v>785</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>883</v>
+        <v>938</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="E17" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
         <v>442</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>884</v>
+        <v>810</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+        <v>811</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>936</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>104</v>
+        <v>879</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>978</v>
+        <v>937</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>149</v>
+        <v>881</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>979</v>
-      </c>
-      <c r="C20" t="s">
-        <v>900</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1010</v>
-      </c>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="E22" s="14" t="s">
-        <v>897</v>
+      <c r="G21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>976</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>893</v>
+        <v>149</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>977</v>
+      </c>
+      <c r="C23" t="s">
+        <v>898</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1008</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>442</v>
       </c>
@@ -9979,121 +10155,120 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>898</v>
+        <v>148</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="E24" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C25" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>442</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="E25" s="14" t="s">
+        <v>895</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>909</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>892</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>24</v>
+        <v>896</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C27" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+        <v>900</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="C28" s="1" t="s">
+        <v>1086</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="E29" s="1"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>907</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>929</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>442</v>
       </c>
@@ -10101,16 +10276,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>957</v>
-      </c>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>442</v>
       </c>
@@ -10118,45 +10290,25 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>956</v>
+        <v>924</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B32" t="s">
-        <v>998</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>442</v>
-      </c>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="18" x14ac:dyDescent="0.45">
+      <c r="E32" s="1"/>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B33" t="s">
-        <v>997</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1054</v>
-      </c>
       <c r="E33" s="1" t="s">
         <v>442</v>
       </c>
@@ -10164,58 +10316,61 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>996</v>
+        <v>925</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>995</v>
+        <v>926</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>1011</v>
+      <c r="C34" t="s">
+        <v>955</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1006</v>
+        <v>954</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1007</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>1037</v>
+        <v>1045</v>
+      </c>
+      <c r="B35" t="s">
+        <v>996</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1032</v>
+        <v>956</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1033</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B36" t="s">
-        <v>1039</v>
+        <v>995</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1052</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>442</v>
@@ -10224,24 +10379,21 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1040</v>
+        <v>994</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1041</v>
+        <v>993</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="B37" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1065</v>
+        <v>1006</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>1009</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>442</v>
@@ -10250,48 +10402,111 @@
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1060</v>
+        <v>1004</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1063</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1087</v>
+        <v>1035</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>968</v>
+      <c r="G40" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73161498-B411-4908-8B97-A412AFFB5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFAF20-6AF0-447F-88F4-E4B0BDC8AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1139">
   <si>
     <t>自动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4703,12 +4703,156 @@
     <t>存钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>争う、縛る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作り出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>創り出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つくりだす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積もる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つもる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たかめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高，增强，提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装上…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走り回る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしりまわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为某事奔波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はやめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き受ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきうける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き起こす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきおこす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展，扩大，蔓延</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>広める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひろめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふかめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加深，加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あがる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4837,6 +4981,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4858,7 +5010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4878,6 +5030,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4896,8 +5051,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5181,7 +5334,7 @@
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5225,76 +5378,76 @@
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="12" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="15"/>
+      <c r="X1" s="18"/>
       <c r="Y1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11" t="s">
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11" t="s">
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" s="11"/>
+      <c r="AM1" s="14"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -6784,17 +6937,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="67.77734375" customWidth="1"/>
     <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -6804,58 +6957,58 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="14"/>
     </row>
     <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -7717,11 +7870,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>817</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>1054</v>
+        <v>1119</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -7732,40 +7882,21 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1053</v>
+        <v>1117</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1057</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>1061</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>817</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>954</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
         <v>750</v>
       </c>
@@ -7773,63 +7904,81 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>950</v>
+        <v>1053</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>951</v>
+        <v>1055</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>952</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>954</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>750</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>1013</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>933</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>979</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>267</v>
@@ -7838,15 +7987,21 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>980</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>933</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>929</v>
+        <v>978</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>267</v>
@@ -7855,21 +8010,15 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>927</v>
+        <v>981</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>928</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1090</v>
+        <v>929</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>267</v>
@@ -7878,9 +8027,32 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7906,10 +8078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AP33"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7929,76 +8101,76 @@
         <v>472</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="16"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="12" t="s">
+      <c r="W1" s="18"/>
+      <c r="X1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="15"/>
+      <c r="AA1" s="18"/>
       <c r="AB1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11" t="s">
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11" t="s">
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11" t="s">
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11" t="s">
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AP1" s="11"/>
+      <c r="AP1" s="14"/>
     </row>
     <row r="2" spans="2:42" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -8350,85 +8522,81 @@
     </row>
     <row r="10" spans="2:42" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>761</v>
+        <v>1138</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>665</v>
+        <v>1136</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>676</v>
-      </c>
+        <v>1137</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="2:42" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>665</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>666</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+        <v>668</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="12" spans="2:42" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>1007</v>
+        <v>762</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>103</v>
@@ -8436,36 +8604,48 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>1009</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>677</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>702</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="2:42" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>1009</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="2:42" ht="18" x14ac:dyDescent="0.45">
@@ -8491,70 +8671,66 @@
     </row>
     <row r="15" spans="2:42" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="2:42" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>656</v>
+        <v>1005</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>805</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>629</v>
+        <v>729</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>630</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>656</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>768</v>
+        <v>629</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>769</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>800</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>103</v>
       </c>
@@ -8562,135 +8738,141 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>801</v>
+        <v>768</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>802</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>804</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>753</v>
+        <v>816</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>831</v>
+        <v>753</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F22" t="s">
-        <v>842</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F24" t="s">
+        <v>843</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>103</v>
@@ -8699,15 +8881,15 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>924</v>
+        <v>859</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>103</v>
@@ -8716,15 +8898,15 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>925</v>
+        <v>857</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>926</v>
+        <v>858</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>1017</v>
+        <v>924</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>103</v>
@@ -8732,25 +8914,16 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1020</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>1018</v>
+        <v>925</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>45</v>
+        <v>926</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>935</v>
-      </c>
       <c r="B28" t="s">
-        <v>936</v>
+        <v>1017</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>103</v>
@@ -8758,19 +8931,25 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1020</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>933</v>
+        <v>1018</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>934</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>1000</v>
+      <c r="A29" t="s">
+        <v>935</v>
       </c>
       <c r="B29" t="s">
-        <v>1014</v>
+        <v>936</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>103</v>
@@ -8779,18 +8958,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1015</v>
+        <v>933</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1016</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="B30" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>103</v>
@@ -8799,13 +8978,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1003</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>103</v>
       </c>
@@ -8813,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>1001</v>
@@ -8826,43 +9011,74 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1077</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>1074</v>
+        <v>1002</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1075</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1092</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>1094</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>1095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1109</v>
       </c>
     </row>
   </sheetData>
@@ -8893,7 +9109,7 @@
   <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8905,58 +9121,58 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="14"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -9245,6 +9461,9 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9510,10 +9729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9533,58 +9752,58 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="14"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -9800,7 +10019,7 @@
     <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>913</v>
+        <v>1129</v>
       </c>
       <c r="E5" t="s">
         <v>267</v>
@@ -9808,23 +10027,19 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="G5" s="1" t="s">
+        <v>1127</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>1128</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>915</v>
-      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -9844,23 +10059,21 @@
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>907</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E6" t="s">
         <v>267</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>908</v>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>909</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -9868,10 +10081,10 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -9893,22 +10106,22 @@
     </row>
     <row r="7" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E7" t="s">
         <v>267</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -9916,10 +10129,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -9940,13 +10153,12 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>908</v>
+      </c>
       <c r="B8" t="s">
-        <v>988</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>912</v>
+      </c>
       <c r="E8" t="s">
         <v>267</v>
       </c>
@@ -9954,40 +10166,48 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>407</v>
+        <v>907</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="L8" t="s">
-        <v>536</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>537</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>440</v>
+        <v>918</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>443</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>989</v>
-      </c>
+        <v>988</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" t="s">
         <v>267</v>
       </c>
@@ -9995,45 +10215,75 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
+      </c>
+      <c r="L9" t="s">
+        <v>536</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>433</v>
+        <v>537</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="E10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>989</v>
+      </c>
+      <c r="E10" t="s">
         <v>267</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -10044,62 +10294,21 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>524</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>542</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>267</v>
       </c>
@@ -10107,111 +10316,80 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>523</v>
+        <v>1105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>542</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>752</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>568</v>
+        <v>1106</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>574</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>751</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
         <v>267</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>601</v>
+        <v>522</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>602</v>
+        <v>526</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>609</v>
+        <v>532</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>603</v>
+        <v>533</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>605</v>
+        <v>529</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>606</v>
+        <v>541</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>751</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>267</v>
       </c>
@@ -10219,26 +10397,39 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>755</v>
+        <v>523</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="17" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>655</v>
+        <v>570</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
@@ -10248,73 +10439,93 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>657</v>
+        <v>571</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>658</v>
+        <v>572</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>659</v>
+        <v>573</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>663</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>696</v>
+        <v>601</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>697</v>
+        <v>602</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>698</v>
+        <v>755</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>706</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>990</v>
+        <v>1115</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>267</v>
@@ -10323,100 +10534,141 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>699</v>
+        <v>1113</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>707</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>991</v>
-      </c>
       <c r="E21" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>1116</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>793</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
         <v>267</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>36</v>
+        <v>627</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>792</v>
+        <v>628</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>794</v>
-      </c>
-      <c r="C23" t="s">
-        <v>715</v>
-      </c>
-      <c r="D23" t="s">
-        <v>825</v>
+        <v>753</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>35</v>
+        <v>696</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="B24" t="s">
+        <v>754</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="25" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>992</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>712</v>
+        <v>990</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>267</v>
@@ -10425,103 +10677,83 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>713</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>714</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>793</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>716</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>721</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>994</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>903</v>
+        <v>794</v>
+      </c>
+      <c r="C28" t="s">
+        <v>715</v>
+      </c>
+      <c r="D28" t="s">
+        <v>825</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>722</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>723</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>724</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>995</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>267</v>
+        <v>992</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>712</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>731</v>
+        <v>709</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>267</v>
@@ -10530,96 +10762,103 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
-        <v>997</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>717</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>998</v>
+        <v>994</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>999</v>
-      </c>
-      <c r="C34" t="s">
-        <v>772</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>771</v>
+        <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>862</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>813</v>
-      </c>
+        <v>995</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>773</v>
+        <v>732</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>861</v>
-      </c>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>812</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D36" t="s">
-        <v>869</v>
+        <v>996</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>267</v>
@@ -10628,41 +10867,30 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>811</v>
+        <v>741</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>823</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>821</v>
+        <v>744</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>852</v>
-      </c>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>267</v>
@@ -10671,18 +10899,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>847</v>
+        <v>742</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>860</v>
-      </c>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>854</v>
+        <v>999</v>
+      </c>
+      <c r="C39" t="s">
+        <v>772</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>267</v>
@@ -10691,68 +10919,67 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>855</v>
+        <v>771</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>862</v>
+      </c>
       <c r="B40" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1025</v>
+        <v>813</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F40" s="17">
-        <v>1</v>
+      <c r="F40">
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1021</v>
+        <v>773</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="B41" t="s">
-        <v>876</v>
-      </c>
-      <c r="C41" t="s">
-        <v>879</v>
+        <v>812</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="D41" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>875</v>
+        <v>811</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>902</v>
+        <v>823</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>826</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>267</v>
@@ -10761,44 +10988,38 @@
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>937</v>
+        <v>852</v>
       </c>
       <c r="B43" t="s">
-        <v>971</v>
-      </c>
-      <c r="C43" t="s">
-        <v>972</v>
-      </c>
-      <c r="D43" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>969</v>
+        <v>847</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>964</v>
+        <v>860</v>
       </c>
       <c r="B44" t="s">
-        <v>932</v>
+        <v>854</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>267</v>
@@ -10807,134 +11028,94 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>930</v>
+        <v>855</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>930</v>
-      </c>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>966</v>
+        <v>1023</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>967</v>
+        <v>1024</v>
       </c>
       <c r="D45" t="s">
-        <v>968</v>
+        <v>1025</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="11">
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>964</v>
+        <v>1021</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="B46" t="s">
-        <v>938</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>939</v>
+        <v>876</v>
+      </c>
+      <c r="C46" t="s">
+        <v>879</v>
       </c>
       <c r="D46" t="s">
-        <v>940</v>
+        <v>880</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>937</v>
+        <v>875</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>977</v>
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>902</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>974</v>
+        <v>782</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>937</v>
       </c>
       <c r="B48" t="s">
-        <v>962</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>960</v>
+        <v>971</v>
+      </c>
+      <c r="C48" t="s">
+        <v>972</v>
       </c>
       <c r="D48" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>267</v>
@@ -10943,28 +11124,18 @@
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>883</v>
+        <v>964</v>
       </c>
       <c r="B49" t="s">
-        <v>959</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>958</v>
+        <v>932</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>267</v>
@@ -10973,71 +11144,135 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>956</v>
+        <v>930</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B50" s="18" t="s">
-        <v>1097</v>
+        <v>931</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>966</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D50" t="s">
+        <v>968</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B51" s="18"/>
+        <v>965</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B51" t="s">
+        <v>938</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D51" t="s">
+        <v>940</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>983</v>
+        <v>937</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>941</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1098</v>
+        <v>820</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>974</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1102</v>
+        <v>976</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>977</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1096</v>
+        <v>974</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>975</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B53" t="s">
+        <v>962</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D53" t="s">
+        <v>963</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>267</v>
       </c>
@@ -11045,10 +11280,214 @@
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B54" t="s">
+        <v>959</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B55" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B56" s="12"/>
+      <c r="E56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="E58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>1099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="B61" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="13">
+        <v>2</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -11076,10 +11515,13 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
@@ -11088,58 +11530,58 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="14"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -11300,6 +11742,9 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>964</v>
+      </c>
       <c r="B4" t="s">
         <v>1085</v>
       </c>
@@ -11339,11 +11784,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -11351,6 +11791,11 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11362,10 +11807,14 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
@@ -11374,58 +11823,58 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11" t="s">
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="14"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -11556,11 +12005,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -11568,6 +12012,11 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFAF20-6AF0-447F-88F4-E4B0BDC8AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34786F4-671D-477D-8319-7288F38FAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1186">
   <si>
     <t>自动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1860,14 +1860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>他动好了（てある）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动正在（ている）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作る</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2021,14 +2013,6 @@
   </si>
   <si>
     <t>つかない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>つか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>つき</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2182,10 +2166,6 @@
   </si>
   <si>
     <t>雪が溶けます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溶けている</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2485,14 +2465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>濡れている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>濡れてある</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>濡れない</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2571,14 +2543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抜けてある</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抜けている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拭う</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2840,14 +2804,6 @@
   </si>
   <si>
     <t>ふえる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>増えている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>増えてある</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3261,14 +3217,6 @@
   </si>
   <si>
     <t>あたえる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>減らしている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>減らしてある</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4845,6 +4793,246 @@
   </si>
   <si>
     <t>上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隠れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勧める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すすめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劝告，劝说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そだつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ち上がる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たちあがる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起立，振奋起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問い合わせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>といあわせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问，打听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（とい：問い）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通り抜ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とおりぬける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自他動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>述べる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のべる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叙述，陈述，说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲述，谈论，说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昇る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放开，放掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自他動詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触碰，涉及，提到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纏める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まとめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中，解决，做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕事を纏める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决完工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みのる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果，有收获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見舞う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みまう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问，看望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命じる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めいじる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目立つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めだつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显眼，引人注目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役立つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やくだつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有用的，有效的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5334,12 +5522,13 @@
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -6768,88 +6957,88 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AH17" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="AI17" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AK17" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AL17" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AM17" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AI17" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
@@ -6858,58 +7047,58 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="U18" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -6937,10 +7126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7182,7 +7371,7 @@
     </row>
     <row r="8" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>103</v>
@@ -7191,22 +7380,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -7235,16 +7424,16 @@
         <v>422</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -7261,22 +7450,22 @@
         <v>9</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -7287,34 +7476,34 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="N11" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -7331,28 +7520,28 @@
         <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -7363,28 +7552,28 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -7395,34 +7584,34 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="N14" t="s">
+        <v>552</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="N14" t="s">
-        <v>557</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="18" x14ac:dyDescent="0.45">
@@ -7449,7 +7638,7 @@
     </row>
     <row r="16" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>103</v>
@@ -7458,15 +7647,15 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>103</v>
@@ -7475,13 +7664,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>1138</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>103</v>
       </c>
@@ -7489,33 +7681,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>611</v>
+        <v>1136</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>617</v>
+        <v>1158</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>103</v>
@@ -7524,60 +7698,48 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>616</v>
+        <v>1157</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>871</v>
-      </c>
-      <c r="C20" t="s">
-        <v>874</v>
-      </c>
-      <c r="D20" t="s">
-        <v>873</v>
-      </c>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>870</v>
+        <v>602</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>603</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>608</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>103</v>
       </c>
@@ -7585,463 +7747,486 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>607</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>858</v>
+      </c>
+      <c r="C22" t="s">
+        <v>861</v>
+      </c>
+      <c r="D22" t="s">
+        <v>860</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>613</v>
+        <v>857</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>705</v>
-      </c>
+        <v>859</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>694</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+      <c r="G25" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>728</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>729</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>738</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
         <v>737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>740</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>749</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="H27" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
-        <v>923</v>
+        <v>752</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>785</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>898</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>791</v>
+        <v>910</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>51</v>
+        <v>908</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>52</v>
+        <v>909</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>53</v>
+        <v>772</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>52</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>898</v>
-      </c>
     </row>
     <row r="35" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>881</v>
-      </c>
       <c r="B35" s="2" t="s">
-        <v>819</v>
+        <v>778</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>817</v>
+        <v>53</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>818</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>817</v>
+      <c r="A36" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>778</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>868</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>1119</v>
+        <v>806</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1117</v>
+        <v>804</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1118</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>817</v>
+      <c r="A38" t="s">
+        <v>804</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1054</v>
+        <v>806</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1053</v>
+        <v>868</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1057</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>1061</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>954</v>
-      </c>
+        <v>1106</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>950</v>
+        <v>1104</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>951</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>804</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>846</v>
+        <v>1041</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>933</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>981</v>
+        <v>831</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>980</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>997</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>929</v>
-      </c>
+        <v>1155</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="1" t="s">
-        <v>267</v>
+        <v>739</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>927</v>
+        <v>1153</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>928</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B44" s="2" t="s">
-        <v>1088</v>
+      <c r="A44" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1156</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1089</v>
+        <v>999</v>
       </c>
       <c r="D44" t="s">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>267</v>
@@ -8050,10 +8235,124 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>920</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -8078,19 +8377,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="6" width="37" customWidth="1"/>
-    <col min="9" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
@@ -8098,185 +8396,143 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="17" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="15" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="17" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="4" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="S1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="14"/>
       <c r="AC1" s="14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AD1" s="14"/>
       <c r="AE1" s="14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AF1" s="14"/>
-      <c r="AG1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP1" s="14"/>
-    </row>
-    <row r="2" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>425</v>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="S2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="AC2" s="6" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP2" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>103</v>
       </c>
@@ -8284,37 +8540,31 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" t="s">
+        <v>457</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" spans="2:42" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:32" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>103</v>
       </c>
@@ -8322,17 +8572,17 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
@@ -8340,37 +8590,37 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" t="s">
+        <v>489</v>
+      </c>
+      <c r="I5" t="s">
+        <v>490</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="H5" t="s">
+      <c r="M5" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="S5" t="s">
+      <c r="N5" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
@@ -8378,28 +8628,25 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
@@ -8407,25 +8654,25 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
@@ -8433,46 +8680,40 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>572</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
@@ -8480,49 +8721,43 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="X9" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+      <c r="L9" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="P9" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>103</v>
@@ -8533,23 +8768,21 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>103</v>
@@ -8558,45 +8791,39 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>103</v>
@@ -8610,24 +8837,18 @@
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>103</v>
@@ -8636,21 +8857,21 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="14" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>103</v>
@@ -8659,19 +8880,19 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
@@ -8682,15 +8903,15 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="16" spans="2:42" ht="18" x14ac:dyDescent="0.45">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>103</v>
@@ -8701,15 +8922,15 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>103</v>
@@ -8718,16 +8939,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -8738,21 +8959,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>103</v>
@@ -8761,38 +8982,46 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>1134</v>
+      </c>
       <c r="B20" t="s">
-        <v>809</v>
+        <v>1130</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="1" t="s">
-        <v>807</v>
+        <v>1128</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>808</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>1128</v>
+      </c>
       <c r="B21" t="s">
-        <v>816</v>
+        <v>1130</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>103</v>
@@ -8800,16 +9029,21 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>814</v>
+        <v>1134</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>815</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>1128</v>
+      </c>
       <c r="B22" t="s">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>103</v>
@@ -8818,15 +9052,16 @@
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>827</v>
+        <v>794</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>828</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>831</v>
+        <v>1173</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>103</v>
@@ -8834,62 +9069,50 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F23" t="s">
-        <v>842</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>829</v>
+        <v>1171</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>830</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>838</v>
+        <v>803</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="F24" t="s">
-        <v>843</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>839</v>
+        <v>801</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>840</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>851</v>
+        <v>742</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>853</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>859</v>
+        <v>818</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>103</v>
@@ -8897,33 +9120,45 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F26" t="s">
+        <v>829</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>857</v>
+        <v>816</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>858</v>
+        <v>817</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>924</v>
+        <v>825</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F27" t="s">
+        <v>830</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>925</v>
+        <v>826</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>926</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>1017</v>
+        <v>838</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>103</v>
@@ -8931,25 +9166,16 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1020</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>1018</v>
+        <v>839</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>935</v>
-      </c>
       <c r="B29" t="s">
-        <v>936</v>
+        <v>846</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>103</v>
@@ -8958,18 +9184,15 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>933</v>
+        <v>844</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>934</v>
+        <v>845</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="B30" t="s">
-        <v>1014</v>
+        <v>911</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>103</v>
@@ -8978,18 +9201,15 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1015</v>
+        <v>912</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1016</v>
+        <v>913</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="B31" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>103</v>
@@ -8997,14 +9217,26 @@
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="E31" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1007</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>922</v>
+      </c>
+      <c r="B32" t="s">
+        <v>923</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>103</v>
       </c>
@@ -9012,38 +9244,38 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1002</v>
+        <v>920</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B33" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1077</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>1074</v>
+        <v>1002</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1075</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>1091</v>
+        <v>1002</v>
       </c>
       <c r="B34" t="s">
-        <v>1092</v>
+        <v>990</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>103</v>
@@ -9051,23 +9283,14 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1094</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>1091</v>
+        <v>987</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1095</v>
+        <v>988</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="C35" s="1" t="s">
         <v>103</v>
       </c>
@@ -9075,29 +9298,161 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1108</v>
+        <v>989</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1109</v>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="V1:W1"/>
+  <mergeCells count="12">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9106,10 +9461,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9268,22 +9623,22 @@
         <v>424</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="O3" t="s">
         <v>447</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -9294,28 +9649,28 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="N4" t="s">
         <v>452</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -9332,27 +9687,27 @@
         <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -9364,22 +9719,22 @@
         <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -9393,15 +9748,15 @@
         <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="E8" t="s">
         <v>267</v>
@@ -9410,15 +9765,15 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
         <v>267</v>
@@ -9435,7 +9790,7 @@
     </row>
     <row r="10" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="E10" t="s">
         <v>267</v>
@@ -9444,15 +9799,15 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>103</v>
@@ -9461,15 +9816,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="E12" t="s">
         <v>267</v>
@@ -9478,24 +9833,24 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="B13" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="E13" t="s">
         <v>267</v>
@@ -9504,10 +9859,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -9519,33 +9874,33 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="O14" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="E15" t="s">
         <v>267</v>
@@ -9554,18 +9909,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="B16" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E16" t="s">
         <v>267</v>
@@ -9574,18 +9929,18 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="B17" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="E17" t="s">
         <v>267</v>
@@ -9594,15 +9949,15 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="E18" t="s">
         <v>267</v>
@@ -9611,18 +9966,18 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="B19" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="E19" t="s">
         <v>267</v>
@@ -9631,33 +9986,33 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="L19" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="N19" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="E20" t="s">
         <v>267</v>
@@ -9666,15 +10021,15 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -9683,28 +10038,99 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>1069</v>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -9729,10 +10155,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9887,7 +10313,7 @@
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="E3" t="s">
         <v>267</v>
@@ -9970,10 +10396,10 @@
     </row>
     <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="B4" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="E4" t="s">
         <v>267</v>
@@ -9982,10 +10408,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -9993,10 +10419,10 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -10019,7 +10445,7 @@
     <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="E5" t="s">
         <v>267</v>
@@ -10028,10 +10454,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -10061,7 +10487,7 @@
     <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="E6" t="s">
         <v>267</v>
@@ -10081,10 +10507,10 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -10106,10 +10532,10 @@
     </row>
     <row r="7" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="B7" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="E7" t="s">
         <v>267</v>
@@ -10118,10 +10544,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -10129,10 +10555,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -10154,10 +10580,10 @@
     </row>
     <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="B8" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="E8" t="s">
         <v>267</v>
@@ -10166,10 +10592,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -10177,10 +10603,10 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -10202,10 +10628,10 @@
     </row>
     <row r="9" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
@@ -10221,33 +10647,33 @@
         <v>408</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L9" t="s">
+        <v>531</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="L9" t="s">
-        <v>536</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="E10" t="s">
         <v>267</v>
@@ -10256,34 +10682,34 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -10294,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -10305,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="18" x14ac:dyDescent="0.45">
@@ -10316,10 +10742,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -10331,18 +10757,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
@@ -10352,42 +10778,42 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -10397,39 +10823,39 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="Q16" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
@@ -10439,27 +10865,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>267</v>
@@ -10468,39 +10894,39 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>267</v>
@@ -10509,10 +10935,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -10525,7 +10951,7 @@
     </row>
     <row r="20" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>267</v>
@@ -10534,10 +10960,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -10556,10 +10982,10 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -10572,10 +10998,10 @@
     </row>
     <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" t="s">
@@ -10585,39 +11011,39 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>267</v>
@@ -10626,15 +11052,15 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>267</v>
@@ -10643,15 +11069,15 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>267</v>
@@ -10660,15 +11086,15 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>267</v>
@@ -10685,7 +11111,7 @@
     </row>
     <row r="27" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>267</v>
@@ -10697,18 +11123,18 @@
         <v>36</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="C28" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="D28" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>267</v>
@@ -10730,30 +11156,30 @@
     </row>
     <row r="30" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>267</v>
@@ -10762,10 +11188,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="18" x14ac:dyDescent="0.45">
@@ -10776,30 +11202,30 @@
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>267</v>
@@ -10808,18 +11234,18 @@
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
@@ -10837,10 +11263,10 @@
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -10850,67 +11276,63 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>996</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>741</v>
+        <v>1008</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>743</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>997</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>983</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>998</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>999</v>
-      </c>
-      <c r="C39" t="s">
-        <v>772</v>
+        <v>985</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>267</v>
@@ -10919,107 +11341,107 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>39</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="B40" t="s">
-        <v>813</v>
+        <v>986</v>
+      </c>
+      <c r="C40" t="s">
+        <v>759</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>774</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B41" t="s">
-        <v>812</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D41" t="s">
-        <v>869</v>
+        <v>800</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>811</v>
+        <v>760</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>810</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>848</v>
+      </c>
       <c r="B42" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>826</v>
+        <v>855</v>
+      </c>
+      <c r="D42" t="s">
+        <v>856</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="B43" t="s">
-        <v>986</v>
+        <v>810</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>813</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>847</v>
+        <v>808</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>848</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="B44" t="s">
-        <v>854</v>
+        <v>973</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>267</v>
@@ -11028,68 +11450,68 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>847</v>
+      </c>
       <c r="B45" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1025</v>
+        <v>841</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1021</v>
+        <v>842</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1022</v>
+        <v>843</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>877</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
-        <v>876</v>
-      </c>
-      <c r="C46" t="s">
-        <v>879</v>
+        <v>1010</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1011</v>
       </c>
       <c r="D46" t="s">
-        <v>880</v>
+        <v>1012</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F46">
-        <v>2</v>
+      <c r="F46" s="11">
+        <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>875</v>
+        <v>1008</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>878</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>864</v>
       </c>
       <c r="B47" t="s">
-        <v>902</v>
+        <v>863</v>
+      </c>
+      <c r="C47" t="s">
+        <v>866</v>
+      </c>
+      <c r="D47" t="s">
+        <v>867</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>267</v>
@@ -11098,24 +11520,18 @@
         <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>782</v>
+        <v>862</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>783</v>
+        <v>865</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>937</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>971</v>
-      </c>
-      <c r="C48" t="s">
-        <v>972</v>
-      </c>
-      <c r="D48" t="s">
-        <v>973</v>
+        <v>889</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>267</v>
@@ -11124,56 +11540,44 @@
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>969</v>
+        <v>769</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>970</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="B49" t="s">
-        <v>932</v>
+        <v>958</v>
+      </c>
+      <c r="C49" t="s">
+        <v>959</v>
+      </c>
+      <c r="D49" t="s">
+        <v>960</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>1103</v>
+        <v>951</v>
       </c>
       <c r="B50" t="s">
-        <v>966</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="D50" t="s">
-        <v>968</v>
+        <v>919</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>267</v>
@@ -11182,28 +11586,36 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>964</v>
+        <v>917</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+        <v>918</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="51" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>892</v>
+        <v>1090</v>
       </c>
       <c r="B51" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="D51" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>267</v>
@@ -11212,36 +11624,28 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>949</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>974</v>
+        <v>879</v>
+      </c>
+      <c r="B52" t="s">
+        <v>925</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>977</v>
+        <v>926</v>
+      </c>
+      <c r="D52" t="s">
+        <v>927</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>267</v>
@@ -11250,40 +11654,48 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>974</v>
+        <v>924</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+        <v>928</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="53" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B53" t="s">
-        <v>962</v>
+        <v>807</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>961</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D53" t="s">
         <v>963</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>961</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -11292,49 +11704,64 @@
     </row>
     <row r="54" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="B54" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>958</v>
+        <v>947</v>
+      </c>
+      <c r="D54" t="s">
+        <v>950</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>957</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B55" s="12" t="s">
-        <v>1097</v>
+      <c r="A55" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B55" t="s">
+        <v>946</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>945</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>984</v>
+        <v>943</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>985</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B56" s="12"/>
+      <c r="B56" s="12" t="s">
+        <v>1084</v>
+      </c>
       <c r="E56" s="1" t="s">
         <v>267</v>
       </c>
@@ -11342,25 +11769,14 @@
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1102</v>
-      </c>
+      <c r="B57" s="12"/>
       <c r="E57" s="1" t="s">
         <v>267</v>
       </c>
@@ -11368,13 +11784,25 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1096</v>
+        <v>970</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1099</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1089</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>267</v>
       </c>
@@ -11382,16 +11810,13 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
-        <v>1112</v>
-      </c>
       <c r="E59" s="1" t="s">
         <v>267</v>
       </c>
@@ -11399,15 +11824,15 @@
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1110</v>
+        <v>1087</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>1130</v>
+        <v>1099</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>267</v>
@@ -11416,49 +11841,49 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1131</v>
+        <v>1097</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B61" s="13" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E61" s="10" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61">
         <v>2</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="G61" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="B62" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="13">
         <v>2</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>1122</v>
+      <c r="G62" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>267</v>
@@ -11467,15 +11892,15 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="18" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>267</v>
@@ -11484,10 +11909,101 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E66" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -11515,7 +12031,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11665,16 +12181,16 @@
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="B3" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="D3" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E3" t="s">
         <v>267</v>
@@ -11683,31 +12199,31 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -11743,16 +12259,16 @@
     </row>
     <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="B4" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="C4" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="D4" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="E4" t="s">
         <v>267</v>
@@ -11761,25 +12277,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -11958,16 +12474,16 @@
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1045</v>
       </c>
       <c r="E3" t="s">
         <v>267</v>
@@ -11976,31 +12492,31 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34786F4-671D-477D-8319-7288F38FAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B3B69F-11B8-475E-B01C-8598D777053A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1632" yWindow="372" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1464">
   <si>
     <t>自动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3557,10 +3557,6 @@
   </si>
   <si>
     <t>もてる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受欢迎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4416,10 +4412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>愛によって支えられている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>靠爱支撑起来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5033,6 +5025,1138 @@
   </si>
   <si>
     <t>有用的，有效的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大きな歌手のコンサートに行きたかったが、チケットが高くて買えないので行くのをあきらめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然想去最喜欢歌手的演唱会，但因为票价太高买不起所以放弃了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私、切るね、切ったの載せていつてくれる？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我来切，（你）把切好的放上去好吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見つかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みつかる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>でもどこにあるのか見つからなくて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…資料が見つかったら、私も行きます</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但不知道放哪了。要是资料找到了我也会过去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まなぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先週からいろいろなことを学んでもらっています</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上周开始，已经学习了很多内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話しかけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなしかけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話し合って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はなしあって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ち上がて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たちあがて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下りて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おりて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降りた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おりた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起こった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おこった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踊って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おどって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踊った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おどった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もどって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戻った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もどった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け付けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけつけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけつけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け付けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まなんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まなんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はたらいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はたらいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼いで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼いだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かせいだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かせいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走り回って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしりまわって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走り回った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はしりまわった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受かって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受かった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>述べた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のべた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>述べて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のべて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諦めって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諦めた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あきらめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あきらめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隠れて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隠れた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かくれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減らさない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へらさない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上がらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あがらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生じて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうじて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生じた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうじた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そだって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そだった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯れて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯れた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みのって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>実った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みのった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凍て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こおて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過ぎて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぎて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過ぎた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぎた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過ぎらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぎらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯まらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯まって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯まった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目立って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めだって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目立たない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めだたない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見つからない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みつからない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見つかって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みつかって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みつかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見つかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目立った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めだった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕まらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかまらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕まって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかまって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕まった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つかまった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うごいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うごかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うごいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>効かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>効いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>効いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮かばない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかばない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮かんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮かんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>締め切らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しめきらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揃って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そろって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揃った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そろった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積もらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つもらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積もって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つもって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>積もった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つもった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉じて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とじない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とじって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とじった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役立たない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やくだたない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役立って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やくだって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>役立った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やくだった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>届けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とどけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>届けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とどけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>届け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とどけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやまって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやまった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼めて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼めた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たのめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け取って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけとって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受け取った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うけとった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追われて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おわれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追われた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おわれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかがって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うかがった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おしえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むかえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むかえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進めて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すすめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すすめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進めた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問い合わせて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>といあわせて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問い合わせた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>といあわせた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見舞って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みまって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見舞った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みまった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植わって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うわって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植わった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うわった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慣れて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慣れた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛によって支える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詰める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふかめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深めて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深めた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふかめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き受けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきうけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引き受けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひきうけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詰めて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詰めた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来往，通行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来月から大学の近くで一人暮らしを始める。つうがくのしやすさを考えて、大学まで歩いて通えるところにした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下个月开始我要在大学附近开始一个人生活，考虑到上学的便利性，我选择了一个可以走着就可以去上学的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>払う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金を払う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解，认为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，受理，遭受，参加考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把玩笑当做真事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗談を真に受ける「まに」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支払う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しはらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000円から2000円を引いたものを支払う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付22000日元减2000的金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5221,7 +6345,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5230,13 +6360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5567,76 +6691,76 @@
       <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="16"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="15" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" s="14"/>
+      <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -7103,12 +8227,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -7118,6 +8236,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7126,10 +8250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7139,67 +8263,66 @@
     <col min="5" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
@@ -7213,73 +8336,70 @@
         <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="S2" s="6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E3" s="1" t="s">
         <v>103</v>
       </c>
@@ -7296,7 +8416,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E4" s="1" t="s">
         <v>103</v>
       </c>
@@ -7313,7 +8433,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E5" s="1" t="s">
         <v>103</v>
       </c>
@@ -7333,7 +8453,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>103</v>
       </c>
@@ -7349,7 +8469,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>103</v>
       </c>
@@ -7369,7 +8489,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>820</v>
       </c>
@@ -7391,14 +8511,14 @@
       <c r="J8" s="1" t="s">
         <v>822</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="L8" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="M8" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>103</v>
       </c>
@@ -7417,26 +8537,26 @@
       <c r="J9" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>103</v>
       </c>
@@ -7449,26 +8569,26 @@
       <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M10" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" t="s">
         <v>480</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="O10" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q10" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>103</v>
       </c>
@@ -7487,26 +8607,26 @@
       <c r="J11" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q11" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>103</v>
       </c>
@@ -7525,26 +8645,26 @@
       <c r="J12" s="1" t="s">
         <v>540</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="L12" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q12" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
@@ -7557,26 +8677,26 @@
       <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="L13" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q13" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>267</v>
       </c>
@@ -7595,26 +8715,26 @@
       <c r="J14" s="1" t="s">
         <v>559</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="L14" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M14" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="N14" t="s">
+      <c r="M14" t="s">
         <v>552</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="O14" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q14" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>103</v>
       </c>
@@ -7629,16 +8749,15 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>103</v>
@@ -7647,15 +8766,21 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M16" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>103</v>
@@ -7664,15 +8789,21 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M17" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>103</v>
@@ -7681,15 +8812,21 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1135</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>103</v>
@@ -7698,13 +8835,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>103</v>
       </c>
@@ -7723,20 +8860,20 @@
       <c r="J20" s="1" t="s">
         <v>610</v>
       </c>
+      <c r="M20" s="1" t="s">
+        <v>613</v>
+      </c>
       <c r="N20" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q20" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>608</v>
       </c>
@@ -7752,34 +8889,34 @@
       <c r="H21" s="1" t="s">
         <v>603</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="L21" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q21" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>103</v>
@@ -7788,19 +8925,27 @@
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>859</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M22" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
@@ -7814,7 +8959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>605</v>
       </c>
@@ -7833,9 +8978,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>694</v>
+    <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1448</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -7844,32 +8995,56 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>694</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
+      <c r="M26" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>728</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>729</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>723</v>
@@ -7878,61 +9053,71 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>738</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="2" t="s">
+      <c r="H29" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="H29" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+        <v>736</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -7943,15 +9128,15 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>750</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>910</v>
+        <v>754</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7962,15 +9147,27 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>908</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
         <v>909</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B33" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -7978,21 +9175,30 @@
         <v>739</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>772</v>
+        <v>907</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>885</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -8000,16 +9206,31 @@
         <v>739</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>51</v>
+        <v>772</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>773</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>884</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>778</v>
       </c>
@@ -8022,19 +9243,18 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>778</v>
       </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
         <v>739</v>
       </c>
@@ -8042,21 +9262,19 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>884</v>
+        <v>53</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>868</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+        <v>778</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>739</v>
       </c>
@@ -8064,37 +9282,54 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>804</v>
+        <v>883</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>804</v>
-      </c>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+        <v>1194</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1196</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>739</v>
+        <v>267</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>868</v>
+        <v>1192</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1193</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>867</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>1106</v>
+        <v>806</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -8105,18 +9340,30 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1104</v>
+        <v>804</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>804</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1041</v>
+        <v>806</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -8127,40 +9374,30 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1040</v>
+        <v>867</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>1043</v>
+        <v>868</v>
       </c>
       <c r="M40" t="s">
-        <v>1044</v>
+        <v>1233</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>1045</v>
+        <v>1236</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1046</v>
+        <v>1234</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>941</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="1" t="s">
         <v>739</v>
       </c>
@@ -8168,15 +9405,30 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>937</v>
+        <v>1102</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1103</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>804</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>833</v>
+        <v>1039</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -8184,112 +9436,169 @@
         <v>739</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>831</v>
+        <v>1038</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>997</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>938</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>940</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>739</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D47" t="s">
         <v>999</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>920</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B46" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="B47" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1077</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>267</v>
@@ -8298,77 +9607,206 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>48</v>
+        <v>996</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="18" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>997</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>919</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>965</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B49" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51">
         <v>2</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="G51" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F49">
+      <c r="F52">
         <v>2</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="M52" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F50">
+      <c r="F53">
         <v>2</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>499</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>1270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8377,10 +9815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8388,7 +9826,7 @@
     <col min="5" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
@@ -8399,60 +9837,59 @@
         <v>468</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
@@ -8466,73 +9903,70 @@
         <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="S2" s="6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>103</v>
       </c>
@@ -8551,20 +9985,20 @@
       <c r="J3" s="1" t="s">
         <v>461</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="N3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:31" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>103</v>
       </c>
@@ -8582,7 +10016,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
@@ -8601,26 +10035,26 @@
       <c r="J5" s="1" t="s">
         <v>491</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q5" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
@@ -8642,11 +10076,26 @@
       <c r="J6" s="1" t="s">
         <v>504</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+        <v>507</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
@@ -8665,14 +10114,26 @@
       <c r="J7" s="1" t="s">
         <v>504</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="L7" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+        <v>1266</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
@@ -8694,26 +10155,26 @@
       <c r="J8" s="1" t="s">
         <v>576</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="L8" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q8" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
@@ -8736,119 +10197,124 @@
       <c r="J9" s="1" t="s">
         <v>588</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="O9" s="1" t="s">
         <v>582</v>
       </c>
+      <c r="O9" t="s">
+        <v>583</v>
+      </c>
       <c r="P9" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q9" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>1125</v>
-      </c>
+    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1187</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>1123</v>
+        <v>1101</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>748</v>
+        <v>1123</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>656</v>
+        <v>1121</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>659</v>
+        <v>1122</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>1273</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+        <v>1274</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>656</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+        <v>657</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>994</v>
+        <v>749</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>103</v>
@@ -8856,43 +10322,51 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>996</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>666</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>994</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>995</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
@@ -8900,16 +10374,18 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" ht="18" x14ac:dyDescent="0.45">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>992</v>
       </c>
@@ -8917,64 +10393,60 @@
         <v>103</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>718</v>
+        <v>689</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>647</v>
+        <v>991</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>792</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>620</v>
+        <v>718</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>647</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>755</v>
+        <v>620</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>787</v>
-      </c>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
@@ -8982,24 +10454,21 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>788</v>
+        <v>755</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>1134</v>
-      </c>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>1130</v>
+        <v>787</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>103</v>
@@ -9007,21 +10476,25 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>791</v>
+      </c>
       <c r="G20" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B21" t="s">
         <v>1128</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1130</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>103</v>
@@ -9032,53 +10505,94 @@
       <c r="E21" s="1"/>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1127</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B22" t="s">
         <v>1128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>796</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
-        <v>794</v>
+        <v>1132</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
+        <v>1133</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>1126</v>
+      </c>
       <c r="B23" t="s">
-        <v>1173</v>
+        <v>796</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
         <v>1171</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>803</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>103</v>
@@ -9087,95 +10601,149 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>801</v>
+        <v>1169</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1170</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1288</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>802</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="F26" t="s">
-        <v>829</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>815</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="F27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>817</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F28" t="s">
+        <v>830</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>103</v>
@@ -9184,15 +10752,15 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>911</v>
+        <v>1180</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>103</v>
@@ -9201,15 +10769,33 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>912</v>
+        <v>1178</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1179</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>1004</v>
+        <v>1309</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>103</v>
@@ -9217,25 +10803,40 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>1006</v>
+      <c r="E31" s="1" t="s">
+        <v>1190</v>
       </c>
       <c r="F31" t="s">
-        <v>1007</v>
+        <v>1191</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1005</v>
+        <v>1188</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>922</v>
-      </c>
+        <v>1189</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>923</v>
+        <v>845</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>103</v>
@@ -9244,18 +10845,33 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>920</v>
+        <v>843</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>987</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>1001</v>
+        <v>910</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>103</v>
@@ -9264,18 +10880,33 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1002</v>
+        <v>911</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>1003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B34" t="s">
-        <v>990</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>103</v>
@@ -9283,14 +10914,44 @@
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="E34" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1006</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>987</v>
+        <v>1004</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>921</v>
+      </c>
+      <c r="B35" t="s">
+        <v>922</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>103</v>
       </c>
@@ -9298,38 +10959,56 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>989</v>
+        <v>919</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>920</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1000</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1064</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>1061</v>
+        <v>1001</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>1078</v>
+        <v>1001</v>
       </c>
       <c r="B37" t="s">
-        <v>1079</v>
+        <v>989</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>103</v>
@@ -9337,24 +11016,14 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1081</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>1078</v>
+        <v>986</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="1"/>
-      <c r="B38" t="s">
-        <v>1143</v>
-      </c>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C38" s="1" t="s">
         <v>103</v>
       </c>
@@ -9362,52 +11031,83 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1095</v>
+        <v>988</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>1144</v>
-      </c>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C39" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1062</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1145</v>
+        <v>1059</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>1152</v>
+        <v>1060</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>1076</v>
       </c>
       <c r="B40" t="s">
-        <v>1151</v>
+        <v>1077</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1148</v>
+        <v>103</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1079</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>1149</v>
+        <v>1076</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1080</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>1182</v>
+        <v>1141</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>103</v>
@@ -9416,43 +11116,180 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1180</v>
+        <v>1093</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1094</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>1185</v>
+        <v>1142</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D43">
         <v>1</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
         <v>1183</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>1184</v>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1461</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9461,75 +11298,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
@@ -9543,73 +11379,70 @@
         <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="S2" s="6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
         <v>267</v>
       </c>
@@ -9628,20 +11461,20 @@
       <c r="J3" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>447</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="P3" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q3" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>267</v>
       </c>
@@ -9660,20 +11493,20 @@
       <c r="J4" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>452</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="O4" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q4" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>267</v>
       </c>
@@ -9692,20 +11525,20 @@
       <c r="J5" s="1" t="s">
         <v>510</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q5" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>562</v>
       </c>
@@ -9724,20 +11557,20 @@
       <c r="J6" s="1" t="s">
         <v>510</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="N6" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q6" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="F7">
         <v>2</v>
       </c>
@@ -9754,7 +11587,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>753</v>
       </c>
@@ -9771,7 +11604,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>753</v>
       </c>
@@ -9788,7 +11621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>771</v>
       </c>
@@ -9804,8 +11637,26 @@
       <c r="H10" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="I10" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>763</v>
       </c>
@@ -9816,13 +11667,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>768</v>
       </c>
@@ -9838,16 +11701,28 @@
       <c r="H12" s="1" t="s">
         <v>765</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>766</v>
+      </c>
       <c r="L12" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+        <v>1374</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B13" t="s">
         <v>777</v>
@@ -9864,8 +11739,20 @@
       <c r="H13" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="M13" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="E14" t="s">
         <v>267</v>
@@ -9874,25 +11761,25 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>1015</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>784</v>
       </c>
@@ -9915,12 +11802,12 @@
         <v>783</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B16" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E16" t="s">
         <v>267</v>
@@ -9932,15 +11819,27 @@
         <v>807</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>871</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E17" t="s">
         <v>267</v>
@@ -9949,15 +11848,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M17" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E18" t="s">
         <v>267</v>
@@ -9966,18 +11877,30 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M18" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E19" t="s">
         <v>267</v>
@@ -9986,33 +11909,33 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="K19" t="s">
         <v>880</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E20" t="s">
         <v>267</v>
@@ -10021,15 +11944,27 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M20" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -10038,33 +11973,33 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E22" t="s">
         <v>267</v>
@@ -10073,15 +12008,27 @@
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1130</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E23" t="s">
         <v>267</v>
@@ -10090,18 +12037,30 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I23" t="s">
         <v>1140</v>
       </c>
-      <c r="I23" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M23" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E24" t="s">
         <v>267</v>
@@ -10110,15 +12069,27 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1173</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E25" t="s">
         <v>267</v>
@@ -10127,26 +12098,26 @@
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10155,83 +12126,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="4" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
@@ -10245,75 +12215,72 @@
         <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="S2" s="6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E3" t="s">
         <v>267</v>
@@ -10333,73 +12300,72 @@
       <c r="J3" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="V3" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="Y3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>404</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="AE3" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF3" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E4" t="s">
         <v>267</v>
@@ -10408,22 +12374,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>887</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>905</v>
+      </c>
       <c r="N4" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>907</v>
-      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -10437,15 +12403,14 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E5" t="s">
         <v>267</v>
@@ -10454,10 +12419,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -10479,15 +12444,14 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E6" t="s">
         <v>267</v>
@@ -10505,13 +12469,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>900</v>
+      </c>
       <c r="N6" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>902</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -10525,17 +12489,16 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E7" t="s">
         <v>267</v>
@@ -10544,22 +12507,22 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>902</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>904</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -10573,17 +12536,16 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E8" t="s">
         <v>267</v>
@@ -10592,22 +12554,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>904</v>
+      </c>
       <c r="N8" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>902</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -10621,14 +12583,13 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>533</v>
@@ -10652,28 +12613,28 @@
       <c r="J9" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
         <v>531</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="M9" s="1" t="s">
-        <v>532</v>
+        <v>438</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E10" t="s">
         <v>267</v>
@@ -10693,26 +12654,26 @@
       <c r="J10" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q10" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>267</v>
       </c>
@@ -10723,7 +12684,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>267</v>
       </c>
@@ -10734,7 +12695,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>267</v>
       </c>
@@ -10742,14 +12703,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>1094</v>
-      </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>267</v>
       </c>
@@ -10757,13 +12718,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>519</v>
       </c>
@@ -10789,26 +12750,26 @@
       <c r="J15" s="1" t="s">
         <v>527</v>
       </c>
+      <c r="K15" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q15" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>520</v>
       </c>
@@ -10831,26 +12792,26 @@
       <c r="J16" s="1" t="s">
         <v>527</v>
       </c>
+      <c r="K16" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="L16" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q16" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>741</v>
       </c>
@@ -10876,14 +12837,14 @@
       <c r="J17" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="K17" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="M17" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>740</v>
       </c>
@@ -10905,26 +12866,26 @@
       <c r="J18" s="1" t="s">
         <v>600</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="L18" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q18" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>740</v>
       </c>
@@ -10942,16 +12903,16 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>267</v>
@@ -10960,21 +12921,21 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>267</v>
       </c>
@@ -10982,21 +12943,21 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>647</v>
       </c>
@@ -11022,26 +12983,26 @@
       <c r="J22" s="1" t="s">
         <v>649</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="L22" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q22" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>742</v>
       </c>
@@ -11057,8 +13018,20 @@
       <c r="H23" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M23" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>743</v>
       </c>
@@ -11074,10 +13047,22 @@
       <c r="H24" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M24" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>267</v>
@@ -11091,10 +13076,22 @@
       <c r="H25" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M25" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>267</v>
@@ -11109,7 +13106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>780</v>
       </c>
@@ -11125,8 +13122,14 @@
       <c r="H27" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M27" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>781</v>
       </c>
@@ -11148,15 +13151,21 @@
       <c r="H28" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+      <c r="M28" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>701</v>
@@ -11177,9 +13186,9 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>267</v>
@@ -11194,7 +13203,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>267</v>
       </c>
@@ -11207,25 +13216,25 @@
       <c r="H32" s="1" t="s">
         <v>706</v>
       </c>
+      <c r="M32" s="1" t="s">
+        <v>707</v>
+      </c>
       <c r="N32" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q32" s="1" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>267</v>
@@ -11263,7 +13272,7 @@
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>722</v>
@@ -11292,15 +13301,15 @@
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>267</v>
@@ -11317,7 +13326,7 @@
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38">
@@ -11332,7 +13341,7 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>267</v>
@@ -11349,7 +13358,7 @@
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C40" t="s">
         <v>759</v>
@@ -11369,7 +13378,7 @@
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B41" t="s">
         <v>800</v>
@@ -11389,16 +13398,16 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B42" t="s">
         <v>799</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D42" t="s">
         <v>855</v>
-      </c>
-      <c r="D42" t="s">
-        <v>856</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>267</v>
@@ -11438,10 +13447,10 @@
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B44" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>267</v>
@@ -11450,18 +13459,18 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>267</v>
@@ -11470,22 +13479,22 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" t="s">
         <v>1011</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1012</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>267</v>
@@ -11494,24 +13503,24 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B47" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C47" t="s">
+        <v>865</v>
+      </c>
+      <c r="D47" t="s">
         <v>866</v>
-      </c>
-      <c r="D47" t="s">
-        <v>867</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>267</v>
@@ -11520,10 +13529,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.45">
@@ -11531,7 +13540,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>267</v>
@@ -11546,18 +13555,18 @@
         <v>770</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B49" t="s">
+        <v>957</v>
+      </c>
+      <c r="C49" t="s">
         <v>958</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>959</v>
-      </c>
-      <c r="D49" t="s">
-        <v>960</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>267</v>
@@ -11566,18 +13575,18 @@
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B50" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>267</v>
@@ -11586,10 +13595,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>918</v>
+      <c r="M50" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>931</v>
@@ -11600,22 +13612,19 @@
       <c r="P50" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="Q50" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B51" t="s">
+        <v>952</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" t="s">
         <v>954</v>
-      </c>
-      <c r="D51" t="s">
-        <v>955</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>267</v>
@@ -11624,28 +13633,28 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>952</v>
-      </c>
+      <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B52" t="s">
+        <v>924</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" t="s">
         <v>926</v>
-      </c>
-      <c r="D52" t="s">
-        <v>927</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>267</v>
@@ -11654,36 +13663,36 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H52" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>928</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>929</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>807</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>267</v>
@@ -11692,28 +13701,28 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>962</v>
-      </c>
+      <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B54" t="s">
+        <v>948</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D54" t="s">
         <v>949</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D54" t="s">
-        <v>950</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>267</v>
@@ -11722,28 +13731,28 @@
         <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>969</v>
-      </c>
+        <v>968</v>
+      </c>
+      <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B55" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>267</v>
@@ -11752,15 +13761,15 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B56" s="12" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>267</v>
@@ -11769,13 +13778,13 @@
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B57" s="12"/>
       <c r="E57" s="1" t="s">
         <v>267</v>
@@ -11784,24 +13793,24 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B58" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D58" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>267</v>
@@ -11810,13 +13819,13 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>267</v>
       </c>
@@ -11824,15 +13833,15 @@
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>267</v>
@@ -11841,15 +13850,15 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>267</v>
@@ -11858,15 +13867,15 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>267</v>
@@ -11875,15 +13884,15 @@
         <v>2</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>1107</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>267</v>
@@ -11892,15 +13901,15 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="18" x14ac:dyDescent="0.45">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>267</v>
@@ -11909,15 +13918,27 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1119</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>267</v>
@@ -11926,15 +13947,27 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1110</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E66" t="s">
         <v>267</v>
@@ -11943,15 +13976,15 @@
         <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E67" t="s">
         <v>267</v>
@@ -11960,21 +13993,21 @@
         <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D68" t="s">
         <v>1168</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1170</v>
       </c>
       <c r="E68" t="s">
         <v>267</v>
@@ -11983,43 +14016,69 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="18" x14ac:dyDescent="0.45">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="E70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12046,58 +14105,58 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="14"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -12181,16 +14240,16 @@
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>1028</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1029</v>
       </c>
       <c r="E3" t="s">
         <v>267</v>
@@ -12199,31 +14258,31 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -12259,16 +14318,16 @@
     </row>
     <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D4" t="s">
         <v>1072</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1074</v>
       </c>
       <c r="E4" t="s">
         <v>267</v>
@@ -12277,25 +14336,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -12323,7 +14382,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12339,58 +14398,58 @@
       <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="14"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -12474,16 +14533,16 @@
     </row>
     <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D3" t="s">
         <v>1030</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1032</v>
       </c>
       <c r="E3" t="s">
         <v>267</v>
@@ -12492,31 +14551,31 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC490F-13CD-43D5-A4A8-B940FA1D9C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FEC11-E656-4009-9D91-A7D4F9EDE1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="1681">
   <si>
     <t>開ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6458,10 +6458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潰す</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6807,13 +6803,241 @@
   <si>
     <t>おわらせる</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>響く</t>
+  </si>
+  <si>
+    <t>ひびく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒鳴る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大喊大叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喋喋不休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喋る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃべる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さけぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生まれた子を初めて抱いたとき、とても小さく軽いと感じた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次抱刚出生的孩子的时候，觉得特别小特别轻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重なる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かさなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重叠，同时发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供の運動会が大切な会議と重なった、見に行けない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于孩子的运动会和重要的会议撞到一块儿了，不能去看了。</t>
+  </si>
+  <si>
+    <t>見る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さわります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さわらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さわって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さわった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>見させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよいます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよわない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通わせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよわせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通われる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かよわれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泳は体力がつくと思って通わせ始めたんです</t>
+  </si>
+  <si>
+    <t>我想让他通过游泳来锻炼体力，所以才让他开始学的。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6950,6 +7174,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6971,7 +7208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6994,7 +7231,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7003,13 +7246,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7298,7 +7539,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -7333,85 +7574,85 @@
     <col min="39" max="39" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" ht="18">
       <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="16"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="15" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="14"/>
-    </row>
-    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+      <c r="AM1" s="19"/>
+    </row>
+    <row r="2" spans="1:39" ht="18">
       <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
@@ -7515,7 +7756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" ht="18">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -7566,7 +7807,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" ht="18">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -7614,7 +7855,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" ht="18">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -7661,7 +7902,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" ht="18">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -7708,7 +7949,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" ht="18">
       <c r="B7" t="s">
         <v>102</v>
       </c>
@@ -7818,7 +8059,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" ht="18">
       <c r="B8" t="s">
         <v>102</v>
       </c>
@@ -7928,7 +8169,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" ht="18">
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -8040,7 +8281,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" ht="18">
       <c r="B10" t="s">
         <v>102</v>
       </c>
@@ -8143,7 +8384,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" ht="18">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -8251,7 +8492,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" ht="18">
       <c r="B12" t="s">
         <v>266</v>
       </c>
@@ -8359,7 +8600,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" ht="18">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -8411,7 +8652,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" ht="18">
       <c r="B14" t="s">
         <v>266</v>
       </c>
@@ -8514,7 +8755,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" ht="18">
       <c r="B15" t="s">
         <v>266</v>
       </c>
@@ -8614,7 +8855,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:39" ht="18">
       <c r="B16" t="s">
         <v>102</v>
       </c>
@@ -8722,7 +8963,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" ht="18">
       <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
@@ -8809,7 +9050,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" ht="18">
       <c r="A18" s="1" t="s">
         <v>666</v>
       </c>
@@ -8876,12 +9117,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -8891,6 +9126,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8899,79 +9140,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AE56"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="3" max="3" width="67.77734375" customWidth="1"/>
     <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:31" ht="18">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="14"/>
-    </row>
-    <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="2:31" ht="18">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -9048,7 +9289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:31" ht="18">
       <c r="E3" s="1" t="s">
         <v>102</v>
       </c>
@@ -9065,7 +9306,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:31" ht="18">
       <c r="E4" s="1" t="s">
         <v>102</v>
       </c>
@@ -9082,7 +9323,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:31" ht="18">
       <c r="E5" s="1" t="s">
         <v>102</v>
       </c>
@@ -9102,7 +9343,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:31" ht="18">
       <c r="E6" s="1" t="s">
         <v>102</v>
       </c>
@@ -9118,7 +9359,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:31" ht="18">
       <c r="E7" s="1" t="s">
         <v>102</v>
       </c>
@@ -9138,7 +9379,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:31" ht="18">
       <c r="B8" t="s">
         <v>819</v>
       </c>
@@ -9167,7 +9408,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:31" ht="18">
       <c r="E9" s="1" t="s">
         <v>102</v>
       </c>
@@ -9205,7 +9446,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:31" ht="18">
       <c r="E10" s="1" t="s">
         <v>102</v>
       </c>
@@ -9237,7 +9478,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:31" ht="18">
       <c r="E11" s="1" t="s">
         <v>102</v>
       </c>
@@ -9275,7 +9516,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="18">
       <c r="E12" s="1" t="s">
         <v>102</v>
       </c>
@@ -9313,7 +9554,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:31" ht="18">
       <c r="E13" s="1" t="s">
         <v>102</v>
       </c>
@@ -9345,7 +9586,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:31" ht="18">
       <c r="E14" s="1" t="s">
         <v>266</v>
       </c>
@@ -9383,7 +9624,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:31" ht="18">
       <c r="E15" s="1" t="s">
         <v>102</v>
       </c>
@@ -9404,7 +9645,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:31" ht="18">
       <c r="B16" t="s">
         <v>850</v>
       </c>
@@ -9427,7 +9668,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" ht="18">
       <c r="B17" t="s">
         <v>851</v>
       </c>
@@ -9450,7 +9691,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="18">
       <c r="B18" t="s">
         <v>1135</v>
       </c>
@@ -9473,7 +9714,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" ht="18">
       <c r="B19" t="s">
         <v>1155</v>
       </c>
@@ -9490,7 +9731,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:16" ht="18">
       <c r="E20" s="1" t="s">
         <v>102</v>
       </c>
@@ -9522,7 +9763,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" ht="18">
       <c r="B21" t="s">
         <v>607</v>
       </c>
@@ -9557,7 +9798,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" ht="18">
       <c r="B22" t="s">
         <v>856</v>
       </c>
@@ -9594,7 +9835,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="18">
       <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
@@ -9608,7 +9849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="18">
       <c r="B24" s="1" t="s">
         <v>604</v>
       </c>
@@ -9627,7 +9868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" ht="18">
       <c r="B25" s="1" t="s">
         <v>1445</v>
       </c>
@@ -9662,7 +9903,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" ht="18">
       <c r="B26" t="s">
         <v>693</v>
       </c>
@@ -9691,7 +9932,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" ht="18">
       <c r="B27" t="s">
         <v>727</v>
       </c>
@@ -9708,7 +9949,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:16" ht="18">
       <c r="B28" t="s">
         <v>728</v>
       </c>
@@ -9725,7 +9966,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:16" ht="18">
       <c r="B29" t="s">
         <v>737</v>
       </c>
@@ -9742,7 +9983,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:16" ht="18">
       <c r="B30" s="2" t="s">
         <v>736</v>
       </c>
@@ -9764,7 +10005,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" ht="18">
       <c r="B31" s="2" t="s">
         <v>751</v>
       </c>
@@ -9783,7 +10024,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:16" ht="18">
       <c r="B32" s="2" t="s">
         <v>753</v>
       </c>
@@ -9814,7 +10055,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" ht="18">
       <c r="B33" s="2" t="s">
         <v>908</v>
       </c>
@@ -9845,7 +10086,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" ht="18">
       <c r="B34" s="2" t="s">
         <v>773</v>
       </c>
@@ -9876,7 +10117,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" ht="18">
       <c r="A35" s="1" t="s">
         <v>883</v>
       </c>
@@ -9898,7 +10139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" ht="18">
       <c r="B36" s="2" t="s">
         <v>777</v>
       </c>
@@ -9917,7 +10158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" ht="18">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -9937,7 +10178,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" ht="18">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>1193</v>
@@ -9973,7 +10214,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" ht="18">
       <c r="A39" s="1" t="s">
         <v>866</v>
       </c>
@@ -10007,7 +10248,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" ht="18">
       <c r="A40" t="s">
         <v>803</v>
       </c>
@@ -10041,7 +10282,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" ht="18">
       <c r="B41" s="2" t="s">
         <v>1103</v>
       </c>
@@ -10072,7 +10313,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" ht="18">
       <c r="A42" s="1" t="s">
         <v>803</v>
       </c>
@@ -10112,7 +10353,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" ht="18">
       <c r="B43" s="2" t="s">
         <v>937</v>
       </c>
@@ -10147,7 +10388,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" ht="18">
       <c r="B44" s="2" t="s">
         <v>1455</v>
       </c>
@@ -10167,7 +10408,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" ht="18">
       <c r="B45" s="2" t="s">
         <v>1456</v>
       </c>
@@ -10202,7 +10443,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" ht="18">
       <c r="A46" s="1" t="s">
         <v>995</v>
       </c>
@@ -10236,7 +10477,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" ht="18">
       <c r="A47" s="1" t="s">
         <v>1150</v>
       </c>
@@ -10274,7 +10515,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" ht="18">
       <c r="A48" t="s">
         <v>918</v>
       </c>
@@ -10297,7 +10538,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" ht="18">
       <c r="B49" s="2" t="s">
         <v>914</v>
       </c>
@@ -10332,7 +10573,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" ht="18">
       <c r="B50" s="2" t="s">
         <v>1072</v>
       </c>
@@ -10355,12 +10596,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" ht="18">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>266</v>
@@ -10387,7 +10628,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" ht="18">
       <c r="B52" t="s">
         <v>1144</v>
       </c>
@@ -10416,7 +10657,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" ht="18">
       <c r="B53" t="s">
         <v>1144</v>
       </c>
@@ -10445,7 +10686,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" ht="18">
       <c r="A54" s="1" t="s">
         <v>1162</v>
       </c>
@@ -10471,7 +10712,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" ht="18">
       <c r="B55" t="s">
         <v>1501</v>
       </c>
@@ -10491,7 +10732,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16" ht="18">
       <c r="B56" t="s">
         <v>1509</v>
       </c>
@@ -10526,13 +10767,59 @@
         <v>1508</v>
       </c>
     </row>
+    <row r="57" spans="1:16" ht="18">
+      <c r="B57" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="18">
+      <c r="B58" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="18">
+      <c r="B59" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -10540,6 +10827,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10548,18 +10840,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="F1:H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="5" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:31" ht="18">
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
@@ -10570,59 +10862,59 @@
         <v>467</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="14"/>
-    </row>
-    <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="2:31" ht="18">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -10699,7 +10991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:31" ht="18">
       <c r="C3" t="s">
         <v>102</v>
       </c>
@@ -10731,7 +11023,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:31" ht="31.2" customHeight="1">
       <c r="C4" t="s">
         <v>102</v>
       </c>
@@ -10749,13 +11041,19 @@
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:31" ht="18">
       <c r="C5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1680</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>487</v>
       </c>
@@ -10787,296 +11085,318 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>500</v>
-      </c>
+    <row r="6" spans="2:31" ht="18">
+      <c r="C6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>498</v>
+        <v>1667</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1668</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>502</v>
+        <v>1669</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>503</v>
+        <v>1670</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>504</v>
+        <v>1671</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>506</v>
+        <v>1672</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1264</v>
+        <v>493</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1266</v>
+        <v>1673</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1267</v>
+        <v>495</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+        <v>1674</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="18">
       <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7" t="s">
+        <v>500</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>498</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>503</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>506</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>1266</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:31" ht="18">
       <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>571</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>569</v>
+        <v>499</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>575</v>
+        <v>503</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>576</v>
+        <v>1265</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>578</v>
+        <v>1266</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>577</v>
+        <v>1268</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="18">
       <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="O9" t="s">
-        <v>582</v>
-      </c>
-      <c r="P9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+        <v>578</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="18">
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O10" t="s">
+        <v>582</v>
+      </c>
+      <c r="P10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="18">
+      <c r="C11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>1273</v>
-      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:31" ht="18">
       <c r="B12" t="s">
-        <v>747</v>
+        <v>1122</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>655</v>
+        <v>1120</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>658</v>
-      </c>
+        <v>1121</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>659</v>
+        <v>1272</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+        <v>1273</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:31" ht="18">
       <c r="B13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>655</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+        <v>656</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>658</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>1270</v>
+        <v>659</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+        <v>660</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="18">
       <c r="B14" t="s">
-        <v>992</v>
+        <v>748</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>102</v>
@@ -11084,43 +11404,51 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>994</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>665</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="2:31" ht="18">
       <c r="B15" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>993</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>994</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="18">
       <c r="B16" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>102</v>
@@ -11128,81 +11456,79 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>716</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18">
       <c r="B17" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18">
       <c r="B18" t="s">
-        <v>646</v>
+        <v>990</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>791</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>619</v>
+        <v>717</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18">
+      <c r="B19" t="s">
+        <v>646</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>754</v>
+        <v>619</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>786</v>
-      </c>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18">
       <c r="C20" s="1" t="s">
         <v>102</v>
       </c>
@@ -11210,24 +11536,21 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>789</v>
+        <v>756</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>1131</v>
-      </c>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18">
       <c r="B21" t="s">
-        <v>1127</v>
+        <v>786</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>102</v>
@@ -11235,30 +11558,22 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>790</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>1125</v>
+        <v>787</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1274</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1275</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18">
       <c r="A22" s="1" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="B22" t="s">
         <v>1127</v>
@@ -11272,89 +11587,94 @@
       <c r="E22" s="1"/>
       <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>1279</v>
+        <v>1126</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1275</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18">
       <c r="A23" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="B23" t="s">
-        <v>795</v>
+        <v>1127</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1" t="s">
-        <v>793</v>
+        <v>1131</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>794</v>
+        <v>1132</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18">
+      <c r="A24" s="1" t="s">
+        <v>1125</v>
+      </c>
       <c r="B24" t="s">
-        <v>1170</v>
+        <v>795</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1168</v>
+        <v>793</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1286</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1287</v>
+        <v>794</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1283</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18">
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>802</v>
+        <v>1170</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>102</v>
@@ -11363,137 +11683,149 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>800</v>
+        <v>1168</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1169</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18">
       <c r="B26" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>1297</v>
+        <v>801</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18">
       <c r="B27" t="s">
-        <v>817</v>
+        <v>741</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="F27" t="s">
-        <v>828</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18">
       <c r="B28" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>816</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18">
       <c r="B29" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F29" t="s">
+        <v>829</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18">
       <c r="B30" t="s">
-        <v>1179</v>
+        <v>836</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>102</v>
@@ -11502,33 +11834,15 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1177</v>
+        <v>837</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18">
       <c r="B31" t="s">
-        <v>1308</v>
+        <v>1179</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>102</v>
@@ -11536,40 +11850,34 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1190</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18">
       <c r="B32" t="s">
-        <v>844</v>
+        <v>1308</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>102</v>
@@ -11577,34 +11885,40 @@
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1190</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>842</v>
+        <v>1187</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>843</v>
+        <v>1188</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18">
       <c r="B33" t="s">
-        <v>909</v>
+        <v>844</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>102</v>
@@ -11613,33 +11927,33 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>910</v>
+        <v>842</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>911</v>
+        <v>843</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18">
       <c r="B34" t="s">
-        <v>1002</v>
+        <v>909</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>102</v>
@@ -11647,43 +11961,34 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1005</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>1003</v>
+        <v>910</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>44</v>
+        <v>911</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>920</v>
-      </c>
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18">
       <c r="B35" t="s">
-        <v>921</v>
+        <v>1002</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>102</v>
@@ -11691,37 +11996,43 @@
       <c r="D35">
         <v>1</v>
       </c>
+      <c r="E35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1005</v>
+      </c>
       <c r="G35" s="1" t="s">
-        <v>918</v>
+        <v>1003</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>919</v>
+        <v>44</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>985</v>
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18">
+      <c r="A36" t="s">
+        <v>920</v>
       </c>
       <c r="B36" t="s">
-        <v>999</v>
+        <v>921</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>102</v>
@@ -11730,18 +12041,36 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1000</v>
+        <v>918</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>919</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18">
       <c r="A37" s="1" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="B37" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>102</v>
@@ -11750,13 +12079,19 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18">
+      <c r="A38" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>988</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>102</v>
       </c>
@@ -11764,83 +12099,61 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" ht="18">
       <c r="C39" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1061</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>1058</v>
+        <v>987</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1076</v>
-      </c>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18">
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>1077</v>
+      <c r="E40" t="s">
+        <v>1060</v>
       </c>
       <c r="F40" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18">
+      <c r="A41" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>1140</v>
+        <v>1076</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>102</v>
@@ -11848,145 +12161,158 @@
       <c r="D41">
         <v>1</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1078</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>1348</v>
+        <v>1079</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18">
+      <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18">
+      <c r="B43" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="44" spans="1:16" ht="18">
+      <c r="A44" t="s">
         <v>1149</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>1148</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1180</v>
+        <v>1146</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1357</v>
+        <v>1147</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1354</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18">
       <c r="B45" t="s">
-        <v>1452</v>
+        <v>1182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1451</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>1448</v>
+        <v>1180</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1181</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18">
       <c r="B46" t="s">
         <v>1452</v>
       </c>
@@ -11996,101 +12322,131 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" t="s">
-        <v>1461</v>
+      <c r="E46" s="1" t="s">
+        <v>1450</v>
       </c>
       <c r="F46" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18">
       <c r="B47" t="s">
-        <v>1512</v>
+        <v>1452</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1462</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>1513</v>
+        <v>1459</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M47" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18">
       <c r="B48" t="s">
-        <v>1530</v>
+        <v>1512</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1145</v>
+        <v>102</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="18">
+      <c r="B49" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>1531</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M49" t="s">
         <v>1532</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>1536</v>
+    <row r="50" spans="2:16" ht="18">
+      <c r="B50" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1624</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -12098,6 +12454,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12112,68 +12473,68 @@
       <selection activeCell="H29" sqref="G1:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="18">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="14"/>
-    </row>
-    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="1:31" ht="18">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -12250,7 +12611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" ht="18">
       <c r="E3" t="s">
         <v>266</v>
       </c>
@@ -12282,7 +12643,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" ht="18">
       <c r="E4" t="s">
         <v>266</v>
       </c>
@@ -12314,7 +12675,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" ht="18">
       <c r="E5" t="s">
         <v>266</v>
       </c>
@@ -12346,7 +12707,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" ht="18">
       <c r="E6" s="1" t="s">
         <v>561</v>
       </c>
@@ -12378,7 +12739,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" ht="18">
       <c r="F7">
         <v>2</v>
       </c>
@@ -12395,7 +12756,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" ht="18">
       <c r="B8" t="s">
         <v>752</v>
       </c>
@@ -12412,7 +12773,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" ht="18">
       <c r="B9" t="s">
         <v>752</v>
       </c>
@@ -12429,7 +12790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" ht="18">
       <c r="B10" t="s">
         <v>770</v>
       </c>
@@ -12464,7 +12825,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" ht="18">
       <c r="B11" t="s">
         <v>762</v>
       </c>
@@ -12493,7 +12854,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" ht="18">
       <c r="B12" t="s">
         <v>767</v>
       </c>
@@ -12528,7 +12889,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" ht="18">
       <c r="A13" s="1" t="s">
         <v>840</v>
       </c>
@@ -12560,7 +12921,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" ht="18">
       <c r="A14" s="1"/>
       <c r="E14" t="s">
         <v>266</v>
@@ -12587,7 +12948,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" ht="18">
       <c r="B15" t="s">
         <v>783</v>
       </c>
@@ -12610,7 +12971,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" ht="18">
       <c r="A16" s="1" t="s">
         <v>873</v>
       </c>
@@ -12642,7 +13003,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" ht="18">
       <c r="A17" t="s">
         <v>874</v>
       </c>
@@ -12674,7 +13035,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" ht="18">
       <c r="B18" t="s">
         <v>876</v>
       </c>
@@ -12703,7 +13064,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" ht="18">
       <c r="A19" s="1" t="s">
         <v>1046</v>
       </c>
@@ -12741,7 +13102,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" ht="18">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>1473</v>
@@ -12783,7 +13144,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" ht="18">
       <c r="B21" t="s">
         <v>891</v>
       </c>
@@ -12812,7 +13173,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="18">
       <c r="A22" s="1" t="s">
         <v>877</v>
       </c>
@@ -12847,7 +13208,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" ht="18">
       <c r="B23" t="s">
         <v>1130</v>
       </c>
@@ -12876,7 +13237,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" ht="18">
       <c r="B24" t="s">
         <v>1138</v>
       </c>
@@ -12908,7 +13269,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" ht="18">
       <c r="B25" t="s">
         <v>1481</v>
       </c>
@@ -12943,7 +13304,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" ht="18">
       <c r="B26" t="s">
         <v>1173</v>
       </c>
@@ -12972,7 +13333,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" ht="18">
       <c r="B27" t="s">
         <v>1176</v>
       </c>
@@ -12989,15 +13350,15 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" ht="18">
       <c r="B28" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C28" t="s">
         <v>1597</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1598</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1599</v>
       </c>
       <c r="E28" t="s">
         <v>1474</v>
@@ -13006,21 +13367,21 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:16" ht="18">
       <c r="B29" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D29" t="s">
         <v>1606</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1607</v>
       </c>
       <c r="E29" t="s">
         <v>266</v>
@@ -13029,31 +13390,26 @@
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>1603</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>1605</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>1604</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -13061,6 +13417,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13069,13 +13430,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AE75"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="9.109375" customWidth="1"/>
@@ -13085,66 +13446,66 @@
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="18">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="14"/>
-    </row>
-    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="AE1" s="19"/>
+    </row>
+    <row r="2" spans="1:31" ht="18">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -13221,10 +13582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>972</v>
-      </c>
+    <row r="3" spans="1:31" ht="18">
       <c r="E3" t="s">
         <v>266</v>
       </c>
@@ -13232,209 +13590,222 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>388</v>
-      </c>
+        <v>1646</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>389</v>
+        <v>1651</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>390</v>
+        <v>1652</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>391</v>
+        <v>1659</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>392</v>
+        <v>1660</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>393</v>
+        <v>1661</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B4" t="s">
-        <v>886</v>
-      </c>
-      <c r="E4" t="s">
-        <v>266</v>
+        <v>1662</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="21" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>1665</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" spans="1:31" ht="18">
+      <c r="E4" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>884</v>
+        <v>1647</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>1648</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1654</v>
+      </c>
       <c r="M4" s="1" t="s">
-        <v>904</v>
+        <v>1655</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+        <v>1656</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1658</v>
+      </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+    </row>
+    <row r="5" spans="1:31" ht="18">
       <c r="B5" t="s">
-        <v>1113</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s">
         <v>266</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>852</v>
+      </c>
       <c r="B6" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1145</v>
+        <v>886</v>
+      </c>
+      <c r="E6" t="s">
+        <v>266</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1610</v>
+        <v>884</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1616</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>1617</v>
+        <v>904</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>1621</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -13445,19 +13816,15 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>1623</v>
-      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="8"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" ht="18">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>1113</v>
       </c>
       <c r="E7" t="s">
         <v>266</v>
@@ -13465,22 +13832,18 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>9</v>
+      <c r="G7" s="1" t="s">
+        <v>1111</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>1112</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>900</v>
-      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -13499,38 +13862,50 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>892</v>
-      </c>
+    <row r="8" spans="1:31" ht="18">
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>896</v>
-      </c>
-      <c r="E8" t="s">
-        <v>266</v>
+        <v>1611</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1145</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>893</v>
+        <v>1609</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+        <v>1610</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1615</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>901</v>
+        <v>1616</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+        <v>1617</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>1620</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -13541,17 +13916,19 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="8"/>
+      <c r="AB8" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>1622</v>
+      </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>893</v>
-      </c>
+    <row r="9" spans="1:31" ht="18">
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E9" t="s">
         <v>266</v>
@@ -13559,18 +13936,18 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>892</v>
+      <c r="G9" t="s">
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>895</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>900</v>
@@ -13593,54 +13970,59 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" ht="18">
+      <c r="A10" s="1" t="s">
+        <v>892</v>
+      </c>
       <c r="B10" t="s">
-        <v>973</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>896</v>
+      </c>
       <c r="E10" t="s">
         <v>266</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>406</v>
+        <v>893</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="K10" t="s">
-        <v>530</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>531</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>437</v>
+        <v>901</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+        <v>902</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>893</v>
+      </c>
       <c r="B11" t="s">
-        <v>974</v>
+        <v>897</v>
       </c>
       <c r="E11" t="s">
         <v>266</v>
@@ -13649,59 +14031,126 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>424</v>
+        <v>892</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>430</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>431</v>
+        <v>903</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="E12" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" ht="18">
+      <c r="B12" t="s">
+        <v>973</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
         <v>266</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="E13" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="18">
+      <c r="B13" t="s">
+        <v>974</v>
+      </c>
+      <c r="E13" t="s">
         <v>266</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+        <v>424</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="18">
       <c r="E14" s="1" t="s">
         <v>266</v>
       </c>
@@ -13709,14 +14158,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="18">
       <c r="E15" s="1" t="s">
         <v>266</v>
       </c>
@@ -13724,65 +14169,25 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="18">
+      <c r="E16" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>516</v>
+        <v>1089</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>1091</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" ht="18">
       <c r="E17" s="1" t="s">
         <v>266</v>
       </c>
@@ -13790,39 +14195,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>517</v>
+        <v>1090</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="18">
       <c r="B18" t="s">
-        <v>740</v>
+        <v>518</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>564</v>
+        <v>522</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
@@ -13832,28 +14216,44 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>739</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="18">
+      <c r="B19" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>266</v>
       </c>
@@ -13861,98 +14261,122 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>599</v>
+        <v>526</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>593</v>
+        <v>528</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>595</v>
+        <v>524</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="18">
       <c r="B20" t="s">
-        <v>739</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" t="s">
         <v>266</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>743</v>
+        <v>562</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>563</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="18">
       <c r="B21" t="s">
-        <v>1099</v>
+        <v>739</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1097</v>
+        <v>591</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>592</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="18">
+      <c r="B22" t="s">
+        <v>739</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1100</v>
+        <v>743</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1098</v>
+        <v>744</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -13963,55 +14387,32 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" ht="18">
       <c r="B23" t="s">
-        <v>646</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>617</v>
+        <v>1097</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>741</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:16" ht="18">
       <c r="E24" s="1" t="s">
         <v>266</v>
       </c>
@@ -14019,56 +14420,68 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>684</v>
+        <v>1100</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1098</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="2:16" ht="18">
       <c r="B25" t="s">
-        <v>742</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" t="s">
         <v>266</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>686</v>
+        <v>617</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>694</v>
+        <v>618</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1413</v>
+        <v>651</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>1416</v>
+        <v>654</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>1415</v>
+        <v>652</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18">
       <c r="B26" t="s">
-        <v>975</v>
+        <v>741</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>266</v>
@@ -14077,91 +14490,85 @@
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18">
       <c r="B27" t="s">
-        <v>976</v>
+        <v>742</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>24</v>
+        <v>686</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>25</v>
+        <v>694</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>1591</v>
+        <v>1413</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>1592</v>
+        <v>1416</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1593</v>
+        <v>1415</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18">
       <c r="B28" t="s">
-        <v>779</v>
+        <v>975</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>687</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>778</v>
+        <v>695</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>1590</v>
+        <v>1411</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="18">
       <c r="B29" t="s">
-        <v>780</v>
-      </c>
-      <c r="C29" t="s">
-        <v>703</v>
-      </c>
-      <c r="D29" t="s">
-        <v>811</v>
+        <v>976</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>266</v>
@@ -14170,135 +14577,134 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1423</v>
+        <v>1590</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18">
+      <c r="B30" t="s">
+        <v>779</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O30" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="2:16" ht="18">
       <c r="B31" t="s">
-        <v>977</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>700</v>
+        <v>780</v>
+      </c>
+      <c r="C31" t="s">
+        <v>703</v>
+      </c>
+      <c r="D31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18">
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="18">
+      <c r="B33" t="s">
+        <v>977</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
+    <row r="34" spans="1:16" ht="18">
+      <c r="B34" t="s">
         <v>978</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="E33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>979</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1584</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>712</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18">
       <c r="E35" s="1" t="s">
         <v>266</v>
       </c>
@@ -14306,47 +14712,63 @@
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>2</v>
+        <v>704</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>705</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18">
       <c r="B36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>888</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>1580</v>
+        <v>711</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1583</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="C37" s="1"/>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18">
+      <c r="B37" t="s">
+        <v>712</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>713</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>266</v>
@@ -14355,16 +14777,20 @@
         <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1006</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18">
       <c r="B38" t="s">
-        <v>981</v>
-      </c>
+        <v>980</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
         <v>266</v>
       </c>
@@ -14372,54 +14798,43 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1573</v>
+        <v>1579</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>1580</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
-        <v>982</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>732</v>
+        <v>1006</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1573</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18">
       <c r="B40" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>266</v>
@@ -14428,76 +14843,86 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>731</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="N40" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:16" ht="18">
       <c r="B41" t="s">
-        <v>984</v>
-      </c>
-      <c r="C41" t="s">
-        <v>758</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>847</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18">
       <c r="B42" t="s">
-        <v>799</v>
+        <v>983</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>846</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18">
       <c r="B43" t="s">
-        <v>798</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D43" t="s">
-        <v>854</v>
+        <v>984</v>
+      </c>
+      <c r="C43" t="s">
+        <v>758</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>266</v>
@@ -14506,33 +14931,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>797</v>
+        <v>757</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1568</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>1569</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18">
+      <c r="A44" s="1" t="s">
+        <v>847</v>
+      </c>
       <c r="B44" t="s">
-        <v>809</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>266</v>
@@ -14541,18 +14951,24 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>807</v>
+        <v>759</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18">
       <c r="A45" s="1" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="B45" t="s">
-        <v>971</v>
+        <v>798</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D45" t="s">
+        <v>854</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>266</v>
@@ -14561,60 +14977,53 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>1560</v>
+        <v>796</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1567</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>1557</v>
+        <v>1568</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>1558</v>
+        <v>1569</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A46" s="1"/>
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18">
       <c r="B46" t="s">
-        <v>971</v>
+        <v>809</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>812</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1562</v>
+        <v>807</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18">
       <c r="A47" s="1" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="B47" t="s">
-        <v>839</v>
+        <v>971</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>266</v>
@@ -14623,118 +15032,122 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>1552</v>
+        <v>1559</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1010</v>
+        <v>971</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1006</v>
+        <v>1561</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>833</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="18">
       <c r="A49" s="1" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="B49" t="s">
-        <v>861</v>
-      </c>
-      <c r="C49" t="s">
-        <v>864</v>
-      </c>
-      <c r="D49" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="18">
+      <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>887</v>
+        <v>1008</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1010</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F50">
-        <v>2</v>
+      <c r="F50" s="11">
+        <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>768</v>
+        <v>1006</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="18">
       <c r="A51" s="1" t="s">
-        <v>922</v>
+        <v>862</v>
       </c>
       <c r="B51" t="s">
-        <v>956</v>
+        <v>861</v>
       </c>
       <c r="C51" t="s">
-        <v>957</v>
+        <v>864</v>
       </c>
       <c r="D51" t="s">
-        <v>958</v>
+        <v>865</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>266</v>
@@ -14743,95 +15156,77 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>954</v>
+        <v>860</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18">
       <c r="A52" s="1" t="s">
-        <v>949</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>915</v>
+        <v>768</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>916</v>
+        <v>769</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>929</v>
+        <v>1363</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>930</v>
+        <v>1566</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>931</v>
+        <v>1365</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18">
       <c r="A53" s="1" t="s">
-        <v>1087</v>
+        <v>922</v>
       </c>
       <c r="B53" t="s">
-        <v>951</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
+      </c>
+      <c r="C53" t="s">
+        <v>957</v>
       </c>
       <c r="D53" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="18">
+      <c r="A54" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>877</v>
-      </c>
       <c r="B54" t="s">
-        <v>923</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D54" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>266</v>
@@ -14840,36 +15235,36 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="18">
       <c r="A55" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>959</v>
+        <v>1087</v>
+      </c>
+      <c r="B55" t="s">
+        <v>951</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>962</v>
+        <v>952</v>
+      </c>
+      <c r="D55" t="s">
+        <v>953</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>266</v>
@@ -14878,58 +15273,74 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>950</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="18">
       <c r="A56" s="1" t="s">
-        <v>922</v>
+        <v>877</v>
       </c>
       <c r="B56" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="D56" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>926</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="18">
       <c r="A57" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B57" t="s">
-        <v>944</v>
+        <v>806</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>959</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>943</v>
+        <v>961</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>266</v>
@@ -14938,27 +15349,28 @@
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B58" s="12" t="s">
-        <v>1081</v>
+        <v>960</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" ht="18">
+      <c r="A58" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B58" t="s">
+        <v>947</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D58" t="s">
+        <v>948</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>266</v>
@@ -14967,39 +15379,57 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B59" s="12"/>
+        <v>967</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" ht="18">
+      <c r="A59" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B59" t="s">
+        <v>944</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>943</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>968</v>
+        <v>941</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1086</v>
+        <v>942</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="18">
+      <c r="B60" s="12" t="s">
+        <v>1081</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>266</v>
@@ -15008,13 +15438,14 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1080</v>
+        <v>969</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="18">
+      <c r="B61" s="12"/>
       <c r="E61" s="1" t="s">
         <v>266</v>
       </c>
@@ -15022,15 +15453,24 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1084</v>
+        <v>968</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="18">
+      <c r="A62" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="B62" t="s">
-        <v>1096</v>
+        <v>1082</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1086</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>266</v>
@@ -15039,16 +15479,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
-        <v>1114</v>
-      </c>
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="18">
       <c r="E63" s="1" t="s">
         <v>266</v>
       </c>
@@ -15056,32 +15493,32 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B64" s="13" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E64" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="18">
+      <c r="B64" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64">
         <v>2</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="G64" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" ht="18">
       <c r="B65" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>266</v>
@@ -15090,44 +15527,32 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" s="13" customFormat="1" ht="18">
+      <c r="B66" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="13">
+        <v>2</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B66" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:16" ht="18">
       <c r="B67" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>266</v>
@@ -15136,157 +15561,157 @@
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" ht="18">
+      <c r="B68" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="18">
+      <c r="B69" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
+    <row r="70" spans="2:16" ht="18">
+      <c r="B70" t="s">
         <v>1158</v>
-      </c>
-      <c r="E68" t="s">
-        <v>266</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E69" t="s">
-        <v>266</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>1544</v>
-      </c>
-      <c r="N69" t="s">
-        <v>1545</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1546</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1167</v>
       </c>
       <c r="E70" t="s">
         <v>266</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" ht="18">
       <c r="B71" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
+      </c>
+      <c r="E71" t="s">
+        <v>266</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1544</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="18">
+      <c r="B72" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1167</v>
+      </c>
       <c r="E72" t="s">
         <v>266</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1425</v>
+        <v>1162</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" ht="18">
       <c r="B73" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E73" t="s">
-        <v>266</v>
+        <v>1161</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1160</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1484</v>
+        <v>1159</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
-        <v>1489</v>
-      </c>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="18">
       <c r="E74" t="s">
         <v>266</v>
       </c>
@@ -15294,27 +15719,27 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1487</v>
+        <v>1425</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1488</v>
+        <v>1426</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="N74" t="s">
-        <v>1491</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1492</v>
+        <v>1435</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>1437</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="18">
       <c r="B75" t="s">
-        <v>1539</v>
+        <v>1486</v>
       </c>
       <c r="E75" t="s">
         <v>266</v>
@@ -15323,31 +15748,92 @@
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="18">
+      <c r="B76" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E76" t="s">
+        <v>266</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1491</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1492</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" ht="18">
+      <c r="B77" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E77" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M75" s="1" t="s">
+      <c r="M77" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="N77" t="s">
         <v>1540</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O77" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P77" t="s">
         <v>1541</v>
       </c>
-      <c r="O75" t="s">
-        <v>1543</v>
-      </c>
-      <c r="P75" t="s">
-        <v>1542</v>
+    </row>
+    <row r="78" spans="2:16" ht="18">
+      <c r="C78" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E78" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>1636</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -15355,6 +15841,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15369,72 +15860,72 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="3" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="18">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="AF1" s="19"/>
+    </row>
+    <row r="2" spans="1:32" ht="18">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -15514,7 +16005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="18">
       <c r="A3" s="1" t="s">
         <v>1028</v>
       </c>
@@ -15592,7 +16083,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="18">
       <c r="A4" s="1" t="s">
         <v>949</v>
       </c>
@@ -15633,7 +16124,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="18">
       <c r="F5">
         <v>2</v>
       </c>
@@ -15678,79 +16169,79 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D554C641-9F03-4D5E-8ADA-FF43FCAE20C3}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="18">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="16"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="15"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="AF1" s="19"/>
+    </row>
+    <row r="2" spans="1:32" ht="18">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -15830,12 +16321,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="18">
       <c r="A3" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="B3" t="s">
-        <v>1028</v>
+        <v>1641</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1424</v>
@@ -15875,6 +16366,29 @@
       </c>
       <c r="R3" s="1" t="s">
         <v>1036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="18">
+      <c r="B4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1640</v>
       </c>
     </row>
   </sheetData>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112FEC11-E656-4009-9D91-A7D4F9EDE1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522E8CF-AA50-460E-8924-A923E51D3E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1772">
   <si>
     <t>開ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2848,10 +2848,6 @@
   </si>
   <si>
     <t>ふって</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ふて</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7032,12 +7028,378 @@
   <si>
     <t>我想让他通过游泳来锻炼体力，所以才让他开始学的。</t>
   </si>
+  <si>
+    <t>行く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はこぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運ばない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はこばない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はこんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はこんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剝いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剝いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剝く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥，削</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥抱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撫でる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なでる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚摸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撫でて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なでて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞满，装入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撫でた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なでた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒鳴って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どなって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒鳴った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どなった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さけんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さけんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦せて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やせて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦せた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やせた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变瘦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渇く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥，口渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渇いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渇いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かわいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了，空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たよる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頼て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たよて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人に頼ることは悪いことじゃないんだから。私にも遠慮しないでね。</t>
+  </si>
+  <si>
+    <t>依靠别人并不是什么坏事。有问题的话也可以来找我，不用客气哦。</t>
+  </si>
+  <si>
+    <t>依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この両手は光を抱ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这双手能够拥抱光明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7231,6 +7593,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7247,10 +7613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7536,10 +7898,10 @@
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -7574,85 +7936,85 @@
     <col min="39" max="39" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18">
+    <row r="1" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="14" t="s">
+      <c r="V1" s="20"/>
+      <c r="W1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="15"/>
+      <c r="X1" s="17"/>
       <c r="Y1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19" t="s">
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="19"/>
-    </row>
-    <row r="2" spans="1:39" ht="18">
+      <c r="AM1" s="21"/>
+    </row>
+    <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
@@ -7756,7 +8118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="18">
+    <row r="3" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -7807,7 +8169,7 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" ht="18">
+    <row r="4" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -7855,7 +8217,7 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:39" ht="18">
+    <row r="5" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
@@ -7902,7 +8264,7 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" ht="18">
+    <row r="6" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -7949,7 +8311,7 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" ht="18">
+    <row r="7" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>102</v>
       </c>
@@ -8059,7 +8421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="18">
+    <row r="8" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>102</v>
       </c>
@@ -8169,7 +8531,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="18">
+    <row r="9" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -8281,7 +8643,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="18">
+    <row r="10" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>102</v>
       </c>
@@ -8384,7 +8746,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="18">
+    <row r="11" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -8492,7 +8854,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="18">
+    <row r="12" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>266</v>
       </c>
@@ -8600,7 +8962,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="18">
+    <row r="13" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -8652,7 +9014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="18">
+    <row r="14" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>266</v>
       </c>
@@ -8755,7 +9117,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="18">
+    <row r="15" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>266</v>
       </c>
@@ -8855,7 +9217,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="18">
+    <row r="16" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>102</v>
       </c>
@@ -8963,7 +9325,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="18">
+    <row r="17" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
@@ -9050,7 +9412,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="18">
+    <row r="18" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>666</v>
       </c>
@@ -9064,40 +9426,40 @@
         <v>665</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>667</v>
@@ -9106,13 +9468,13 @@
         <v>668</v>
       </c>
       <c r="W18" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9140,79 +9502,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="67.77734375" customWidth="1"/>
     <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="18">
+    <row r="1" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="15"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
-    </row>
-    <row r="2" spans="2:31" ht="18">
+      <c r="AE1" s="21"/>
+    </row>
+    <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -9289,7 +9651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="18">
+    <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E3" s="1" t="s">
         <v>102</v>
       </c>
@@ -9306,7 +9668,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="18">
+    <row r="4" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E4" s="1" t="s">
         <v>102</v>
       </c>
@@ -9323,7 +9685,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="18">
+    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E5" s="1" t="s">
         <v>102</v>
       </c>
@@ -9343,7 +9705,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="18">
+    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>102</v>
       </c>
@@ -9359,7 +9721,10 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:31" ht="18">
+    <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>1694</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>102</v>
       </c>
@@ -9367,21 +9732,39 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>1680</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>1681</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>414</v>
+        <v>1682</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" ht="18">
+        <v>1683</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>819</v>
+        <v>1695</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>102</v>
@@ -9390,25 +9773,37 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>465</v>
+        <v>1690</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>466</v>
+        <v>1691</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>820</v>
+        <v>1693</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>821</v>
+        <v>1692</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>822</v>
+        <v>1696</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" ht="18">
+        <v>1697</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>102</v>
       </c>
@@ -9416,69 +9811,48 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>416</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" ht="18">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>818</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>466</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>463</v>
+        <v>821</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M10" t="s">
-        <v>479</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" ht="18">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>102</v>
       </c>
@@ -9486,75 +9860,69 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" ht="18">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>540</v>
+        <v>463</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>544</v>
+        <v>464</v>
+      </c>
+      <c r="M12" t="s">
+        <v>479</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>546</v>
+        <v>481</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" ht="18">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>102</v>
       </c>
@@ -9562,69 +9930,75 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>470</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" ht="18">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>549</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>550</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M14" t="s">
-        <v>551</v>
+        <v>542</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" ht="18">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>102</v>
       </c>
@@ -9632,46 +10006,69 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>537</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="2:31" ht="18">
-      <c r="B16" t="s">
-        <v>850</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>834</v>
+        <v>549</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>1196</v>
+        <v>550</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="M16" t="s">
+        <v>551</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="18">
-      <c r="B17" t="s">
-        <v>851</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>102</v>
       </c>
@@ -9679,44 +10076,45 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>848</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>849</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="18">
-      <c r="B18" t="s">
-        <v>1135</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1134</v>
+        <v>834</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="18">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>1155</v>
+        <v>850</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>102</v>
@@ -9725,13 +10123,22 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1154</v>
+        <v>847</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="18">
+        <v>848</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>1134</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>102</v>
       </c>
@@ -9739,33 +10146,21 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>601</v>
+        <v>1132</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>609</v>
+        <v>1133</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>612</v>
+        <v>1199</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>607</v>
+        <v>1154</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>102</v>
@@ -9774,68 +10169,48 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>606</v>
+        <v>1153</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="18">
-      <c r="B22" t="s">
-        <v>856</v>
-      </c>
-      <c r="C22" t="s">
-        <v>859</v>
-      </c>
-      <c r="D22" t="s">
-        <v>858</v>
-      </c>
+    </row>
+    <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>855</v>
+        <v>601</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+        <v>602</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="M22" s="1" t="s">
-        <v>1202</v>
+        <v>612</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1203</v>
+        <v>613</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1204</v>
+        <v>614</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="18">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>607</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
@@ -9843,710 +10218,724 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>606</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="18">
-      <c r="B24" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>602</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>855</v>
+      </c>
+      <c r="C24" t="s">
+        <v>858</v>
+      </c>
+      <c r="D24" t="s">
+        <v>857</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>603</v>
+        <v>854</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="18">
-      <c r="B25" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>1447</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E25" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1439</v>
+        <v>43</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="18">
-      <c r="B26" t="s">
-        <v>693</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>692</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O28" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="18">
-      <c r="B27" t="s">
-        <v>727</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="18">
-      <c r="B28" t="s">
-        <v>728</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="H28" s="1" t="s">
+    </row>
+    <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" ht="18">
-      <c r="B29" t="s">
-        <v>737</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="18">
-      <c r="B30" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>727</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>736</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="H30" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="18">
-      <c r="B31" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
       <c r="E31" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="18">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>31</v>
+        <v>734</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>1212</v>
+        <v>903</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>1213</v>
+        <v>904</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="18">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>908</v>
+        <v>750</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>906</v>
+        <v>748</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="18">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>771</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>772</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="18">
-      <c r="A35" s="1" t="s">
-        <v>883</v>
-      </c>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>777</v>
+        <v>907</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>50</v>
+        <v>905</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="18">
+        <v>906</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>52</v>
+        <v>770</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="18">
+        <v>771</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>882</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>777</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>882</v>
+        <v>50</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="18">
-      <c r="A38" s="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1195</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="1" t="s">
-        <v>266</v>
+        <v>737</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1191</v>
+        <v>52</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>866</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>776</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>803</v>
+        <v>881</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="18">
-      <c r="A40" t="s">
-        <v>803</v>
-      </c>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+        <v>1192</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1194</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>738</v>
+        <v>266</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>866</v>
+        <v>1190</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1232</v>
+        <v>1191</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>1223</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="18">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>865</v>
+      </c>
       <c r="B41" s="2" t="s">
-        <v>1103</v>
+        <v>804</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1101</v>
+        <v>802</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1102</v>
+        <v>803</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18">
-      <c r="A42" s="1" t="s">
-        <v>803</v>
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>802</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1038</v>
+        <v>804</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1037</v>
+        <v>865</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L42" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>1042</v>
+        <v>866</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1231</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1043</v>
+        <v>1234</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1044</v>
+        <v>1232</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="18">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B43" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>939</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>935</v>
+        <v>1100</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>936</v>
+        <v>1101</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>802</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>1037</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1453</v>
+        <v>1036</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" s="2" t="s">
         <v>1454</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="18">
-      <c r="B45" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="18">
-      <c r="A46" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="M48" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="O46" s="1" t="s">
+      <c r="O48" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18">
-      <c r="A47" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D49" t="s">
         <v>997</v>
-      </c>
-      <c r="D47" t="s">
-        <v>998</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18">
-      <c r="A48" t="s">
-        <v>918</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="18">
-      <c r="B49" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1184</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>266</v>
@@ -10555,33 +10944,33 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>912</v>
+        <v>994</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>913</v>
+        <v>995</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="18">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>917</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>1072</v>
+        <v>962</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1074</v>
+        <v>963</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>266</v>
@@ -10590,232 +10979,430 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>47</v>
+        <v>965</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="18">
-      <c r="A51" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="2" t="s">
-        <v>1608</v>
+        <v>913</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1183</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1123</v>
+        <v>911</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1124</v>
+        <v>912</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="18">
-      <c r="B52" t="s">
-        <v>1144</v>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1073</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>738</v>
+        <v>266</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>497</v>
+        <v>47</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="18">
-      <c r="B53" t="s">
-        <v>1144</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1607</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>738</v>
+        <v>266</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M55" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="O53" s="1" t="s">
+      <c r="O55" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="18">
-      <c r="A54" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D56" t="s">
         <v>1497</v>
       </c>
-      <c r="D54" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="18">
-      <c r="B55" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="18">
-      <c r="B56" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1511</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" t="s">
-        <v>1503</v>
+      <c r="G56" s="1" t="s">
+        <v>1494</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="18">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>1628</v>
+        <v>1500</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1501</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57" s="20" t="s">
-        <v>1626</v>
+      <c r="G57" t="s">
+        <v>1498</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="18">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>1629</v>
+        <v>1508</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1510</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>1630</v>
+        <v>1502</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="18">
+        <v>1503</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="14" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>1633</v>
+      <c r="M61" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>1760</v>
       </c>
     </row>
   </sheetData>
@@ -10840,18 +11427,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="18">
+    <row r="1" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
@@ -10862,59 +11449,59 @@
         <v>467</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="15"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
-    </row>
-    <row r="2" spans="2:31" ht="18">
+      <c r="AE1" s="21"/>
+    </row>
+    <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -10991,7 +11578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:31" ht="18">
+    <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>102</v>
       </c>
@@ -11023,7 +11610,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="31.2" customHeight="1">
+    <row r="4" spans="2:31" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>102</v>
       </c>
@@ -11041,7 +11628,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="18">
+    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>102</v>
       </c>
@@ -11049,10 +11636,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F5" t="s">
         <v>1679</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1680</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>487</v>
@@ -11085,58 +11672,58 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="18">
+    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H6" t="s">
         <v>1667</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>1671</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1672</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>493</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>495</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" ht="18">
+    </row>
+    <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
@@ -11165,19 +11752,19 @@
         <v>506</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>1267</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" ht="18">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
@@ -11203,19 +11790,19 @@
         <v>506</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>1266</v>
-      </c>
       <c r="O8" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" ht="18">
+    </row>
+    <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
@@ -11256,7 +11843,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="18">
+    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>102</v>
       </c>
@@ -11298,7 +11885,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="18">
+    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>266</v>
       </c>
@@ -11306,16 +11893,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>1186</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -11324,9 +11911,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="2:31" ht="18">
+    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>102</v>
@@ -11337,25 +11924,25 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>1273</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:31" ht="18">
+    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>102</v>
@@ -11394,9 +11981,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="18">
+    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>102</v>
@@ -11413,19 +12000,19 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>1271</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:31" ht="18">
+    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>102</v>
@@ -11434,21 +12021,21 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>993</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>994</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>665</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" ht="18">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>102</v>
@@ -11457,19 +12044,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="18">
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
@@ -11480,15 +12067,15 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="18">
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>102</v>
@@ -11499,13 +12086,13 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="18">
+    </row>
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>646</v>
       </c>
@@ -11516,10 +12103,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>619</v>
@@ -11528,7 +12115,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18">
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>102</v>
       </c>
@@ -11536,21 +12123,21 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18">
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>102</v>
@@ -11559,24 +12146,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>790</v>
-      </c>
       <c r="G21" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="18">
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B22" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>102</v>
@@ -11587,30 +12174,30 @@
       <c r="E22" s="1"/>
       <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="M22" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B23" t="s">
         <v>1126</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1274</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1275</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="18">
-      <c r="A23" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1127</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>102</v>
@@ -11621,30 +12208,30 @@
       <c r="E23" s="1"/>
       <c r="F23" s="7"/>
       <c r="G23" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>1132</v>
-      </c>
       <c r="M23" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="18">
+    </row>
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>102</v>
@@ -11653,28 +12240,28 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>794</v>
-      </c>
       <c r="M24" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="18">
+    </row>
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>102</v>
@@ -11683,27 +12270,27 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>1169</v>
-      </c>
       <c r="M25" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N25" t="s">
         <v>1286</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="18">
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>102</v>
@@ -11712,21 +12299,21 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="M26" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="18">
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>102</v>
@@ -11735,33 +12322,33 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="K27" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>1297</v>
-      </c>
       <c r="M27" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="18">
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>102</v>
@@ -11770,39 +12357,39 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="K28" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="18">
+    </row>
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>266</v>
@@ -11811,21 +12398,21 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="18">
+    </row>
+    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>102</v>
@@ -11834,15 +12421,15 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="18">
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>102</v>
@@ -11851,33 +12438,33 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>1178</v>
-      </c>
       <c r="K31" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
         <v>1307</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="18">
-      <c r="B32" t="s">
-        <v>1308</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>102</v>
@@ -11886,39 +12473,39 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F32" t="s">
         <v>1189</v>
       </c>
-      <c r="F32" t="s">
-        <v>1190</v>
-      </c>
       <c r="G32" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>1188</v>
-      </c>
       <c r="K32" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="18">
+    </row>
+    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>102</v>
@@ -11927,33 +12514,33 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="K33" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="18">
+    </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>102</v>
@@ -11962,33 +12549,33 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="K34" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="18">
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>102</v>
@@ -11997,80 +12584,69 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F35" t="s">
         <v>1004</v>
       </c>
-      <c r="F35" t="s">
-        <v>1005</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="18">
-      <c r="A36" t="s">
+    </row>
+    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="C36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>919</v>
+      </c>
+      <c r="B37" t="s">
         <v>920</v>
-      </c>
-      <c r="B36" t="s">
-        <v>921</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="18">
-      <c r="A37" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B37" t="s">
-        <v>999</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>102</v>
@@ -12079,18 +12655,36 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="18">
+        <v>918</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="B38" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>102</v>
@@ -12099,13 +12693,19 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B39" t="s">
+        <v>987</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>102</v>
       </c>
@@ -12113,83 +12713,61 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="18">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1061</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>1058</v>
+        <v>986</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="18">
-      <c r="A41" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1076</v>
-      </c>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>1077</v>
+      <c r="E41" t="s">
+        <v>1059</v>
       </c>
       <c r="F41" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B42" t="s">
         <v>1075</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18">
-      <c r="A42" s="1"/>
-      <c r="B42" t="s">
-        <v>1140</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>102</v>
@@ -12197,147 +12775,160 @@
       <c r="D42">
         <v>1</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1077</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>1348</v>
+        <v>1078</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="18">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18">
-      <c r="A44" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>1148</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="B45" t="s">
         <v>1147</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="18">
-      <c r="B45" t="s">
-        <v>1182</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>1144</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1180</v>
+        <v>1145</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
         <v>1181</v>
       </c>
-      <c r="K45" t="s">
-        <v>1357</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="18">
-      <c r="B46" t="s">
-        <v>1452</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
         <v>1451</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18">
-      <c r="B47" t="s">
-        <v>1452</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>266</v>
@@ -12345,104 +12936,127 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>1461</v>
+      <c r="E47" s="1" t="s">
+        <v>1449</v>
       </c>
       <c r="F47" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>1512</v>
+        <v>1451</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
+      <c r="E48" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1461</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>1513</v>
+        <v>1458</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="18">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>1530</v>
+        <v>1511</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1145</v>
+        <v>102</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
         <v>1529</v>
       </c>
-      <c r="F49" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1532</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="18">
-      <c r="B50" t="s">
-        <v>1625</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>1144</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
+      <c r="E50" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>1624</v>
       </c>
     </row>
   </sheetData>
@@ -12467,74 +13081,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="G1:H29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="18">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="15"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
-    </row>
-    <row r="2" spans="1:31" ht="18">
+      <c r="AE1" s="21"/>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -12611,7 +13225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18">
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
         <v>266</v>
       </c>
@@ -12643,7 +13257,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18">
+    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>266</v>
       </c>
@@ -12675,7 +13289,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18">
+    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
         <v>266</v>
       </c>
@@ -12707,7 +13321,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18">
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>561</v>
       </c>
@@ -12739,7 +13353,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="18">
+    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="F7">
         <v>2</v>
       </c>
@@ -12756,9 +13370,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18">
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E8" t="s">
         <v>266</v>
@@ -12767,15 +13381,15 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="18">
+    </row>
+    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E9" t="s">
         <v>266</v>
@@ -12790,9 +13404,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="18">
+    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E10" t="s">
         <v>266</v>
@@ -12801,33 +13415,33 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="I10" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>1368</v>
-      </c>
       <c r="M10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="N10" t="s">
         <v>1363</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="18">
+    </row>
+    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>102</v>
@@ -12836,27 +13450,27 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="18">
+    </row>
+    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E12" t="s">
         <v>266</v>
@@ -12865,36 +13479,36 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>766</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="18">
+    </row>
+    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E13" t="s">
         <v>266</v>
@@ -12903,25 +13517,25 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="M13" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="18">
+    </row>
+    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="E14" t="s">
         <v>266</v>
@@ -12930,33 +13544,33 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" t="s">
         <v>1013</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="18">
+    </row>
+    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>785</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -12965,18 +13579,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
+        <v>780</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="18">
+    </row>
+    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B16" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E16" t="s">
         <v>266</v>
@@ -12985,30 +13599,30 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="18">
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E17" t="s">
         <v>266</v>
@@ -13017,27 +13631,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>869</v>
-      </c>
       <c r="M17" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="18">
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E18" t="s">
         <v>266</v>
@@ -13046,30 +13660,30 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>875</v>
-      </c>
       <c r="M18" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="18">
+    </row>
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E19" t="s">
         <v>266</v>
@@ -13078,40 +13692,40 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="K19" t="s">
         <v>878</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="M19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="18">
+    </row>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D20" t="s">
         <v>1463</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1464</v>
       </c>
       <c r="E20" t="s">
         <v>266</v>
@@ -13120,33 +13734,33 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18">
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E21" t="s">
         <v>266</v>
@@ -13155,62 +13769,62 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="M21" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="18">
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E22" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="18">
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E23" t="s">
         <v>266</v>
@@ -13219,27 +13833,27 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>1129</v>
-      </c>
       <c r="M23" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="18">
+    </row>
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E24" t="s">
         <v>266</v>
@@ -13248,65 +13862,65 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>1137</v>
-      </c>
       <c r="I24" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="18">
+    </row>
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C25" t="s">
         <v>1481</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>1482</v>
       </c>
-      <c r="D25" t="s">
-        <v>1483</v>
-      </c>
       <c r="E25" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="18">
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E26" t="s">
         <v>266</v>
@@ -13315,27 +13929,27 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>1172</v>
-      </c>
       <c r="M26" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="18">
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
@@ -13344,44 +13958,44 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="18">
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C28" t="s">
         <v>1596</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1597</v>
       </c>
-      <c r="D28" t="s">
-        <v>1598</v>
-      </c>
       <c r="E28" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="18">
+    </row>
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C29" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D29" t="s">
         <v>1605</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1606</v>
       </c>
       <c r="E29" t="s">
         <v>266</v>
@@ -13390,22 +14004,51 @@
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>1603</v>
+    </row>
+    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
@@ -13430,13 +14073,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AE78"/>
+  <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.44140625" customWidth="1"/>
     <col min="2" max="2" width="9.109375" customWidth="1"/>
@@ -13444,68 +14087,69 @@
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="15"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
-    </row>
-    <row r="2" spans="1:31" ht="18">
+      <c r="AE1" s="21"/>
+    </row>
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -13582,7 +14226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18">
+    <row r="3" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E3" t="s">
         <v>266</v>
       </c>
@@ -13590,30 +14234,30 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>1645</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1646</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>1652</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>1661</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1662</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="6"/>
@@ -13622,24 +14266,24 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="15" t="s">
+        <v>1663</v>
+      </c>
+      <c r="Y3" s="15" t="s">
         <v>1664</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Z3" s="15" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AA3" s="15" t="s">
         <v>1665</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>1663</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>1666</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
     </row>
-    <row r="4" spans="1:31" ht="18">
+    <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E4" s="1" t="s">
         <v>102</v>
       </c>
@@ -13647,34 +14291,34 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>1650</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>1657</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1658</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="6"/>
@@ -13692,9 +14336,9 @@
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
     </row>
-    <row r="5" spans="1:31" ht="18">
+    <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E5" t="s">
         <v>266</v>
@@ -13774,12 +14418,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18">
+    <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E6" t="s">
         <v>266</v>
@@ -13788,20 +14432,20 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -13821,10 +14465,10 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="18">
+    <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E7" t="s">
         <v>266</v>
@@ -13833,10 +14477,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1112</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -13862,49 +14506,49 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="18">
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>1610</v>
-      </c>
       <c r="I8" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>1619</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>1620</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -13917,18 +14561,18 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>1621</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>1622</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="18">
+    <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E9" t="s">
         <v>266</v>
@@ -13947,10 +14591,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -13970,12 +14614,12 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="18">
+    <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E10" t="s">
         <v>266</v>
@@ -13984,20 +14628,20 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -14017,12 +14661,12 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="18">
+    <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B11" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E11" t="s">
         <v>266</v>
@@ -14031,20 +14675,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -14064,9 +14708,9 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="18">
+    <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>532</v>
@@ -14109,9 +14753,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="18">
+    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E13" t="s">
         <v>266</v>
@@ -14150,7 +14794,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="18">
+    <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>266</v>
       </c>
@@ -14161,7 +14805,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18">
+    <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>266</v>
       </c>
@@ -14172,7 +14816,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="18">
+    <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>266</v>
       </c>
@@ -14180,14 +14824,14 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:16" ht="18">
+    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>266</v>
       </c>
@@ -14195,13 +14839,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="18">
+    </row>
+    <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>518</v>
       </c>
@@ -14246,7 +14890,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="18">
+    <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>519</v>
       </c>
@@ -14288,9 +14932,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="18">
+    <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>564</v>
@@ -14321,9 +14965,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="18">
+    <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>266</v>
@@ -14362,9 +15006,9 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="18">
+    <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>266</v>
@@ -14373,10 +15017,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -14387,9 +15031,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="2:16" ht="18">
+    <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>266</v>
@@ -14398,10 +15042,10 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -14412,7 +15056,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="18">
+    <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>266</v>
       </c>
@@ -14420,10 +15064,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -14434,7 +15078,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="2:16" ht="18">
+    <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>646</v>
       </c>
@@ -14479,9 +15123,9 @@
         <v>653</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="18">
+    <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>266</v>
@@ -14490,27 +15134,27 @@
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="M26" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="18">
+    </row>
+    <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>266</v>
@@ -14519,27 +15163,27 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="18">
+    </row>
+    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>266</v>
@@ -14548,27 +15192,27 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M28" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="18">
+    </row>
+    <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>266</v>
@@ -14583,21 +15227,21 @@
         <v>25</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="18">
+    </row>
+    <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>266</v>
@@ -14609,30 +15253,30 @@
         <v>35</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>1422</v>
-      </c>
       <c r="O30" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="18">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>266</v>
@@ -14647,49 +15291,49 @@
         <v>36</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="18">
+    </row>
+    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="18">
+    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="18">
+    </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>266</v>
@@ -14698,13 +15342,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="18">
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E35" s="1" t="s">
         <v>266</v>
       </c>
@@ -14712,30 +15356,30 @@
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="18">
+    </row>
+    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>266</v>
@@ -14744,30 +15388,30 @@
         <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="M36" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
         <v>711</v>
       </c>
-      <c r="M36" t="s">
-        <v>1583</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>1585</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="18">
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
@@ -14783,12 +15427,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18">
+    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
@@ -14798,25 +15442,25 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M38" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="18">
+    </row>
+    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
@@ -14826,15 +15470,15 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="18">
+    </row>
+    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>266</v>
@@ -14843,54 +15487,54 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="N40" t="s">
+        <v>1571</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="18">
+    </row>
+    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N41" t="s">
         <v>1571</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18">
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>266</v>
@@ -14899,30 +15543,30 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>731</v>
-      </c>
       <c r="M42" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N42" t="s">
+        <v>1571</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="O42" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="18">
+    </row>
+    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>266</v>
@@ -14931,18 +15575,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18">
+    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>266</v>
@@ -14951,24 +15595,24 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="18">
+    </row>
+    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B45" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D45" t="s">
         <v>853</v>
-      </c>
-      <c r="D45" t="s">
-        <v>854</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>266</v>
@@ -14977,33 +15621,33 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M45" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="18">
+    </row>
+    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
+        <v>808</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>810</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>266</v>
@@ -15012,18 +15656,18 @@
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18">
+    </row>
+    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B47" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>266</v>
@@ -15032,28 +15676,28 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>833</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18">
+    </row>
+    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>266</v>
@@ -15062,30 +15706,30 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>1556</v>
-      </c>
       <c r="O48" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="18">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>266</v>
@@ -15094,34 +15738,34 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>841</v>
-      </c>
       <c r="M49" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="18">
+    </row>
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" t="s">
         <v>1009</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1010</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>266</v>
@@ -15130,24 +15774,24 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="18">
+    </row>
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B51" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C51" t="s">
+        <v>863</v>
+      </c>
+      <c r="D51" t="s">
         <v>864</v>
-      </c>
-      <c r="D51" t="s">
-        <v>865</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>266</v>
@@ -15156,18 +15800,18 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="18">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>266</v>
@@ -15176,36 +15820,36 @@
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="O52" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P52" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="18">
+    </row>
+    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B53" t="s">
+        <v>955</v>
+      </c>
+      <c r="C53" t="s">
         <v>956</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>957</v>
-      </c>
-      <c r="D53" t="s">
-        <v>958</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>266</v>
@@ -15214,19 +15858,19 @@
         <v>2</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="18">
+    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B54" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>266</v>
@@ -15235,36 +15879,36 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>916</v>
-      </c>
       <c r="M54" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="18">
+    </row>
+    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B55" t="s">
+        <v>950</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" t="s">
         <v>952</v>
-      </c>
-      <c r="D55" t="s">
-        <v>953</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>266</v>
@@ -15273,36 +15917,36 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>950</v>
-      </c>
       <c r="M55" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="18">
+    </row>
+    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B56" t="s">
+        <v>922</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" t="s">
         <v>924</v>
-      </c>
-      <c r="D56" t="s">
-        <v>925</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>266</v>
@@ -15311,36 +15955,36 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="O56" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="P56" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="18">
+    </row>
+    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>266</v>
@@ -15349,28 +15993,28 @@
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" ht="18">
+    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B58" t="s">
+        <v>946</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D58" t="s">
         <v>947</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="D58" t="s">
-        <v>948</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>266</v>
@@ -15379,28 +16023,28 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" ht="18">
+    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B59" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>266</v>
@@ -15409,27 +16053,27 @@
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>942</v>
-      </c>
       <c r="M59" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="18">
+    </row>
+    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B60" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>266</v>
@@ -15438,13 +16082,13 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="18">
+    </row>
+    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B61" s="12"/>
       <c r="E61" s="1" t="s">
         <v>266</v>
@@ -15453,24 +16097,24 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="18">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B62" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D62" t="s">
         <v>1085</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1086</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>266</v>
@@ -15479,13 +16123,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="18">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>266</v>
       </c>
@@ -15493,15 +16137,15 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="18">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>266</v>
@@ -15510,15 +16154,15 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" ht="18">
+    </row>
+    <row r="65" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>266</v>
@@ -15527,15 +16171,15 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" s="13" customFormat="1" ht="18">
+    </row>
+    <row r="66" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
       <c r="B66" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>266</v>
@@ -15544,15 +16188,15 @@
         <v>2</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H66" s="10" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
         <v>1106</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" ht="18">
-      <c r="B67" t="s">
-        <v>1107</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>266</v>
@@ -15561,15 +16205,15 @@
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" ht="18">
+    </row>
+    <row r="68" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>266</v>
@@ -15578,27 +16222,27 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="M68" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="O68" s="1" t="s">
+      <c r="P68" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" ht="18">
+    </row>
+    <row r="69" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>266</v>
@@ -15607,27 +16251,27 @@
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>1109</v>
-      </c>
       <c r="M69" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" ht="18">
+    </row>
+    <row r="70" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E70" t="s">
         <v>266</v>
@@ -15636,15 +16280,15 @@
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:16" ht="18">
+    <row r="71" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E71" t="s">
         <v>266</v>
@@ -15653,33 +16297,33 @@
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M71" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="N71" t="s">
         <v>1543</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>1544</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="18">
+    </row>
+    <row r="72" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" t="s">
         <v>1166</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1167</v>
       </c>
       <c r="E72" t="s">
         <v>266</v>
@@ -15688,30 +16332,33 @@
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" ht="18">
+    </row>
+    <row r="73" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" ht="18">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>1727</v>
+      </c>
       <c r="E74" t="s">
         <v>266</v>
       </c>
@@ -15719,27 +16366,27 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>1426</v>
-      </c>
       <c r="M74" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N74" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="P74" s="1" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" ht="18">
+    </row>
+    <row r="75" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E75" t="s">
         <v>266</v>
@@ -15748,15 +16395,15 @@
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="18">
+    </row>
+    <row r="76" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E76" t="s">
         <v>266</v>
@@ -15765,27 +16412,27 @@
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>1488</v>
-      </c>
       <c r="M76" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N76" t="s">
         <v>1490</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>1491</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="P76" s="1" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" ht="18">
+    </row>
+    <row r="77" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E77" t="s">
         <v>266</v>
@@ -15794,30 +16441,33 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>1537</v>
-      </c>
       <c r="M77" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="N77" t="s">
         <v>1539</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P77" t="s">
         <v>1540</v>
       </c>
-      <c r="O77" t="s">
-        <v>1542</v>
-      </c>
-      <c r="P77" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" ht="18">
+    </row>
+    <row r="78" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>1721</v>
+      </c>
       <c r="C78" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D78" t="s">
         <v>1637</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1638</v>
       </c>
       <c r="E78" t="s">
         <v>266</v>
@@ -15826,10 +16476,89 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>1636</v>
+      <c r="M78" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E79" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E80" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
@@ -15856,76 +16585,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E497C29F-2DD4-4D7F-BC31-0B9FB72F4C71}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18">
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="19"/>
-    </row>
-    <row r="2" spans="1:32" ht="18">
+      <c r="AF1" s="21"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -16005,18 +16734,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18">
+    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>1026</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1027</v>
       </c>
       <c r="E3" t="s">
         <v>266</v>
@@ -16025,31 +16754,31 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -16083,18 +16812,18 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18">
+    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C4" t="s">
         <v>1069</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1070</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1071</v>
       </c>
       <c r="E4" t="s">
         <v>266</v>
@@ -16103,48 +16832,51 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="18">
+    </row>
+    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>1771</v>
+      </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>1525</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>1526</v>
       </c>
     </row>
   </sheetData>
@@ -16175,73 +16907,73 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18">
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="19"/>
-    </row>
-    <row r="2" spans="1:32" ht="18">
+      <c r="AF1" s="21"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
@@ -16321,18 +17053,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18">
+    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E3" t="s">
         <v>266</v>
@@ -16341,42 +17073,42 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="18">
+    </row>
+    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>1643</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1644</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>102</v>
@@ -16385,10 +17117,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>1639</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1640</v>
       </c>
     </row>
   </sheetData>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522E8CF-AA50-460E-8924-A923E51D3E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B5EEB-8B36-452D-8593-F18590C385BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
     <sheet name="人自己" sheetId="5" r:id="rId2"/>
     <sheet name="物自己" sheetId="7" r:id="rId3"/>
     <sheet name="人→人" sheetId="9" r:id="rId4"/>
-    <sheet name="人→物" sheetId="4" r:id="rId5"/>
-    <sheet name="物→人" sheetId="10" r:id="rId6"/>
+    <sheet name="物→人" sheetId="10" r:id="rId5"/>
+    <sheet name="人→物" sheetId="4" r:id="rId6"/>
     <sheet name="物→物" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1821">
   <si>
     <t>開ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7373,25 +7373,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>依靠别人并不是什么坏事。有问题的话也可以来找我，不用客气哦。</t>
+  </si>
+  <si>
+    <t>依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この両手は光を抱ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这双手能够拥抱光明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載せて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のせて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載せた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のせた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗せて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乗せた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そなわる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備わります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そなわります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備わらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そなわらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備わって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そなわって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備わった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そなわった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あの世界の生物の退屈さは不明だが、世界観は各人に必然的に備わるものである</t>
+  </si>
+  <si>
+    <t>那个世界的生物是否感到无聊尚不得知，但世界观却是每个人与生俱来的东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>人に頼ることは悪いことじゃないんだから。私にも遠慮しないでね。</t>
-  </si>
-  <si>
-    <t>依靠别人并不是什么坏事。有问题的话也可以来找我，不用客气哦。</t>
-  </si>
-  <si>
-    <t>依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>この両手は光を抱ける</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这双手能够拥抱光明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生い茂る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おいしげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生い茂った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生い茂って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おいしげって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春には柳が生い茂り、桃の花が咲きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春天柳树生长，桃花开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡くなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なくなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡くなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡くならない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なくならない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なくなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡くなって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なくなって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無くなった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なくなった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無くなって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡くなった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無くなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無くなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無くならない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注入，刺入，照射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差し込む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さしこむ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差し込んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さしこんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差し込んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さしこんだ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7399,7 +7595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7549,6 +7745,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7570,7 +7773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7597,6 +7800,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7898,7 +8102,7 @@
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A11" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7943,76 +8147,76 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="16" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="17"/>
+      <c r="X1" s="18"/>
       <c r="Y1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21" t="s">
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="21"/>
+      <c r="AM1" s="22"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -9502,10 +9706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="D67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9522,57 +9726,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="21"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -9652,37 +9856,79 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1788</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>141</v>
+        <v>1777</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>142</v>
+        <v>1778</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1779</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>410</v>
-      </c>
+        <v>1780</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
     </row>
     <row r="4" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>408</v>
+        <v>141</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>409</v>
+        <v>142</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -9693,16 +9939,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>408</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -9712,59 +9955,38 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>1694</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1680</v>
+      <c r="G7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>1689</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>102</v>
@@ -9773,37 +9995,40 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>1695</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>102</v>
       </c>
@@ -9811,22 +10036,37 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>1690</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>1691</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>414</v>
+        <v>1693</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>415</v>
+        <v>1692</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>818</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>102</v>
       </c>
@@ -9834,25 +10074,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>465</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>466</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>819</v>
+        <v>414</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>822</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>818</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>102</v>
       </c>
@@ -9860,34 +10097,22 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>419</v>
+        <v>819</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>420</v>
+        <v>820</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>418</v>
+        <v>821</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>478</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -9895,31 +10120,37 @@
         <v>102</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>8</v>
+        <v>417</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M12" t="s">
-        <v>479</v>
+        <v>421</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -9927,37 +10158,31 @@
         <v>102</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>469</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>472</v>
+        <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
+      </c>
+      <c r="M13" t="s">
+        <v>479</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -9968,34 +10193,34 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>470</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>544</v>
+        <v>483</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>546</v>
+        <v>485</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -10006,25 +10231,31 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>537</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>542</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>545</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>548</v>
@@ -10032,112 +10263,121 @@
     </row>
     <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>558</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M16" t="s">
-        <v>551</v>
+        <v>542</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>28</v>
+        <v>549</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="M17" t="s">
+        <v>551</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>849</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>833</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>1196</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>1134</v>
+        <v>850</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>102</v>
@@ -10146,21 +10386,21 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1132</v>
+        <v>847</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1133</v>
+        <v>848</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>102</v>
@@ -10169,13 +10409,22 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>602</v>
+        <v>1133</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>1154</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
@@ -10183,34 +10432,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>601</v>
+        <v>1153</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>616</v>
-      </c>
     </row>
     <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>607</v>
-      </c>
       <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
@@ -10218,25 +10446,25 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>611</v>
+      <c r="I23" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>613</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>616</v>
@@ -10244,61 +10472,77 @@
     </row>
     <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>855</v>
-      </c>
-      <c r="C24" t="s">
-        <v>858</v>
-      </c>
-      <c r="D24" t="s">
-        <v>857</v>
+        <v>607</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>854</v>
+        <v>606</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+        <v>602</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="M24" s="1" t="s">
-        <v>1201</v>
+        <v>605</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>1202</v>
+        <v>613</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1203</v>
+        <v>615</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>1204</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>855</v>
+      </c>
+      <c r="C25" t="s">
+        <v>858</v>
+      </c>
+      <c r="D25" t="s">
+        <v>857</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>43</v>
+        <v>854</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>856</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>102</v>
       </c>
@@ -10306,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>603</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>42</v>
@@ -10314,42 +10558,32 @@
     </row>
     <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>1446</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1438</v>
+        <v>603</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>1443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>692</v>
+      <c r="B28" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1446</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>102</v>
@@ -10358,44 +10592,56 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>691</v>
+        <v>1438</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>690</v>
+        <v>1439</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1205</v>
+        <v>1440</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>1206</v>
+        <v>1441</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>1208</v>
+        <v>1442</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>1207</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>721</v>
+        <v>102</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>724</v>
+        <v>690</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>721</v>
@@ -10404,73 +10650,71 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>736</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>851</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="H32" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>749</v>
+        <v>734</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -10481,27 +10725,15 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>748</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>1214</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
-        <v>907</v>
+        <v>752</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -10512,27 +10744,27 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>905</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>906</v>
+        <v>31</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
-        <v>772</v>
+        <v>907</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -10540,33 +10772,30 @@
         <v>737</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>770</v>
+        <v>905</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>771</v>
+        <v>906</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -10574,16 +10803,31 @@
         <v>737</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>50</v>
+        <v>770</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>51</v>
+        <v>771</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>882</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>776</v>
       </c>
@@ -10596,19 +10840,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B39" s="2" t="s">
         <v>776</v>
       </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
         <v>737</v>
       </c>
@@ -10616,85 +10859,71 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>881</v>
+        <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>882</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1194</v>
+        <v>776</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>266</v>
+        <v>737</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1190</v>
+        <v>881</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>1226</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>865</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+        <v>1192</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1194</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>737</v>
+        <v>266</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>802</v>
+        <v>1190</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>803</v>
+        <v>1191</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>802</v>
+      <c r="A42" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>804</v>
@@ -10708,27 +10937,30 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>865</v>
+        <v>802</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1231</v>
+        <v>803</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>1227</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>802</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>1102</v>
+        <v>804</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -10739,30 +10971,27 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1100</v>
+        <v>865</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>1235</v>
+        <v>866</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1231</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>802</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>1037</v>
+        <v>1102</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -10773,40 +11002,33 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1036</v>
+        <v>1100</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1040</v>
+        <v>1101</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>1041</v>
+        <v>1235</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>1042</v>
+        <v>1236</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1043</v>
+        <v>1237</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>1044</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>802</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>938</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="1" t="s">
         <v>737</v>
       </c>
@@ -10814,91 +11036,98 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>934</v>
+        <v>1036</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>935</v>
+        <v>1038</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1040</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1239</v>
+        <v>1041</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>1240</v>
+        <v>1042</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>1245</v>
+        <v>1043</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1246</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
+        <v>936</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>938</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1452</v>
+        <v>934</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+        <v>935</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B47" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>1456</v>
-      </c>
+        <v>1454</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>829</v>
+        <v>1452</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>1244</v>
-      </c>
+        <v>1453</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="B48" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+        <v>1455</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1456</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>737</v>
       </c>
@@ -10906,71 +11135,70 @@
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1149</v>
+        <v>829</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1150</v>
+        <v>830</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="H49" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>997</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>917</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>266</v>
@@ -10979,21 +11207,33 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>964</v>
+        <v>995</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>917</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>913</v>
+        <v>962</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1183</v>
+        <v>963</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>266</v>
@@ -11002,33 +11242,21 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>911</v>
+        <v>965</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>1257</v>
+        <v>964</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" s="2" t="s">
-        <v>1071</v>
+        <v>913</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1072</v>
+        <v>1182</v>
       </c>
       <c r="D52" t="s">
-        <v>1073</v>
+        <v>1183</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>266</v>
@@ -11037,71 +11265,77 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>47</v>
+        <v>911</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>48</v>
+        <v>912</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>1607</v>
+        <v>1071</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1073</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1122</v>
+        <v>47</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>1261</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>1143</v>
+      <c r="A54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1607</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>737</v>
+        <v>266</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>497</v>
+        <v>1122</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>498</v>
+        <v>1123</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -11115,108 +11349,108 @@
         <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>498</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>1161</v>
-      </c>
       <c r="B56" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1497</v>
+        <v>1143</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1494</v>
+        <v>499</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1493</v>
+        <v>498</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>1161</v>
+      </c>
       <c r="B57" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1501</v>
+        <v>1496</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1497</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57" t="s">
-        <v>1498</v>
+      <c r="G57" s="1" t="s">
+        <v>1494</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>1627</v>
+        <v>1508</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1510</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>737</v>
@@ -11224,28 +11458,28 @@
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" s="14" t="s">
-        <v>1625</v>
+      <c r="G59" t="s">
+        <v>1502</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1626</v>
+        <v>1503</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>1732</v>
+        <v>1504</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1733</v>
+        <v>1505</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>1734</v>
+        <v>1506</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1735</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>737</v>
@@ -11253,16 +11487,28 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
-        <v>1629</v>
+      <c r="G60" s="14" t="s">
+        <v>1625</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1630</v>
+        <v>1626</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>737</v>
@@ -11270,81 +11516,69 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>1631</v>
+      <c r="G61" t="s">
+        <v>1629</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>1739</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>1744</v>
+        <v>1633</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1730</v>
+        <v>1631</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1731</v>
+        <v>1632</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1745</v>
+        <v>1730</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -11358,19 +11592,19 @@
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>1751</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>1754</v>
@@ -11378,7 +11612,7 @@
     </row>
     <row r="65" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>737</v>
@@ -11387,21 +11621,50 @@
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>1755</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -11427,15 +11690,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AE51"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="6" width="37" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -11449,57 +11713,57 @@
         <v>467</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="21"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -12548,10 +12812,10 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="16" t="s">
         <v>909</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="16" t="s">
         <v>910</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -12589,10 +12853,10 @@
       <c r="F35" t="s">
         <v>1004</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="16" t="s">
         <v>1002</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="16" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -12616,10 +12880,10 @@
     </row>
     <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="16" t="s">
         <v>1702</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="16" t="s">
         <v>1703</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -12654,10 +12918,10 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="16" t="s">
         <v>917</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="16" t="s">
         <v>918</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -12854,99 +13118,105 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>1148</v>
-      </c>
       <c r="B45" t="s">
-        <v>1147</v>
+        <v>1814</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1144</v>
+        <v>102</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1145</v>
+        <v>1815</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>1353</v>
+        <v>1816</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>1354</v>
+        <v>1817</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1818</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>1355</v>
+        <v>1819</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1355</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>1148</v>
+      </c>
       <c r="B46" t="s">
-        <v>1181</v>
+        <v>1147</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
+        <v>1144</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1179</v>
+        <v>1145</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1356</v>
+        <v>1146</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>1353</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>1451</v>
+        <v>1181</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1450</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>1447</v>
+        <v>1179</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1448</v>
+        <v>1180</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12959,104 +13229,238 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>1460</v>
+      <c r="E48" s="1" t="s">
+        <v>1449</v>
       </c>
       <c r="F48" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>1511</v>
+        <v>1451</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
+      <c r="E49" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1461</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>1512</v>
+        <v>1458</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1514</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>1519</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>1529</v>
+        <v>1511</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1144</v>
+        <v>102</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1530</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1527</v>
+        <v>1513</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1517</v>
       </c>
       <c r="M50" t="s">
-        <v>1531</v>
+        <v>1514</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>1532</v>
+        <v>1515</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>1624</v>
+        <v>1529</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>102</v>
+        <v>1144</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
+      <c r="E51" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
         <v>1622</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>1623</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -13083,8 +13487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13096,57 +13500,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="21"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14024,13 +14428,13 @@
     </row>
     <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D30" t="s">
         <v>1766</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1767</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>1144</v>
@@ -14072,11 +14476,329 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E497C29F-2DD4-4D7F-BC31-0B9FB72F4C71}">
+  <dimension ref="A1:AF5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="22"/>
+    </row>
+    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
   <dimension ref="A1:AE80"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14097,57 +14819,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="17"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21" t="s">
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="21"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -15051,10 +15773,18 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>1774</v>
+      </c>
     </row>
     <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
@@ -15071,12 +15801,18 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>1774</v>
+      </c>
     </row>
     <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
@@ -16499,10 +17235,10 @@
         <v>1720</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D79" t="s">
         <v>1769</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1770</v>
       </c>
       <c r="E79" t="s">
         <v>266</v>
@@ -16581,335 +17317,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E497C29F-2DD4-4D7F-BC31-0B9FB72F4C71}">
-  <dimension ref="A1:AF5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="E1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="21"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D554C641-9F03-4D5E-8ADA-FF43FCAE20C3}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16920,58 +17338,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="20"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="19" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="16" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="22"/>
+      <c r="W1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="21"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0B5EEB-8B36-452D-8593-F18590C385BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878CE728-E235-4B61-B8A7-11F0B9C03148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1863">
   <si>
     <t>開ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7588,6 +7588,174 @@
   </si>
   <si>
     <t>さしこんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襟を折る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领子折起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折れります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おれります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折れない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おれない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折れて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折れた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おれた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襟が折れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押さない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おさない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按，推，压倒，印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慌てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわてる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慌てて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわてて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慌てた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あわてた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そんなに慌てるだよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别那么紧张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慌张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お腹が空いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚子饿了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7773,7 +7941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7797,10 +7965,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7810,14 +7984,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8147,76 +8318,76 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="21"/>
+      <c r="Q1" s="18"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="17" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="18"/>
+      <c r="X1" s="20"/>
       <c r="Y1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="22"/>
+      <c r="AM1" s="16"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -9683,6 +9854,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -9692,12 +9869,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9706,10 +9877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AE66"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView topLeftCell="D48" workbookViewId="0">
-      <selection activeCell="D67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9726,57 +9897,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="22"/>
+      <c r="AE1" s="16"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -11643,6 +11814,12 @@
       <c r="B66" t="s">
         <v>1756</v>
       </c>
+      <c r="C66" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1862</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>737</v>
       </c>
@@ -11668,8 +11845,48 @@
         <v>1760</v>
       </c>
     </row>
+    <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -11677,11 +11894,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11692,8 +11904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
   <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="B1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11713,57 +11925,57 @@
         <v>467</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="22"/>
+      <c r="AE1" s="16"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -12812,10 +13024,10 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>910</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -12853,10 +13065,10 @@
       <c r="F35" t="s">
         <v>1004</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>1002</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -12880,10 +13092,10 @@
     </row>
     <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>1702</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="15" t="s">
         <v>1703</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -12918,10 +13130,10 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>918</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -13465,6 +13677,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -13472,11 +13689,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13500,57 +13712,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="22"/>
+      <c r="AE1" s="16"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14457,6 +14669,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -14464,11 +14681,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14495,58 +14707,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22" t="s">
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22" t="s">
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="22"/>
+      <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14795,10 +15007,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AE80"/>
+  <dimension ref="A1:AE83"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14819,57 +15031,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="22"/>
+      <c r="AE1" s="16"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14988,16 +15200,16 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="22" t="s">
         <v>1663</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="22" t="s">
         <v>1664</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="22" t="s">
         <v>1662</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="22" t="s">
         <v>1665</v>
       </c>
       <c r="AB3" s="6"/>
@@ -15049,10 +15261,10 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -15060,92 +15272,77 @@
     </row>
     <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>971</v>
+        <v>1851</v>
       </c>
       <c r="E5" t="s">
         <v>266</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>0</v>
+        <v>1837</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1</v>
+        <v>1838</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>387</v>
+        <v>1843</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>388</v>
+        <v>1844</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>389</v>
+        <v>1845</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>390</v>
+        <v>1846</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>391</v>
+        <v>1847</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>392</v>
+        <v>1848</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>393</v>
+        <v>1849</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>405</v>
-      </c>
+        <v>1850</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="22" t="s">
+        <v>1841</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>1842</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>851</v>
-      </c>
       <c r="B6" t="s">
-        <v>885</v>
+        <v>1827</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1826</v>
       </c>
       <c r="E6" t="s">
         <v>266</v>
@@ -15154,147 +15351,201 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>883</v>
+        <v>719</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>718</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1822</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>903</v>
+        <v>1578</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+        <v>1579</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1581</v>
+      </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="22" t="s">
+        <v>1823</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>1824</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
     </row>
     <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E7" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>971</v>
+      </c>
+      <c r="E8" t="s">
         <v>266</v>
       </c>
-      <c r="F7">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>1611</v>
+        <v>387</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1612</v>
+        <v>388</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1613</v>
+        <v>389</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1614</v>
+        <v>390</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1615</v>
+        <v>391</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1616</v>
+        <v>392</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1617</v>
+        <v>393</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1618</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="AB8" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+        <v>402</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>851</v>
+      </c>
       <c r="B9" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="E9" t="s">
         <v>266</v>
@@ -15302,21 +15553,21 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
+      <c r="G9" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>884</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -15337,34 +15588,28 @@
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>891</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>895</v>
+        <v>1112</v>
       </c>
       <c r="E10" t="s">
         <v>266</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>892</v>
+        <v>1110</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>893</v>
+        <v>1111</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>901</v>
-      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -15384,37 +15629,49 @@
       <c r="AE10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>892</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>896</v>
-      </c>
-      <c r="E11" t="s">
-        <v>266</v>
+        <v>1610</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1144</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>891</v>
+        <v>1608</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+        <v>1609</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1614</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>902</v>
+        <v>1615</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+        <v>1616</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1619</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -15425,133 +15682,239 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="8"/>
+      <c r="AB11" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>1621</v>
+      </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>972</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>897</v>
+      </c>
       <c r="E12" t="s">
         <v>266</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>406</v>
+      <c r="G12" t="s">
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="K12" t="s">
-        <v>530</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>531</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>437</v>
+        <v>898</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>440</v>
-      </c>
+        <v>899</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
     </row>
     <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>891</v>
+      </c>
       <c r="B13" t="s">
-        <v>973</v>
+        <v>895</v>
       </c>
       <c r="E13" t="s">
         <v>266</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>424</v>
+        <v>892</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>430</v>
-      </c>
+        <v>893</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>431</v>
+        <v>900</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>434</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="E14" s="1" t="s">
+      <c r="A14" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B14" t="s">
+        <v>896</v>
+      </c>
+      <c r="E14" t="s">
         <v>266</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="E15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>972</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
         <v>266</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>426</v>
+        <v>406</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K15" t="s">
+        <v>530</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="E16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>973</v>
+      </c>
+      <c r="E16" t="s">
         <v>266</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1088</v>
+        <v>424</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
@@ -15561,65 +15924,21 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>1090</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>518</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>536</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>266</v>
       </c>
@@ -15627,111 +15946,80 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>517</v>
+        <v>1088</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>739</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>562</v>
+        <v>1089</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>568</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>738</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
         <v>266</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>591</v>
+        <v>516</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>592</v>
+        <v>520</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>599</v>
+        <v>526</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>593</v>
+        <v>527</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>595</v>
+        <v>523</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>597</v>
+        <v>533</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>598</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>738</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>266</v>
       </c>
@@ -15739,129 +16027,135 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>742</v>
+        <v>517</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+        <v>520</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="23" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
         <v>266</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1096</v>
+        <v>562</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>1774</v>
+        <v>563</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>738</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1099</v>
+        <v>591</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+        <v>592</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="M24" s="1" t="s">
-        <v>1771</v>
+        <v>595</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>1772</v>
+        <v>596</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1773</v>
+        <v>597</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>1774</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>646</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" t="s">
+        <v>738</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>617</v>
+        <v>742</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>653</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>740</v>
+        <v>1098</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>266</v>
@@ -15870,28 +16164,29 @@
         <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>683</v>
+        <v>1096</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>684</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>1416</v>
+        <v>1775</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>1417</v>
+        <v>1772</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1418</v>
+        <v>1776</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>1419</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>741</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>266</v>
       </c>
@@ -15899,177 +16194,225 @@
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>685</v>
+        <v>1099</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>693</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>1412</v>
+        <v>1771</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>1415</v>
+        <v>1772</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1414</v>
+        <v>1773</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>1413</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>974</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
         <v>266</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>686</v>
+        <v>617</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>694</v>
+        <v>618</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1408</v>
+        <v>651</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>1409</v>
+        <v>654</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>1410</v>
+        <v>652</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>1411</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>975</v>
+        <v>740</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>24</v>
+        <v>683</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>25</v>
+        <v>684</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1589</v>
+        <v>1416</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>1590</v>
+        <v>1417</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>1591</v>
+        <v>1418</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1592</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>778</v>
+        <v>741</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>35</v>
+        <v>685</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>777</v>
+        <v>693</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1588</v>
+        <v>1414</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>1587</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C31" t="s">
-        <v>702</v>
-      </c>
-      <c r="D31" t="s">
-        <v>810</v>
+        <v>974</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>975</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>1592</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>976</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>699</v>
+        <v>778</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>695</v>
+        <v>35</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>698</v>
+        <v>777</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>977</v>
+        <v>779</v>
+      </c>
+      <c r="C34" t="s">
+        <v>702</v>
+      </c>
+      <c r="D34" t="s">
+        <v>810</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>266</v>
@@ -16078,127 +16421,102 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>700</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>701</v>
+        <v>36</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="E35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>708</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>978</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>266</v>
+        <v>976</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>699</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1582</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>1585</v>
+        <v>696</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>711</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>977</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2</v>
+        <v>700</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>3</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>979</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>1578</v>
+        <v>705</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>1579</v>
+        <v>706</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1580</v>
+        <v>707</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>1581</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" t="s">
+        <v>978</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>887</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>266</v>
       </c>
@@ -16206,103 +16524,97 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1005</v>
+        <v>709</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1006</v>
+        <v>710</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>980</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>728</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1571</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>1572</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>981</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>979</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1571</v>
+        <v>1578</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>1579</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>1572</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>982</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>729</v>
+        <v>1005</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1571</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>1572</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>983</v>
-      </c>
-      <c r="C43" t="s">
-        <v>757</v>
+        <v>980</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>266</v>
@@ -16311,44 +16623,54 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>38</v>
+        <v>730</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1571</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>846</v>
-      </c>
       <c r="B44" t="s">
-        <v>798</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>759</v>
+        <v>730</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1571</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>845</v>
-      </c>
       <c r="B45" t="s">
-        <v>797</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D45" t="s">
-        <v>853</v>
+        <v>982</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>266</v>
@@ -16357,83 +16679,76 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1566</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>1567</v>
+        <v>730</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1571</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>1568</v>
+        <v>1575</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>808</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>811</v>
+        <v>983</v>
+      </c>
+      <c r="C46" t="s">
+        <v>757</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>806</v>
+        <v>756</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>807</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="B47" t="s">
-        <v>970</v>
+        <v>798</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>831</v>
+        <v>758</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>1557</v>
+        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>845</v>
+      </c>
       <c r="B48" t="s">
-        <v>970</v>
+        <v>797</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D48" t="s">
+        <v>853</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>266</v>
@@ -16442,285 +16757,256 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1560</v>
+        <v>796</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>1554</v>
+        <v>795</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1566</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1559</v>
+        <v>1568</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>844</v>
-      </c>
       <c r="B49" t="s">
-        <v>838</v>
+        <v>808</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>811</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>839</v>
+        <v>806</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>1553</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>836</v>
+      </c>
       <c r="B50" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1009</v>
+        <v>970</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1005</v>
+        <v>831</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1006</v>
+        <v>832</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>861</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>860</v>
-      </c>
-      <c r="C51" t="s">
-        <v>863</v>
-      </c>
-      <c r="D51" t="s">
-        <v>864</v>
+        <v>970</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>859</v>
+        <v>1560</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>862</v>
+        <v>832</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>844</v>
       </c>
       <c r="B52" t="s">
-        <v>886</v>
+        <v>838</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>767</v>
+        <v>839</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>768</v>
+        <v>840</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>1362</v>
+        <v>1550</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>1364</v>
+        <v>1552</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>1365</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>921</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>955</v>
-      </c>
-      <c r="C53" t="s">
-        <v>956</v>
+        <v>1007</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1008</v>
       </c>
       <c r="D53" t="s">
-        <v>957</v>
+        <v>1009</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F53">
-        <v>2</v>
+      <c r="F53" s="11">
+        <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>953</v>
+        <v>1005</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="P53" s="1"/>
+        <v>1006</v>
+      </c>
     </row>
     <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>948</v>
+        <v>861</v>
       </c>
       <c r="B54" t="s">
-        <v>916</v>
+        <v>860</v>
+      </c>
+      <c r="C54" t="s">
+        <v>863</v>
+      </c>
+      <c r="D54" t="s">
+        <v>864</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>931</v>
+        <v>862</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>1086</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>950</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D55" t="s">
-        <v>952</v>
+        <v>886</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>948</v>
+        <v>767</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>949</v>
+        <v>768</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>1561</v>
+        <v>1362</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>1563</v>
+        <v>1364</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>1564</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>876</v>
+        <v>921</v>
       </c>
       <c r="B56" t="s">
-        <v>922</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>923</v>
+        <v>955</v>
+      </c>
+      <c r="C56" t="s">
+        <v>956</v>
       </c>
       <c r="D56" t="s">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>933</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>961</v>
+        <v>948</v>
+      </c>
+      <c r="B57" t="s">
+        <v>916</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>266</v>
@@ -16729,58 +17015,74 @@
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+        <v>915</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>921</v>
+        <v>1086</v>
       </c>
       <c r="B58" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="D58" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+        <v>949</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>1564</v>
+      </c>
     </row>
     <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="B59" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>942</v>
+        <v>923</v>
+      </c>
+      <c r="D59" t="s">
+        <v>924</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>266</v>
@@ -16789,43 +17091,67 @@
         <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>1546</v>
+        <v>926</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1547</v>
+        <v>927</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>1548</v>
+        <v>932</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1549</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B60" s="12" t="s">
-        <v>1080</v>
+      <c r="A60" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>961</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>969</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B61" s="12"/>
+      <c r="A61" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B61" t="s">
+        <v>946</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D61" t="s">
+        <v>947</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>266</v>
       </c>
@@ -16833,39 +17159,58 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>969</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
     </row>
     <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>921</v>
+        <v>867</v>
       </c>
       <c r="B62" t="s">
-        <v>1081</v>
+        <v>943</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1085</v>
+        <v>939</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>942</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1079</v>
+        <v>940</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1082</v>
+        <v>941</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
+        <v>1080</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>266</v>
       </c>
@@ -16873,16 +17218,14 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1083</v>
+        <v>968</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1082</v>
+        <v>969</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
-        <v>1095</v>
-      </c>
+      <c r="B64" s="12"/>
       <c r="E64" s="1" t="s">
         <v>266</v>
       </c>
@@ -16890,15 +17233,24 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1093</v>
+        <v>967</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1094</v>
+        <v>969</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>921</v>
+      </c>
       <c r="B65" t="s">
-        <v>1113</v>
+        <v>1081</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1085</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>266</v>
@@ -16907,32 +17259,29 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
-      <c r="B66" s="13" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E66" s="10" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="E66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66">
         <v>2</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>1105</v>
+      <c r="G66" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>266</v>
@@ -16941,15 +17290,15 @@
         <v>2</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>266</v>
@@ -16958,142 +17307,124 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E69" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
+      <c r="B69" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="13">
         <v>2</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>1433</v>
+      <c r="G69" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E70" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1156</v>
+        <v>1104</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>29</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E71" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1155</v>
+        <v>1116</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>29</v>
+        <v>1117</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N71" t="s">
-        <v>1543</v>
-      </c>
-      <c r="O71" t="s">
-        <v>1544</v>
+        <v>1427</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>1428</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1545</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E72" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1161</v>
+        <v>1107</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1162</v>
+        <v>1108</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
+      </c>
+      <c r="E73" t="s">
+        <v>266</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1163</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>1727</v>
+        <v>1157</v>
       </c>
       <c r="E74" t="s">
         <v>266</v>
@@ -17102,73 +17433,67 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1424</v>
+        <v>1155</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>1425</v>
+        <v>29</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>1436</v>
+        <v>1542</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1543</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1544</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1437</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>1485</v>
+        <v>1164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1166</v>
       </c>
       <c r="E75" t="s">
         <v>266</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1483</v>
+        <v>1161</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>1484</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E76" t="s">
-        <v>266</v>
+        <v>1160</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1159</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1486</v>
+        <v>1158</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N76" t="s">
-        <v>1490</v>
-      </c>
-      <c r="O76" t="s">
-        <v>1491</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>1492</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>1537</v>
+        <v>1727</v>
       </c>
       <c r="E77" t="s">
         <v>266</v>
@@ -17177,33 +17502,27 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1535</v>
+        <v>1424</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>1536</v>
+        <v>1425</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="N77" t="s">
-        <v>1539</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1541</v>
-      </c>
-      <c r="P77" t="s">
-        <v>1540</v>
+        <v>1434</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1637</v>
+        <v>1485</v>
       </c>
       <c r="E78" t="s">
         <v>266</v>
@@ -17212,33 +17531,15 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1634</v>
+        <v>1483</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>1713</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>1714</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1769</v>
+        <v>1488</v>
       </c>
       <c r="E79" t="s">
         <v>266</v>
@@ -17247,58 +17548,162 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1719</v>
+        <v>1486</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>1710</v>
+        <v>1487</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>1716</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>1717</v>
+        <v>1489</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1490</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1491</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1718</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>1646</v>
-      </c>
       <c r="B80" t="s">
-        <v>1724</v>
+        <v>1537</v>
       </c>
       <c r="E80" t="s">
         <v>266</v>
       </c>
       <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1539</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E81" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E82" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E83" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83">
         <v>2</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P83" s="1" t="s">
         <v>1729</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -17306,11 +17711,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17338,58 +17738,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22" t="s">
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22" t="s">
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="22"/>
+      <c r="AF1" s="16"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878CE728-E235-4B61-B8A7-11F0B9C03148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D32689-707D-4B29-A733-F2862C795B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="1863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1960">
   <si>
     <t>開ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5208,10 +5208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>まなんだ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>働いて</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7758,12 +7754,432 @@
     <t>肚子饿了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>予想が継がない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以捉摸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>継ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>継がない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つがない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>継いで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ついで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>継いだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ついだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承，接续，添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害羞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〃▽〃)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾎﾟｯ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆるす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原谅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許してください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请你原谅我吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆるします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆるして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆるした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手懐ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てなずける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手なずけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てなずけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手なずけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てなずけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿「さる」を手懐ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯服猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あやまります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おころ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振るう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颤抖，发抖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥动，发挥，盛行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剣をふるっている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振るって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振るった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まなんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>連れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子供を連れて海に行く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领着孩子去海边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照れる、連れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引诱，钓鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘言「かんげん」で人を釣る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用动听的话引诱人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縛り付ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しばりつける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しばりつけない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縛り付けない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縛り付けて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しばりつけて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しばりつけた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縛り付けた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国の制度が私に縛り付けている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捨てて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すてて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捨てた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すてた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扔垃圾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふさぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻塞，封闭，郁闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふさいだ顔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸色郁闷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞いだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふさいだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞いで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふさいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7920,6 +8336,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7941,7 +8363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7966,6 +8388,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7983,12 +8412,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8318,76 +8741,76 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="18"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="17" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="20"/>
+      <c r="X1" s="23"/>
       <c r="Y1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="16"/>
+      <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -9877,10 +10300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9897,57 +10320,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="16"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -10028,10 +10451,10 @@
     </row>
     <row r="3" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D3" t="s">
         <v>1787</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1788</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>102</v>
@@ -10040,34 +10463,34 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>1785</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1786</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="6"/>
@@ -10157,7 +10580,7 @@
     </row>
     <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>102</v>
@@ -10166,39 +10589,39 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>1688</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>102</v>
@@ -10207,34 +10630,34 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>1692</v>
-      </c>
       <c r="K9" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>1700</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -10748,13 +11171,13 @@
     </row>
     <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>1445</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>1446</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>102</v>
@@ -10763,22 +11186,22 @@
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>1442</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="18" x14ac:dyDescent="0.45">
@@ -11059,110 +11482,111 @@
     <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1194</v>
+        <v>1905</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1909</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>802</v>
+        <v>1902</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>803</v>
+        <v>1904</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>1227</v>
+        <v>1913</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1228</v>
+        <v>1914</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>1229</v>
+        <v>1915</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>1230</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>802</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>1192</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1194</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>737</v>
+        <v>266</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1231</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B44" s="2" t="s">
-        <v>1102</v>
+        <v>804</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -11173,30 +11597,30 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1100</v>
+        <v>802</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1101</v>
+        <v>803</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>802</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1037</v>
+        <v>804</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -11207,40 +11631,30 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1036</v>
+        <v>865</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>1041</v>
+        <v>866</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1230</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>1042</v>
+        <v>1233</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>1043</v>
+        <v>1231</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>1044</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B46" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>938</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
         <v>737</v>
       </c>
@@ -11248,186 +11662,203 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>934</v>
+        <v>1100</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>935</v>
+        <v>1101</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>802</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>1037</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1452</v>
+        <v>1036</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+        <v>1038</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B48" s="2" t="s">
-        <v>1455</v>
+        <v>936</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1457</v>
+        <v>937</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1456</v>
+        <v>938</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>829</v>
+        <v>934</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>830</v>
+        <v>935</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>1453</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
       <c r="E49" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M51" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="O49" s="1" t="s">
+      <c r="O51" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P51" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>997</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>917</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B52" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1183</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>266</v>
@@ -11436,33 +11867,33 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>911</v>
+        <v>994</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>912</v>
+        <v>995</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>917</v>
+      </c>
       <c r="B53" s="2" t="s">
-        <v>1071</v>
+        <v>962</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1073</v>
+        <v>963</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>266</v>
@@ -11471,157 +11902,172 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>47</v>
+        <v>965</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>48</v>
+        <v>964</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>1607</v>
+        <v>913</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1183</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1122</v>
+        <v>911</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1123</v>
+        <v>912</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>1143</v>
+      <c r="B55" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1073</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>737</v>
+        <v>266</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>497</v>
+        <v>47</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>1268</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>1143</v>
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1606</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>737</v>
+        <v>266</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>499</v>
+        <v>1122</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>498</v>
+        <v>1123</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>1161</v>
-      </c>
       <c r="B57" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1497</v>
+        <v>1143</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1494</v>
+        <v>497</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1493</v>
+        <v>498</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1501</v>
+        <v>1143</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1498</v>
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1499</v>
+        <v>498</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>1161</v>
+      </c>
       <c r="B59" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
       <c r="D59" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>737</v>
@@ -11629,57 +12075,42 @@
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
-        <v>1502</v>
+      <c r="G59" s="1" t="s">
+        <v>1493</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>1627</v>
+        <v>1499</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1500</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>1625</v>
+      <c r="G60" t="s">
+        <v>1497</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>1735</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>1628</v>
+        <v>1507</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1509</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>737</v>
@@ -11688,15 +12119,27 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>1629</v>
+        <v>1501</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1630</v>
+        <v>1502</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>737</v>
@@ -11704,57 +12147,45 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>1631</v>
+      <c r="G62" s="14" t="s">
+        <v>1624</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>1744</v>
+        <v>1627</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>1730</v>
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1628</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>1743</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>1748</v>
+        <v>1632</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>737</v>
@@ -11763,62 +12194,56 @@
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1745</v>
+        <v>1630</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1747</v>
+        <v>1631</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1746</v>
+        <v>1729</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1747</v>
+        <v>1730</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1862</v>
+        <v>1747</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>737</v>
@@ -11827,57 +12252,199 @@
         <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1761</v>
+        <v>1744</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1859</v>
+        <v>1747</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>737</v>
       </c>
       <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F69">
         <v>2</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G69" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>1856</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>1857</v>
+    </row>
+    <row r="70" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C72" t="s" ph="1">
+        <v>1954</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>1957</v>
       </c>
     </row>
   </sheetData>
@@ -11904,8 +12471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
   <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="B1:D19"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11925,57 +12492,57 @@
         <v>467</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="16"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -12112,10 +12679,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F5" t="s">
         <v>1678</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1679</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>487</v>
@@ -12151,52 +12718,52 @@
     <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="C6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H6" t="s">
         <v>1666</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>1670</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1671</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>493</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>495</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -12228,16 +12795,16 @@
         <v>506</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>1266</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="8" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -12266,16 +12833,16 @@
         <v>506</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>1265</v>
-      </c>
       <c r="O8" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="18" x14ac:dyDescent="0.45">
@@ -12408,10 +12975,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>1272</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -12476,10 +13043,10 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>1269</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>1270</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -12656,16 +13223,16 @@
         <v>1125</v>
       </c>
       <c r="M22" t="s">
+        <v>1272</v>
+      </c>
+      <c r="N22" t="s">
         <v>1273</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12690,16 +13257,16 @@
         <v>1131</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12722,16 +13289,16 @@
         <v>793</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12752,16 +13319,16 @@
         <v>1168</v>
       </c>
       <c r="M25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N25" t="s">
         <v>1285</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>1287</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12781,10 +13348,10 @@
         <v>800</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12804,22 +13371,22 @@
         <v>813</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>1296</v>
-      </c>
       <c r="M27" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>1293</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12845,22 +13412,22 @@
         <v>815</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12920,27 +13487,27 @@
         <v>1177</v>
       </c>
       <c r="K31" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>1306</v>
-      </c>
       <c r="M31" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>1304</v>
-      </c>
       <c r="O31" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>102</v>
@@ -12961,22 +13528,22 @@
         <v>1187</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -12996,22 +13563,22 @@
         <v>842</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>1320</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13031,22 +13598,22 @@
         <v>910</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13072,49 +13639,49 @@
         <v>44</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="G36" s="15" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>1702</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="K36" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>1708</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13137,22 +13704,22 @@
         <v>918</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>1338</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13232,10 +13799,10 @@
         <v>1058</v>
       </c>
       <c r="K41" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>1340</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13264,16 +13831,16 @@
         <v>1078</v>
       </c>
       <c r="M42" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13294,22 +13861,22 @@
         <v>1092</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="O43" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13331,7 +13898,7 @@
     </row>
     <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>102</v>
@@ -13340,22 +13907,22 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" t="s">
         <v>1817</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>1819</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13378,22 +13945,22 @@
         <v>1146</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>1355</v>
-      </c>
       <c r="P46" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -13406,6 +13973,9 @@
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>1943</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>1179</v>
       </c>
@@ -13413,27 +13983,27 @@
         <v>1180</v>
       </c>
       <c r="K47" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>266</v>
@@ -13442,21 +14012,21 @@
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F48" t="s">
         <v>1449</v>
       </c>
-      <c r="F48" t="s">
-        <v>1450</v>
-      </c>
       <c r="G48" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>1447</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>266</v>
@@ -13465,21 +14035,21 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F49" t="s">
         <v>1460</v>
       </c>
-      <c r="F49" t="s">
-        <v>1461</v>
-      </c>
       <c r="G49" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>1458</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>102</v>
@@ -13488,33 +14058,33 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="K50" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M50" t="s">
         <v>1513</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="L50" s="1" t="s">
+      <c r="N50" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="M50" t="s">
-        <v>1514</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1144</v>
@@ -13523,33 +14093,33 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F51" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M51" t="s">
         <v>1530</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="N51" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>1533</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>102</v>
@@ -13558,10 +14128,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>1622</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="18" x14ac:dyDescent="0.45">
@@ -13572,30 +14142,30 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F53" t="s">
         <v>1795</v>
       </c>
-      <c r="F53" t="s">
-        <v>1796</v>
-      </c>
       <c r="G53" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="M53" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="O53" t="s">
         <v>1791</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="O53" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>102</v>
@@ -13604,39 +14174,39 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="L54" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>1804</v>
-      </c>
       <c r="O54" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>102</v>
@@ -13645,34 +14215,34 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>1811</v>
-      </c>
       <c r="L55" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>1805</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -13697,10 +14267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13712,57 +14282,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="16"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14037,25 +14607,28 @@
         <v>768</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>1367</v>
-      </c>
       <c r="M10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="N10" t="s">
         <v>1362</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>1365</v>
-      </c>
     </row>
     <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>1878</v>
+      </c>
       <c r="B11" t="s">
         <v>761</v>
       </c>
@@ -14071,60 +14644,72 @@
       <c r="H11" s="1" t="s">
         <v>760</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1899</v>
+      </c>
       <c r="M11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>1371</v>
-      </c>
     </row>
     <row r="12" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="B12" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>766</v>
-      </c>
-      <c r="E12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B13" t="s">
-        <v>775</v>
       </c>
       <c r="E13" t="s">
         <v>266</v>
@@ -14133,215 +14718,214 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>774</v>
+        <v>763</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B14" t="s">
+        <v>775</v>
+      </c>
       <c r="E14" t="s">
         <v>266</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1010</v>
+        <v>773</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1011</v>
+        <v>774</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1013</v>
+        <v>1375</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>1376</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1014</v>
+        <v>1377</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>1015</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>782</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>784</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="E15" t="s">
         <v>266</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>780</v>
+      <c r="G15" s="1" t="s">
+        <v>1010</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>781</v>
+        <v>1011</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>872</v>
-      </c>
       <c r="B16" t="s">
-        <v>870</v>
+        <v>782</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>784</v>
       </c>
       <c r="E16" t="s">
         <v>266</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>805</v>
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>780</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>1383</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>873</v>
+      <c r="A17" s="1" t="s">
+        <v>872</v>
       </c>
       <c r="B17" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E17" t="s">
         <v>266</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>867</v>
+        <v>805</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>873</v>
+      </c>
       <c r="B18" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E18" t="s">
         <v>266</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>1045</v>
-      </c>
       <c r="B19" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E19" t="s">
         <v>266</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="K19" t="s">
-        <v>878</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1053</v>
+        <v>874</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>1387</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>1054</v>
+        <v>1388</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>1055</v>
+        <v>1389</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1056</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>1045</v>
+      </c>
       <c r="B20" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1463</v>
+        <v>880</v>
       </c>
       <c r="E20" t="s">
         <v>266</v>
@@ -14350,126 +14934,139 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1465</v>
+        <v>876</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1466</v>
+        <v>877</v>
+      </c>
+      <c r="K20" t="s">
+        <v>878</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>1468</v>
+        <v>879</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1053</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>1469</v>
+        <v>1054</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>1470</v>
+        <v>1055</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>890</v>
+      <c r="C21" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1462</v>
       </c>
       <c r="E21" t="s">
         <v>266</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>890</v>
+      </c>
+      <c r="E22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M22" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="E22" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F22">
+      <c r="E23" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>1052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="E24" t="s">
         <v>266</v>
@@ -14478,193 +15075,266 @@
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1482</v>
+        <v>1137</v>
       </c>
       <c r="E25" t="s">
-        <v>1473</v>
+        <v>266</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1474</v>
+        <v>1135</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1475</v>
+        <v>1136</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1138</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1476</v>
+        <v>1399</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>1477</v>
+        <v>1400</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>1478</v>
+        <v>1401</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>1479</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>1172</v>
+        <v>1479</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1481</v>
       </c>
       <c r="E26" t="s">
-        <v>266</v>
+        <v>1472</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1170</v>
+        <v>1473</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1171</v>
+        <v>1474</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1404</v>
+        <v>1475</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>1405</v>
+        <v>1476</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1406</v>
+        <v>1477</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>1407</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1597</v>
+        <v>1175</v>
       </c>
       <c r="E28" t="s">
-        <v>1473</v>
+        <v>266</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1593</v>
+        <v>1173</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1594</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="C29" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="D29" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>1472</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>1767</v>
+        <v>1605</v>
       </c>
       <c r="C30" t="s">
-        <v>1789</v>
+        <v>1603</v>
       </c>
       <c r="D30" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1144</v>
+        <v>1604</v>
+      </c>
+      <c r="E30" t="s">
+        <v>266</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>1763</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>1765</v>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>1928</v>
       </c>
     </row>
   </sheetData>
@@ -14689,10 +15359,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E497C29F-2DD4-4D7F-BC31-0B9FB72F4C71}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14707,58 +15377,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="16"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14960,29 +15630,71 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>1770</v>
+        <v>1068</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>1524</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>1525</v>
       </c>
     </row>
   </sheetData>
@@ -15007,10 +15719,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AE83"/>
+  <dimension ref="A1:AE85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15031,57 +15743,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="16"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -15168,30 +15880,30 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>1644</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1645</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>1651</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>1660</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1661</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="6"/>
@@ -15200,17 +15912,17 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="16" t="s">
+        <v>1662</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>1663</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Z3" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AA3" s="16" t="s">
         <v>1664</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>1662</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>1665</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -15225,34 +15937,34 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>1649</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>1656</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>1657</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="6"/>
@@ -15261,10 +15973,10 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -15272,7 +15984,7 @@
     </row>
     <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E5" t="s">
         <v>266</v>
@@ -15281,34 +15993,34 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>1837</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>1838</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>1843</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>1847</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>1849</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>1850</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="6"/>
@@ -15317,17 +16029,17 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="16" t="s">
+        <v>1840</v>
+      </c>
+      <c r="Y5" s="16" t="s">
         <v>1841</v>
       </c>
-      <c r="Y5" s="22" t="s">
-        <v>1842</v>
-      </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="16" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AA5" s="16" t="s">
         <v>1839</v>
-      </c>
-      <c r="AA5" s="22" t="s">
-        <v>1840</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -15336,13 +16048,13 @@
     </row>
     <row r="6" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D6" t="s">
         <v>1825</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1826</v>
       </c>
       <c r="E6" t="s">
         <v>266</v>
@@ -15357,24 +16069,24 @@
         <v>718</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>1821</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1822</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>1580</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>1581</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="6"/>
@@ -15383,13 +16095,13 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="22" t="s">
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="16" t="s">
+        <v>1822</v>
+      </c>
+      <c r="AA6" s="17" t="s">
         <v>1823</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>1824</v>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -15398,13 +16110,13 @@
     </row>
     <row r="7" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D7" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>102</v>
@@ -15413,34 +16125,34 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>1824</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>1833</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>1834</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>1835</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="6"/>
@@ -15449,10 +16161,10 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="23"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
@@ -15631,7 +16343,7 @@
     <row r="11" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1144</v>
@@ -15640,37 +16352,37 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>1609</v>
-      </c>
       <c r="I11" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>1618</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>1619</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -15683,10 +16395,10 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>1620</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>1621</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -16174,16 +16886,16 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>1776</v>
-      </c>
       <c r="P26" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="18" x14ac:dyDescent="0.45">
@@ -16202,16 +16914,16 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="M27" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>1773</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.45">
@@ -16276,16 +16988,16 @@
         <v>684</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>1418</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="18" x14ac:dyDescent="0.45">
@@ -16305,16 +17017,16 @@
         <v>693</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="18" x14ac:dyDescent="0.45">
@@ -16334,16 +17046,16 @@
         <v>694</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>1410</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.45">
@@ -16363,16 +17075,16 @@
         <v>25</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>1591</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16392,16 +17104,16 @@
         <v>777</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>1421</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16427,16 +17139,16 @@
         <v>36</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="O34" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>1586</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16530,16 +17242,16 @@
         <v>710</v>
       </c>
       <c r="M39" t="s">
+        <v>1581</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>1584</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16584,16 +17296,16 @@
         <v>718</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>1580</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16629,16 +17341,16 @@
         <v>730</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="N43" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>1571</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16656,16 +17368,16 @@
         <v>730</v>
       </c>
       <c r="M44" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="N44" t="s">
         <v>1570</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>1571</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16685,16 +17397,16 @@
         <v>730</v>
       </c>
       <c r="M45" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" s="1" t="s">
         <v>1571</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16763,16 +17475,16 @@
         <v>795</v>
       </c>
       <c r="M48" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>1568</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16818,16 +17530,16 @@
         <v>832</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>1556</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16842,22 +17554,22 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>832</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>1555</v>
-      </c>
       <c r="O51" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16880,16 +17592,16 @@
         <v>840</v>
       </c>
       <c r="M52" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>1552</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -16962,16 +17674,16 @@
         <v>768</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="O55" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -17059,16 +17771,16 @@
         <v>949</v>
       </c>
       <c r="M58" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N58" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>1563</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -17195,16 +17907,16 @@
         <v>941</v>
       </c>
       <c r="M62" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>1548</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -17364,16 +18076,16 @@
         <v>1117</v>
       </c>
       <c r="M71" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="N71" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="O71" s="1" t="s">
+      <c r="P71" s="1" t="s">
         <v>1428</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -17393,16 +18105,16 @@
         <v>1108</v>
       </c>
       <c r="M72" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N72" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -17439,16 +18151,16 @@
         <v>29</v>
       </c>
       <c r="M74" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="N74" t="s">
         <v>1542</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>1543</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" s="1" t="s">
         <v>1544</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="18" x14ac:dyDescent="0.45">
@@ -17493,7 +18205,7 @@
     </row>
     <row r="77" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E77" t="s">
         <v>266</v>
@@ -17502,27 +18214,27 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>1425</v>
-      </c>
       <c r="M77" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N77" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>1436</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E78" t="s">
         <v>266</v>
@@ -17531,15 +18243,15 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>1483</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E79" t="s">
         <v>266</v>
@@ -17548,27 +18260,27 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>1487</v>
-      </c>
       <c r="M79" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N79" t="s">
         <v>1489</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>1490</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" s="1" t="s">
         <v>1491</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E80" t="s">
         <v>266</v>
@@ -17577,33 +18289,33 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>1536</v>
-      </c>
       <c r="M80" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="N80" t="s">
         <v>1538</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
+        <v>1540</v>
+      </c>
+      <c r="P80" t="s">
         <v>1539</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1541</v>
-      </c>
-      <c r="P80" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D81" t="s">
         <v>1636</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1637</v>
       </c>
       <c r="E81" t="s">
         <v>266</v>
@@ -17612,33 +18324,33 @@
         <v>1</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>1635</v>
-      </c>
       <c r="M81" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N81" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="P81" s="1" t="s">
         <v>1713</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D82" t="s">
         <v>1768</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1769</v>
       </c>
       <c r="E82" t="s">
         <v>266</v>
@@ -17647,30 +18359,30 @@
         <v>1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="M82" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="O82" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="O82" s="1" t="s">
+      <c r="P82" s="1" t="s">
         <v>1717</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B83" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E83" t="s">
         <v>266</v>
@@ -17679,22 +18391,92 @@
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>1723</v>
-      </c>
       <c r="M83" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="N83" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="N83" s="1" t="s">
-        <v>1726</v>
-      </c>
       <c r="O83" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="P83" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="P83" s="1" t="s">
-        <v>1729</v>
+    </row>
+    <row r="84" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E84" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E85" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>1947</v>
       </c>
     </row>
   </sheetData>
@@ -17719,10 +18501,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D554C641-9F03-4D5E-8ADA-FF43FCAE20C3}">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17738,58 +18520,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="16"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -17876,10 +18658,10 @@
         <v>1016</v>
       </c>
       <c r="B3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D3" t="s">
         <v>1028</v>
@@ -17920,13 +18702,13 @@
     </row>
     <row r="4" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>1642</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1643</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>102</v>
@@ -17935,10 +18717,56 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>1639</v>
+    </row>
+    <row r="5" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1864</v>
       </c>
     </row>
   </sheetData>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D32689-707D-4B29-A733-F2862C795B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F1220-AB97-46A8-8D80-5D79508EFACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1982">
   <si>
     <t>開ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8172,6 +8172,94 @@
   </si>
   <si>
     <t>ふさいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怯える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おびえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怯えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おびえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怯えだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おびえだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>害怕，胆怯，担心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繋がる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つながる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繋がらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つながらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繋がって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つながって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繋がった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つながった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接，有关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8395,7 +8483,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8404,13 +8498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8741,76 +8829,76 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="24"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="21"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="20" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="23"/>
+      <c r="X1" s="20"/>
       <c r="Y1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19" t="s">
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19" t="s">
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="19"/>
+      <c r="AM1" s="24"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -10277,12 +10365,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -10292,6 +10374,12 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10300,10 +10388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AE72"/>
+  <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10320,57 +10408,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="23"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -12447,13 +12535,37 @@
         <v>1957</v>
       </c>
     </row>
+    <row r="73" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>1965</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -12461,6 +12573,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12492,57 +12609,57 @@
         <v>467</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="23"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14247,11 +14364,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -14259,6 +14371,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14267,10 +14384,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14282,57 +14399,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="23"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -15207,143 +15324,164 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1596</v>
-      </c>
       <c r="E29" t="s">
-        <v>1472</v>
+        <v>266</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1592</v>
+        <v>1967</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1593</v>
+        <v>1968</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1972</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="C30" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="D30" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="E30" t="s">
-        <v>266</v>
+        <v>1472</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>1766</v>
+        <v>1605</v>
       </c>
       <c r="C31" t="s">
-        <v>1788</v>
+        <v>1603</v>
       </c>
       <c r="D31" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1144</v>
+        <v>1604</v>
+      </c>
+      <c r="E31" t="s">
+        <v>266</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1761</v>
+        <v>1597</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1762</v>
+        <v>1598</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1763</v>
+        <v>1599</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1764</v>
+        <v>1600</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>1924</v>
-      </c>
       <c r="B32" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1932</v>
+        <v>1766</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1788</v>
       </c>
       <c r="D32" t="s">
-        <v>1933</v>
+        <v>1765</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>266</v>
+        <v>1144</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>1927</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>1928</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -15351,6 +15489,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15377,58 +15520,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="23"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="19"/>
+      <c r="AF1" s="24"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -15743,57 +15886,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="23"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="19"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -18481,11 +18624,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -18493,6 +18631,11 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18503,8 +18646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D554C641-9F03-4D5E-8ADA-FF43FCAE20C3}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18520,58 +18663,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="23"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="19"/>
+      <c r="AF1" s="24"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -18764,9 +18907,42 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>1981</v>
+      </c>
       <c r="D6" t="s">
         <v>1864</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>1980</v>
       </c>
     </row>
   </sheetData>

--- a/るwords.xlsx
+++ b/るwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F1220-AB97-46A8-8D80-5D79508EFACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC7E1C-5DCC-4C0A-BC14-902E5FC16C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊（とくしゅ）" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="2082">
   <si>
     <t>開ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8260,6 +8260,404 @@
   </si>
   <si>
     <t>连接，有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱きしめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だきしめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱きしめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だきしめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱きしめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だきしめた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ち止まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たちどまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站住，停步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ち止まります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たちどまります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ち止まって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たちどまって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立ち止まった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たちどまった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訴える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うったえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訴えて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うったえて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うったえた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訴えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诉讼，控告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訴えない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うったえない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たもつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たもちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保たない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たもたない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たもって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たもった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持，维持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらためる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改めて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらためて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改めた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらためた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煽动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇ぐ</t>
+  </si>
+  <si>
+    <t>あおぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あおいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あおいだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剝がす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はがす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥下，揭下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふざける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫山戯る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开玩笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震わせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふるわせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使发抖，使哆嗦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は細かく震えながら一心に一心に待っているのだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我一边颤抖着一边一心一意地等待着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦げる</t>
+  </si>
+  <si>
+    <t>こげる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦げります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こげります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦げて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こげて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦げない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こげない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦げた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こげた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤焦，烤糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらわす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらわします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表さない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらわさない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらわして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あらわした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現さない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著さない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思いつく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思い出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おもいつく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おもいだす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然想出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頷く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うなずく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意，点头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8483,13 +8881,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8498,7 +8890,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8829,76 +9227,76 @@
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="23"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="5"/>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="22" t="s">
+      <c r="T1" s="23"/>
+      <c r="U1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="19" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="20"/>
+      <c r="X1" s="23"/>
       <c r="Y1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24" t="s">
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24" t="s">
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AM1" s="24"/>
+      <c r="AM1" s="19"/>
     </row>
     <row r="2" spans="1:39" ht="18" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
@@ -10365,6 +10763,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -10374,12 +10778,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10388,10 +10786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CECA03-916A-4DEF-A0C1-A0055B2D1AD7}">
-  <dimension ref="A1:AE73"/>
+  <dimension ref="A1:AE82"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10408,57 +10806,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="24"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -12300,7 +12698,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>1743</v>
       </c>
@@ -12329,7 +12727,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>1747</v>
       </c>
@@ -12358,7 +12756,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>1747</v>
       </c>
@@ -12387,7 +12785,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>1755</v>
       </c>
@@ -12422,7 +12820,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="69" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>1859</v>
       </c>
@@ -12457,7 +12855,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="70" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>1876</v>
       </c>
@@ -12477,7 +12875,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="71" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>1952</v>
       </c>
@@ -12500,7 +12898,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="72" spans="2:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>1953</v>
       </c>
@@ -12535,7 +12933,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="73" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:16" ht="18" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>1966</v>
       </c>
@@ -12564,8 +12962,272 @@
         <v>1965</v>
       </c>
     </row>
+    <row r="74" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="B82" s="7" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -12573,11 +13235,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12586,10 +13243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C93101-AECE-4FB2-BF69-C9DACCEC8C66}">
-  <dimension ref="A1:AE55"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12609,57 +13266,57 @@
         <v>467</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="24"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="2:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -14362,8 +15019,95 @@
         <v>1805</v>
       </c>
     </row>
+    <row r="56" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>2050</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -14371,11 +15115,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14384,10 +15123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DB037E-A14C-4466-A21E-A1B744B1F951}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14399,57 +15138,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="24"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -15480,8 +16219,77 @@
         <v>1928</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>2002</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -15489,11 +16297,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15520,58 +16323,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="22" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="24"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -15862,10 +16665,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B5CFE5-87F5-4CB3-A3E7-C9FAAACD83F0}">
-  <dimension ref="A1:AE85"/>
+  <dimension ref="A1:AE88"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15886,57 +16689,57 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="23"/>
       <c r="Q1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="W1" s="19"/>
+      <c r="X1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="24"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
@@ -18622,8 +19425,82 @@
         <v>1947</v>
       </c>
     </row>
+    <row r="86" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E86" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E87" t="s">
+        <v>266</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="18" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E88" t="s">
+        <v>266</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>2031</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -18631,11 +19508,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18646,7 +19518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D554C641-9F03-4D5E-8ADA-FF43FCAE20C3}">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -18663,58 +19535,58 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="22" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24" t="s">
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="24"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
